--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>880600</v>
+        <v>884500</v>
       </c>
       <c r="E8" s="3">
-        <v>925200</v>
+        <v>750000</v>
       </c>
       <c r="F8" s="3">
-        <v>709700</v>
+        <v>788000</v>
       </c>
       <c r="G8" s="3">
-        <v>662600</v>
+        <v>604500</v>
       </c>
       <c r="H8" s="3">
-        <v>630500</v>
+        <v>564400</v>
       </c>
       <c r="I8" s="3">
-        <v>662100</v>
+        <v>537000</v>
       </c>
       <c r="J8" s="3">
+        <v>564000</v>
+      </c>
+      <c r="K8" s="3">
         <v>646000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>596800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>293200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>273400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>803300</v>
+        <v>769900</v>
       </c>
       <c r="E9" s="3">
-        <v>856000</v>
+        <v>684200</v>
       </c>
       <c r="F9" s="3">
-        <v>632200</v>
+        <v>729600</v>
       </c>
       <c r="G9" s="3">
-        <v>579100</v>
+        <v>538500</v>
       </c>
       <c r="H9" s="3">
-        <v>593300</v>
+        <v>493200</v>
       </c>
       <c r="I9" s="3">
-        <v>604200</v>
+        <v>505300</v>
       </c>
       <c r="J9" s="3">
+        <v>514600</v>
+      </c>
+      <c r="K9" s="3">
         <v>524900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>547700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>289500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>270700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>77200</v>
+        <v>114600</v>
       </c>
       <c r="E10" s="3">
-        <v>69200</v>
+        <v>65800</v>
       </c>
       <c r="F10" s="3">
-        <v>77500</v>
+        <v>58400</v>
       </c>
       <c r="G10" s="3">
-        <v>83500</v>
+        <v>66000</v>
       </c>
       <c r="H10" s="3">
-        <v>37200</v>
+        <v>71200</v>
       </c>
       <c r="I10" s="3">
-        <v>57900</v>
+        <v>31700</v>
       </c>
       <c r="J10" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K10" s="3">
         <v>121100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,46 +868,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5100</v>
+        <v>7300</v>
       </c>
       <c r="E12" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="F12" s="3">
-        <v>3600</v>
+        <v>4100</v>
       </c>
       <c r="G12" s="3">
-        <v>5400</v>
+        <v>3100</v>
       </c>
       <c r="H12" s="3">
-        <v>6500</v>
+        <v>4600</v>
       </c>
       <c r="I12" s="3">
-        <v>9700</v>
+        <v>5500</v>
       </c>
       <c r="J12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,46 +948,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>260400</v>
+        <v>-1400</v>
       </c>
       <c r="E14" s="3">
-        <v>9300</v>
+        <v>221800</v>
       </c>
       <c r="F14" s="3">
-        <v>356600</v>
+        <v>7900</v>
       </c>
       <c r="G14" s="3">
-        <v>12000</v>
+        <v>303700</v>
       </c>
       <c r="H14" s="3">
-        <v>117700</v>
+        <v>10200</v>
       </c>
       <c r="I14" s="3">
-        <v>-51900</v>
+        <v>100200</v>
       </c>
       <c r="J14" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>249300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1059600</v>
+        <v>788200</v>
       </c>
       <c r="E17" s="3">
-        <v>912500</v>
+        <v>902500</v>
       </c>
       <c r="F17" s="3">
-        <v>1106100</v>
+        <v>777800</v>
       </c>
       <c r="G17" s="3">
-        <v>583000</v>
+        <v>942100</v>
       </c>
       <c r="H17" s="3">
-        <v>777000</v>
+        <v>496500</v>
       </c>
       <c r="I17" s="3">
-        <v>527900</v>
+        <v>661700</v>
       </c>
       <c r="J17" s="3">
+        <v>449600</v>
+      </c>
+      <c r="K17" s="3">
         <v>513000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>623000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>330900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>535400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-179100</v>
+        <v>96300</v>
       </c>
       <c r="E18" s="3">
-        <v>12700</v>
+        <v>-152500</v>
       </c>
       <c r="F18" s="3">
-        <v>-396400</v>
+        <v>10300</v>
       </c>
       <c r="G18" s="3">
-        <v>79600</v>
+        <v>-337600</v>
       </c>
       <c r="H18" s="3">
-        <v>-146500</v>
+        <v>67800</v>
       </c>
       <c r="I18" s="3">
-        <v>134300</v>
+        <v>-124800</v>
       </c>
       <c r="J18" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K18" s="3">
         <v>133000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-262000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1112,63 +1145,67 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-13400</v>
+        <v>-11200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4500</v>
+        <v>-11400</v>
       </c>
       <c r="F20" s="3">
-        <v>-3800</v>
+        <v>-8600</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>-3200</v>
       </c>
       <c r="H20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
-        <v>800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-204900</v>
+        <v>195200</v>
       </c>
       <c r="E21" s="3">
-        <v>150400</v>
+        <v>-174500</v>
       </c>
       <c r="F21" s="3">
-        <v>-395800</v>
+        <v>122800</v>
       </c>
       <c r="G21" s="3">
-        <v>168400</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>-337100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>143400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
@@ -1176,20 +1213,23 @@
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>45400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-222400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,84 +1266,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-192500</v>
+        <v>85100</v>
       </c>
       <c r="E23" s="3">
-        <v>8300</v>
+        <v>-164000</v>
       </c>
       <c r="F23" s="3">
-        <v>-400100</v>
+        <v>1700</v>
       </c>
       <c r="G23" s="3">
-        <v>84300</v>
+        <v>-340800</v>
       </c>
       <c r="H23" s="3">
-        <v>-145000</v>
+        <v>71800</v>
       </c>
       <c r="I23" s="3">
-        <v>135100</v>
+        <v>-123500</v>
       </c>
       <c r="J23" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K23" s="3">
         <v>134500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-39200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-263000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12500</v>
+        <v>9000</v>
       </c>
       <c r="E24" s="3">
-        <v>3200</v>
+        <v>-10700</v>
       </c>
       <c r="F24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>40900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N24" s="3">
         <v>-39800</v>
       </c>
-      <c r="G24" s="3">
-        <v>24100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-66000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>31800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>40900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-39800</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-180000</v>
+        <v>76100</v>
       </c>
       <c r="E26" s="3">
-        <v>5000</v>
+        <v>-153300</v>
       </c>
       <c r="F26" s="3">
-        <v>-360300</v>
+        <v>-1100</v>
       </c>
       <c r="G26" s="3">
-        <v>60200</v>
+        <v>-306900</v>
       </c>
       <c r="H26" s="3">
-        <v>-79000</v>
+        <v>51300</v>
       </c>
       <c r="I26" s="3">
-        <v>103300</v>
+        <v>-67300</v>
       </c>
       <c r="J26" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K26" s="3">
         <v>93500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-223200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-180000</v>
+        <v>76100</v>
       </c>
       <c r="E27" s="3">
-        <v>5000</v>
+        <v>-153300</v>
       </c>
       <c r="F27" s="3">
-        <v>-360300</v>
+        <v>-1100</v>
       </c>
       <c r="G27" s="3">
-        <v>60200</v>
+        <v>-306900</v>
       </c>
       <c r="H27" s="3">
-        <v>-79000</v>
+        <v>51300</v>
       </c>
       <c r="I27" s="3">
-        <v>103300</v>
+        <v>-67300</v>
       </c>
       <c r="J27" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K27" s="3">
         <v>93500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-223200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13400</v>
+        <v>11200</v>
       </c>
       <c r="E32" s="3">
-        <v>4500</v>
+        <v>11400</v>
       </c>
       <c r="F32" s="3">
-        <v>3800</v>
+        <v>8600</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>3200</v>
       </c>
       <c r="H32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-180000</v>
+        <v>76100</v>
       </c>
       <c r="E33" s="3">
-        <v>5000</v>
+        <v>-153300</v>
       </c>
       <c r="F33" s="3">
-        <v>-360300</v>
+        <v>-1100</v>
       </c>
       <c r="G33" s="3">
-        <v>60200</v>
+        <v>-306900</v>
       </c>
       <c r="H33" s="3">
-        <v>-79000</v>
+        <v>51300</v>
       </c>
       <c r="I33" s="3">
-        <v>103300</v>
+        <v>-67300</v>
       </c>
       <c r="J33" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K33" s="3">
         <v>93500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-223200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-180000</v>
+        <v>76100</v>
       </c>
       <c r="E35" s="3">
-        <v>5000</v>
+        <v>-153300</v>
       </c>
       <c r="F35" s="3">
-        <v>-360300</v>
+        <v>-1100</v>
       </c>
       <c r="G35" s="3">
-        <v>60200</v>
+        <v>-306900</v>
       </c>
       <c r="H35" s="3">
-        <v>-79000</v>
+        <v>51300</v>
       </c>
       <c r="I35" s="3">
-        <v>103300</v>
+        <v>-67300</v>
       </c>
       <c r="J35" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K35" s="3">
         <v>93500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-223200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>66600</v>
+        <v>71400</v>
       </c>
       <c r="E41" s="3">
-        <v>93100</v>
+        <v>56700</v>
       </c>
       <c r="F41" s="3">
-        <v>47400</v>
+        <v>79300</v>
       </c>
       <c r="G41" s="3">
-        <v>70800</v>
+        <v>40300</v>
       </c>
       <c r="H41" s="3">
-        <v>83600</v>
+        <v>60300</v>
       </c>
       <c r="I41" s="3">
-        <v>81500</v>
+        <v>71200</v>
       </c>
       <c r="J41" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K41" s="3">
         <v>84300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>105300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>75600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,110 +1961,119 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71400</v>
+        <v>74900</v>
       </c>
       <c r="E43" s="3">
-        <v>79700</v>
+        <v>60800</v>
       </c>
       <c r="F43" s="3">
-        <v>76400</v>
+        <v>67900</v>
       </c>
       <c r="G43" s="3">
-        <v>66600</v>
+        <v>65100</v>
       </c>
       <c r="H43" s="3">
-        <v>67300</v>
+        <v>56700</v>
       </c>
       <c r="I43" s="3">
+        <v>57300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>44300</v>
+      </c>
+      <c r="L43" s="3">
+        <v>45900</v>
+      </c>
+      <c r="M43" s="3">
+        <v>55400</v>
+      </c>
+      <c r="N43" s="3">
         <v>55000</v>
       </c>
-      <c r="J43" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>45900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>55400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>55000</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>132000</v>
+        <v>111600</v>
       </c>
       <c r="E44" s="3">
-        <v>120400</v>
+        <v>112400</v>
       </c>
       <c r="F44" s="3">
-        <v>118000</v>
+        <v>102600</v>
       </c>
       <c r="G44" s="3">
-        <v>91900</v>
+        <v>100500</v>
       </c>
       <c r="H44" s="3">
-        <v>75600</v>
+        <v>78300</v>
       </c>
       <c r="I44" s="3">
-        <v>108400</v>
+        <v>64400</v>
       </c>
       <c r="J44" s="3">
+        <v>92400</v>
+      </c>
+      <c r="K44" s="3">
         <v>78300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>86400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>89400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>91500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23700</v>
+        <v>33800</v>
       </c>
       <c r="E45" s="3">
-        <v>16600</v>
+        <v>20200</v>
       </c>
       <c r="F45" s="3">
-        <v>38700</v>
+        <v>14100</v>
       </c>
       <c r="G45" s="3">
-        <v>109400</v>
+        <v>33000</v>
       </c>
       <c r="H45" s="3">
-        <v>104600</v>
+        <v>93200</v>
       </c>
       <c r="I45" s="3">
-        <v>102700</v>
+        <v>89100</v>
       </c>
       <c r="J45" s="3">
+        <v>87500</v>
+      </c>
+      <c r="K45" s="3">
         <v>25900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1100</v>
       </c>
       <c r="L45" s="3">
         <v>1100</v>
@@ -1983,162 +2082,177 @@
         <v>1100</v>
       </c>
       <c r="N45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>293700</v>
+        <v>291800</v>
       </c>
       <c r="E46" s="3">
-        <v>309900</v>
+        <v>250100</v>
       </c>
       <c r="F46" s="3">
-        <v>280500</v>
+        <v>263900</v>
       </c>
       <c r="G46" s="3">
-        <v>338800</v>
+        <v>238900</v>
       </c>
       <c r="H46" s="3">
-        <v>331100</v>
+        <v>288600</v>
       </c>
       <c r="I46" s="3">
-        <v>347700</v>
+        <v>282000</v>
       </c>
       <c r="J46" s="3">
+        <v>296200</v>
+      </c>
+      <c r="K46" s="3">
         <v>232800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>193400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>251300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>223200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29800</v>
+        <v>27100</v>
       </c>
       <c r="E47" s="3">
-        <v>26500</v>
+        <v>25400</v>
       </c>
       <c r="F47" s="3">
-        <v>23400</v>
+        <v>37400</v>
       </c>
       <c r="G47" s="3">
-        <v>21700</v>
+        <v>19900</v>
       </c>
       <c r="H47" s="3">
-        <v>15800</v>
+        <v>18500</v>
       </c>
       <c r="I47" s="3">
-        <v>12700</v>
+        <v>13400</v>
       </c>
       <c r="J47" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K47" s="3">
         <v>11900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6100</v>
-      </c>
-      <c r="L47" s="3">
-        <v>6000</v>
       </c>
       <c r="M47" s="3">
         <v>6000</v>
       </c>
       <c r="N47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1862000</v>
+        <v>1612100</v>
       </c>
       <c r="E48" s="3">
-        <v>2116200</v>
+        <v>1585900</v>
       </c>
       <c r="F48" s="3">
-        <v>2080200</v>
+        <v>1797000</v>
       </c>
       <c r="G48" s="3">
-        <v>2077000</v>
+        <v>1771700</v>
       </c>
       <c r="H48" s="3">
-        <v>2016000</v>
+        <v>1769000</v>
       </c>
       <c r="I48" s="3">
-        <v>2055900</v>
+        <v>1717000</v>
       </c>
       <c r="J48" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2007600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2063100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2111000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2092600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35800</v>
+        <v>30500</v>
       </c>
       <c r="E49" s="3">
-        <v>34600</v>
+        <v>30500</v>
       </c>
       <c r="F49" s="3">
-        <v>34600</v>
+        <v>29400</v>
       </c>
       <c r="G49" s="3">
-        <v>40300</v>
+        <v>29400</v>
       </c>
       <c r="H49" s="3">
-        <v>40500</v>
+        <v>34300</v>
       </c>
       <c r="I49" s="3">
-        <v>57900</v>
+        <v>34500</v>
       </c>
       <c r="J49" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K49" s="3">
         <v>58400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2330,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>243800</v>
+        <v>213300</v>
       </c>
       <c r="E52" s="3">
-        <v>242400</v>
+        <v>207600</v>
       </c>
       <c r="F52" s="3">
-        <v>233400</v>
+        <v>206500</v>
       </c>
       <c r="G52" s="3">
-        <v>213900</v>
+        <v>198800</v>
       </c>
       <c r="H52" s="3">
-        <v>205700</v>
+        <v>182200</v>
       </c>
       <c r="I52" s="3">
-        <v>223000</v>
+        <v>175200</v>
       </c>
       <c r="J52" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K52" s="3">
         <v>174100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>173100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>176800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>174800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2465000</v>
+        <v>2174800</v>
       </c>
       <c r="E54" s="3">
-        <v>2729600</v>
+        <v>2099500</v>
       </c>
       <c r="F54" s="3">
-        <v>2652000</v>
+        <v>2319400</v>
       </c>
       <c r="G54" s="3">
-        <v>2691700</v>
+        <v>2258700</v>
       </c>
       <c r="H54" s="3">
-        <v>2609000</v>
+        <v>2292600</v>
       </c>
       <c r="I54" s="3">
-        <v>2697300</v>
+        <v>2222200</v>
       </c>
       <c r="J54" s="3">
+        <v>2297300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2484700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2495800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2607500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2559200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>230400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,110 +2489,117 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>192900</v>
+        <v>167200</v>
       </c>
       <c r="E57" s="3">
-        <v>197700</v>
+        <v>164300</v>
       </c>
       <c r="F57" s="3">
-        <v>181400</v>
+        <v>168400</v>
       </c>
       <c r="G57" s="3">
-        <v>151500</v>
+        <v>154500</v>
       </c>
       <c r="H57" s="3">
-        <v>134900</v>
+        <v>129000</v>
       </c>
       <c r="I57" s="3">
-        <v>141600</v>
+        <v>114900</v>
       </c>
       <c r="J57" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K57" s="3">
         <v>113500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>112500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>129600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>117600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="E58" s="3">
-        <v>6200</v>
+        <v>5100</v>
       </c>
       <c r="F58" s="3">
-        <v>46300</v>
+        <v>5300</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="H58" s="3">
-        <v>123100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>104800</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>20100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20500</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18100</v>
+        <v>40300</v>
       </c>
       <c r="E59" s="3">
-        <v>20300</v>
+        <v>15400</v>
       </c>
       <c r="F59" s="3">
-        <v>13800</v>
+        <v>17300</v>
       </c>
       <c r="G59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H59" s="3" t="s">
+        <v>11700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="3">
-        <v>4400</v>
-      </c>
       <c r="J59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -2473,122 +2610,134 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>217000</v>
+        <v>212400</v>
       </c>
       <c r="E60" s="3">
-        <v>224200</v>
+        <v>184800</v>
       </c>
       <c r="F60" s="3">
-        <v>241500</v>
+        <v>191000</v>
       </c>
       <c r="G60" s="3">
-        <v>153300</v>
+        <v>205700</v>
       </c>
       <c r="H60" s="3">
-        <v>257900</v>
+        <v>130500</v>
       </c>
       <c r="I60" s="3">
-        <v>146000</v>
+        <v>219700</v>
       </c>
       <c r="J60" s="3">
+        <v>124400</v>
+      </c>
+      <c r="K60" s="3">
         <v>136300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>133100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>129700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>117600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>390900</v>
+        <v>311700</v>
       </c>
       <c r="E61" s="3">
-        <v>393900</v>
+        <v>333000</v>
       </c>
       <c r="F61" s="3">
-        <v>330400</v>
+        <v>335500</v>
       </c>
       <c r="G61" s="3">
-        <v>172200</v>
+        <v>281400</v>
       </c>
       <c r="H61" s="3">
-        <v>20100</v>
+        <v>146600</v>
       </c>
       <c r="I61" s="3">
-        <v>100900</v>
+        <v>17100</v>
       </c>
       <c r="J61" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K61" s="3">
         <v>136800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>211900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>292400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>240700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>339700</v>
+        <v>291000</v>
       </c>
       <c r="E62" s="3">
-        <v>387800</v>
+        <v>289300</v>
       </c>
       <c r="F62" s="3">
-        <v>377000</v>
+        <v>330300</v>
       </c>
       <c r="G62" s="3">
-        <v>370100</v>
+        <v>321100</v>
       </c>
       <c r="H62" s="3">
-        <v>365600</v>
+        <v>315200</v>
       </c>
       <c r="I62" s="3">
-        <v>386500</v>
+        <v>311400</v>
       </c>
       <c r="J62" s="3">
+        <v>329200</v>
+      </c>
+      <c r="K62" s="3">
         <v>320800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>308500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>309400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>306200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>947600</v>
+        <v>814800</v>
       </c>
       <c r="E66" s="3">
-        <v>1006000</v>
+        <v>807100</v>
       </c>
       <c r="F66" s="3">
-        <v>948900</v>
+        <v>856800</v>
       </c>
       <c r="G66" s="3">
-        <v>695500</v>
+        <v>808200</v>
       </c>
       <c r="H66" s="3">
-        <v>643600</v>
+        <v>592400</v>
       </c>
       <c r="I66" s="3">
-        <v>633400</v>
+        <v>548200</v>
       </c>
       <c r="J66" s="3">
+        <v>539500</v>
+      </c>
+      <c r="K66" s="3">
         <v>593900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>653500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>731500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>664600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-465500</v>
+        <v>-328800</v>
       </c>
       <c r="E72" s="3">
-        <v>-259300</v>
+        <v>-396400</v>
       </c>
       <c r="F72" s="3">
-        <v>-265600</v>
+        <v>-226300</v>
       </c>
       <c r="G72" s="3">
-        <v>94800</v>
+        <v>-226200</v>
       </c>
       <c r="H72" s="3">
-        <v>64100</v>
+        <v>80800</v>
       </c>
       <c r="I72" s="3">
-        <v>162500</v>
+        <v>54600</v>
       </c>
       <c r="J72" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-129900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-111300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1517400</v>
+        <v>1360000</v>
       </c>
       <c r="E76" s="3">
-        <v>1723500</v>
+        <v>1292400</v>
       </c>
       <c r="F76" s="3">
-        <v>1703100</v>
+        <v>1462600</v>
       </c>
       <c r="G76" s="3">
-        <v>1996200</v>
+        <v>1450600</v>
       </c>
       <c r="H76" s="3">
-        <v>1965400</v>
+        <v>1700200</v>
       </c>
       <c r="I76" s="3">
-        <v>2063900</v>
+        <v>1674000</v>
       </c>
       <c r="J76" s="3">
+        <v>1757800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1890800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1842300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1876000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1894600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-180000</v>
+        <v>76100</v>
       </c>
       <c r="E81" s="3">
-        <v>5000</v>
+        <v>-153300</v>
       </c>
       <c r="F81" s="3">
-        <v>-360300</v>
+        <v>-1100</v>
       </c>
       <c r="G81" s="3">
-        <v>60200</v>
+        <v>-306900</v>
       </c>
       <c r="H81" s="3">
-        <v>-79000</v>
+        <v>51300</v>
       </c>
       <c r="I81" s="3">
-        <v>103300</v>
+        <v>-67300</v>
       </c>
       <c r="J81" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K81" s="3">
         <v>93500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-223200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>136100</v>
+        <v>156200</v>
       </c>
       <c r="E89" s="3">
-        <v>177800</v>
+        <v>116000</v>
       </c>
       <c r="F89" s="3">
-        <v>137700</v>
+        <v>151400</v>
       </c>
       <c r="G89" s="3">
-        <v>122900</v>
+        <v>117300</v>
       </c>
       <c r="H89" s="3">
-        <v>126800</v>
+        <v>104700</v>
       </c>
       <c r="I89" s="3">
-        <v>128400</v>
+        <v>108000</v>
       </c>
       <c r="J89" s="3">
+        <v>109400</v>
+      </c>
+      <c r="K89" s="3">
         <v>184600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>120800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>50900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>132800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,46 +3734,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-176800</v>
+        <v>-129700</v>
       </c>
       <c r="E91" s="3">
-        <v>-161000</v>
+        <v>-150600</v>
       </c>
       <c r="F91" s="3">
-        <v>-134000</v>
+        <v>-137200</v>
       </c>
       <c r="G91" s="3">
-        <v>-172100</v>
+        <v>-114100</v>
       </c>
       <c r="H91" s="3">
-        <v>-164800</v>
+        <v>-146600</v>
       </c>
       <c r="I91" s="3">
-        <v>-96200</v>
+        <v>-140400</v>
       </c>
       <c r="J91" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-84900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-80100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-187500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3855,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164800</v>
+        <v>-127000</v>
       </c>
       <c r="E94" s="3">
-        <v>-157100</v>
+        <v>-140400</v>
       </c>
       <c r="F94" s="3">
-        <v>-368400</v>
+        <v>-133800</v>
       </c>
       <c r="G94" s="3">
-        <v>-173400</v>
+        <v>-313800</v>
       </c>
       <c r="H94" s="3">
-        <v>-162000</v>
+        <v>-147700</v>
       </c>
       <c r="I94" s="3">
-        <v>-65000</v>
+        <v>-138000</v>
       </c>
       <c r="J94" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-96200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-192100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3697,16 +3931,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-10300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-14800</v>
+        <v>-8800</v>
       </c>
       <c r="I96" s="3">
-        <v>-14600</v>
+        <v>-12600</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-12500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,118 +4077,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1900</v>
+        <v>-16300</v>
       </c>
       <c r="E100" s="3">
-        <v>23600</v>
+        <v>1700</v>
       </c>
       <c r="F100" s="3">
-        <v>212600</v>
+        <v>20100</v>
       </c>
       <c r="G100" s="3">
-        <v>37200</v>
+        <v>181100</v>
       </c>
       <c r="H100" s="3">
-        <v>32100</v>
+        <v>31700</v>
       </c>
       <c r="I100" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-62300</v>
       </c>
-      <c r="J100" s="3">
-        <v>-62300</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>1500</v>
-      </c>
       <c r="F101" s="3">
-        <v>-5200</v>
+        <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>400</v>
+        <v>-4500</v>
       </c>
       <c r="H101" s="3">
-        <v>5200</v>
+        <v>300</v>
       </c>
       <c r="I101" s="3">
-        <v>-4000</v>
+        <v>4500</v>
       </c>
       <c r="J101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26500</v>
+        <v>14700</v>
       </c>
       <c r="E102" s="3">
-        <v>45800</v>
+        <v>-22600</v>
       </c>
       <c r="F102" s="3">
-        <v>-23400</v>
+        <v>39000</v>
       </c>
       <c r="G102" s="3">
-        <v>-12800</v>
+        <v>-19900</v>
       </c>
       <c r="H102" s="3">
-        <v>2100</v>
+        <v>-10900</v>
       </c>
       <c r="I102" s="3">
-        <v>-2800</v>
+        <v>1800</v>
       </c>
       <c r="J102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K102" s="3">
         <v>25500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-45900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -735,25 +735,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>884500</v>
+        <v>917500</v>
       </c>
       <c r="E8" s="3">
-        <v>750000</v>
+        <v>777900</v>
       </c>
       <c r="F8" s="3">
-        <v>788000</v>
+        <v>817400</v>
       </c>
       <c r="G8" s="3">
-        <v>604500</v>
+        <v>627000</v>
       </c>
       <c r="H8" s="3">
-        <v>564400</v>
+        <v>585400</v>
       </c>
       <c r="I8" s="3">
-        <v>537000</v>
+        <v>557000</v>
       </c>
       <c r="J8" s="3">
-        <v>564000</v>
+        <v>585000</v>
       </c>
       <c r="K8" s="3">
         <v>646000</v>
@@ -776,25 +776,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>769900</v>
+        <v>798600</v>
       </c>
       <c r="E9" s="3">
-        <v>684200</v>
+        <v>709700</v>
       </c>
       <c r="F9" s="3">
-        <v>729600</v>
+        <v>756800</v>
       </c>
       <c r="G9" s="3">
-        <v>538500</v>
+        <v>558500</v>
       </c>
       <c r="H9" s="3">
-        <v>493200</v>
+        <v>511600</v>
       </c>
       <c r="I9" s="3">
-        <v>505300</v>
+        <v>524200</v>
       </c>
       <c r="J9" s="3">
-        <v>514600</v>
+        <v>533800</v>
       </c>
       <c r="K9" s="3">
         <v>524900</v>
@@ -817,25 +817,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>114600</v>
+        <v>118900</v>
       </c>
       <c r="E10" s="3">
-        <v>65800</v>
+        <v>68200</v>
       </c>
       <c r="F10" s="3">
-        <v>58400</v>
+        <v>60600</v>
       </c>
       <c r="G10" s="3">
-        <v>66000</v>
+        <v>68500</v>
       </c>
       <c r="H10" s="3">
-        <v>71200</v>
+        <v>73800</v>
       </c>
       <c r="I10" s="3">
-        <v>31700</v>
+        <v>32800</v>
       </c>
       <c r="J10" s="3">
-        <v>49300</v>
+        <v>51200</v>
       </c>
       <c r="K10" s="3">
         <v>121100</v>
@@ -875,25 +875,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
-        <v>4100</v>
-      </c>
       <c r="G12" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H12" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I12" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="J12" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="K12" s="3">
         <v>5900</v>
@@ -957,25 +957,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E14" s="3">
-        <v>221800</v>
+        <v>230100</v>
       </c>
       <c r="F14" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="G14" s="3">
-        <v>303700</v>
+        <v>315000</v>
       </c>
       <c r="H14" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="I14" s="3">
-        <v>100200</v>
+        <v>104000</v>
       </c>
       <c r="J14" s="3">
-        <v>-44200</v>
+        <v>-45900</v>
       </c>
       <c r="K14" s="3">
         <v>-900</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>788200</v>
+        <v>817600</v>
       </c>
       <c r="E17" s="3">
-        <v>902500</v>
+        <v>936100</v>
       </c>
       <c r="F17" s="3">
-        <v>777800</v>
+        <v>806700</v>
       </c>
       <c r="G17" s="3">
-        <v>942100</v>
+        <v>977200</v>
       </c>
       <c r="H17" s="3">
-        <v>496500</v>
+        <v>515000</v>
       </c>
       <c r="I17" s="3">
-        <v>661700</v>
+        <v>686400</v>
       </c>
       <c r="J17" s="3">
-        <v>449600</v>
+        <v>466400</v>
       </c>
       <c r="K17" s="3">
         <v>513000</v>
@@ -1094,25 +1094,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>96300</v>
+        <v>99900</v>
       </c>
       <c r="E18" s="3">
-        <v>-152500</v>
+        <v>-158200</v>
       </c>
       <c r="F18" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="G18" s="3">
-        <v>-337600</v>
+        <v>-350200</v>
       </c>
       <c r="H18" s="3">
-        <v>67800</v>
+        <v>70400</v>
       </c>
       <c r="I18" s="3">
-        <v>-124800</v>
+        <v>-129400</v>
       </c>
       <c r="J18" s="3">
-        <v>114400</v>
+        <v>118600</v>
       </c>
       <c r="K18" s="3">
         <v>133000</v>
@@ -1152,19 +1152,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="E20" s="3">
-        <v>-11400</v>
+        <v>-11900</v>
       </c>
       <c r="F20" s="3">
-        <v>-8600</v>
+        <v>-9000</v>
       </c>
       <c r="G20" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="I20" s="3">
         <v>1300</v>
@@ -1193,19 +1193,19 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>195200</v>
+        <v>202400</v>
       </c>
       <c r="E21" s="3">
-        <v>-174500</v>
+        <v>-181000</v>
       </c>
       <c r="F21" s="3">
-        <v>122800</v>
+        <v>127300</v>
       </c>
       <c r="G21" s="3">
-        <v>-337100</v>
+        <v>-349700</v>
       </c>
       <c r="H21" s="3">
-        <v>143400</v>
+        <v>148700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
@@ -1275,25 +1275,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>85100</v>
+        <v>88300</v>
       </c>
       <c r="E23" s="3">
-        <v>-164000</v>
+        <v>-170100</v>
       </c>
       <c r="F23" s="3">
         <v>1700</v>
       </c>
       <c r="G23" s="3">
-        <v>-340800</v>
+        <v>-353500</v>
       </c>
       <c r="H23" s="3">
-        <v>71800</v>
+        <v>74500</v>
       </c>
       <c r="I23" s="3">
-        <v>-123500</v>
+        <v>-128100</v>
       </c>
       <c r="J23" s="3">
-        <v>115000</v>
+        <v>119300</v>
       </c>
       <c r="K23" s="3">
         <v>134500</v>
@@ -1316,25 +1316,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="E24" s="3">
-        <v>-10700</v>
+        <v>-11100</v>
       </c>
       <c r="F24" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G24" s="3">
-        <v>-33900</v>
+        <v>-35200</v>
       </c>
       <c r="H24" s="3">
-        <v>20500</v>
+        <v>21300</v>
       </c>
       <c r="I24" s="3">
-        <v>-56200</v>
+        <v>-58300</v>
       </c>
       <c r="J24" s="3">
-        <v>27100</v>
+        <v>28100</v>
       </c>
       <c r="K24" s="3">
         <v>40900</v>
@@ -1398,25 +1398,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>76100</v>
+        <v>79000</v>
       </c>
       <c r="E26" s="3">
-        <v>-153300</v>
+        <v>-159000</v>
       </c>
       <c r="F26" s="3">
         <v>-1100</v>
       </c>
       <c r="G26" s="3">
-        <v>-306900</v>
+        <v>-318300</v>
       </c>
       <c r="H26" s="3">
-        <v>51300</v>
+        <v>53200</v>
       </c>
       <c r="I26" s="3">
-        <v>-67300</v>
+        <v>-69800</v>
       </c>
       <c r="J26" s="3">
-        <v>88000</v>
+        <v>91200</v>
       </c>
       <c r="K26" s="3">
         <v>93500</v>
@@ -1439,25 +1439,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76100</v>
+        <v>79000</v>
       </c>
       <c r="E27" s="3">
-        <v>-153300</v>
+        <v>-159000</v>
       </c>
       <c r="F27" s="3">
         <v>-1100</v>
       </c>
       <c r="G27" s="3">
-        <v>-306900</v>
+        <v>-318300</v>
       </c>
       <c r="H27" s="3">
-        <v>51300</v>
+        <v>53200</v>
       </c>
       <c r="I27" s="3">
-        <v>-67300</v>
+        <v>-69800</v>
       </c>
       <c r="J27" s="3">
-        <v>88000</v>
+        <v>91200</v>
       </c>
       <c r="K27" s="3">
         <v>93500</v>
@@ -1644,19 +1644,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="E32" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="F32" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="G32" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="I32" s="3">
         <v>-1300</v>
@@ -1685,25 +1685,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76100</v>
+        <v>79000</v>
       </c>
       <c r="E33" s="3">
-        <v>-153300</v>
+        <v>-159000</v>
       </c>
       <c r="F33" s="3">
         <v>-1100</v>
       </c>
       <c r="G33" s="3">
-        <v>-306900</v>
+        <v>-318300</v>
       </c>
       <c r="H33" s="3">
-        <v>51300</v>
+        <v>53200</v>
       </c>
       <c r="I33" s="3">
-        <v>-67300</v>
+        <v>-69800</v>
       </c>
       <c r="J33" s="3">
-        <v>88000</v>
+        <v>91200</v>
       </c>
       <c r="K33" s="3">
         <v>93500</v>
@@ -1767,25 +1767,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76100</v>
+        <v>79000</v>
       </c>
       <c r="E35" s="3">
-        <v>-153300</v>
+        <v>-159000</v>
       </c>
       <c r="F35" s="3">
         <v>-1100</v>
       </c>
       <c r="G35" s="3">
-        <v>-306900</v>
+        <v>-318300</v>
       </c>
       <c r="H35" s="3">
-        <v>51300</v>
+        <v>53200</v>
       </c>
       <c r="I35" s="3">
-        <v>-67300</v>
+        <v>-69800</v>
       </c>
       <c r="J35" s="3">
-        <v>88000</v>
+        <v>91200</v>
       </c>
       <c r="K35" s="3">
         <v>93500</v>
@@ -1888,25 +1888,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>71400</v>
+        <v>74100</v>
       </c>
       <c r="E41" s="3">
-        <v>56700</v>
+        <v>58900</v>
       </c>
       <c r="F41" s="3">
-        <v>79300</v>
+        <v>82300</v>
       </c>
       <c r="G41" s="3">
-        <v>40300</v>
+        <v>41900</v>
       </c>
       <c r="H41" s="3">
-        <v>60300</v>
+        <v>62500</v>
       </c>
       <c r="I41" s="3">
-        <v>71200</v>
+        <v>73900</v>
       </c>
       <c r="J41" s="3">
-        <v>69400</v>
+        <v>72000</v>
       </c>
       <c r="K41" s="3">
         <v>84300</v>
@@ -1970,25 +1970,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74900</v>
+        <v>77700</v>
       </c>
       <c r="E43" s="3">
-        <v>60800</v>
+        <v>63100</v>
       </c>
       <c r="F43" s="3">
-        <v>67900</v>
+        <v>70400</v>
       </c>
       <c r="G43" s="3">
-        <v>65100</v>
+        <v>67500</v>
       </c>
       <c r="H43" s="3">
-        <v>56700</v>
+        <v>58900</v>
       </c>
       <c r="I43" s="3">
-        <v>57300</v>
+        <v>59500</v>
       </c>
       <c r="J43" s="3">
-        <v>46900</v>
+        <v>48600</v>
       </c>
       <c r="K43" s="3">
         <v>44300</v>
@@ -2011,25 +2011,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>111600</v>
+        <v>115800</v>
       </c>
       <c r="E44" s="3">
-        <v>112400</v>
+        <v>116600</v>
       </c>
       <c r="F44" s="3">
-        <v>102600</v>
+        <v>106400</v>
       </c>
       <c r="G44" s="3">
-        <v>100500</v>
+        <v>104300</v>
       </c>
       <c r="H44" s="3">
-        <v>78300</v>
+        <v>81200</v>
       </c>
       <c r="I44" s="3">
-        <v>64400</v>
+        <v>66800</v>
       </c>
       <c r="J44" s="3">
-        <v>92400</v>
+        <v>95800</v>
       </c>
       <c r="K44" s="3">
         <v>78300</v>
@@ -2052,25 +2052,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33800</v>
+        <v>35000</v>
       </c>
       <c r="E45" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="F45" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="G45" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="H45" s="3">
-        <v>93200</v>
+        <v>96700</v>
       </c>
       <c r="I45" s="3">
-        <v>89100</v>
+        <v>92400</v>
       </c>
       <c r="J45" s="3">
-        <v>87500</v>
+        <v>90800</v>
       </c>
       <c r="K45" s="3">
         <v>25900</v>
@@ -2093,25 +2093,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>291800</v>
+        <v>302600</v>
       </c>
       <c r="E46" s="3">
-        <v>250100</v>
+        <v>259500</v>
       </c>
       <c r="F46" s="3">
-        <v>263900</v>
+        <v>273800</v>
       </c>
       <c r="G46" s="3">
-        <v>238900</v>
+        <v>247800</v>
       </c>
       <c r="H46" s="3">
-        <v>288600</v>
+        <v>299300</v>
       </c>
       <c r="I46" s="3">
-        <v>282000</v>
+        <v>292500</v>
       </c>
       <c r="J46" s="3">
-        <v>296200</v>
+        <v>307200</v>
       </c>
       <c r="K46" s="3">
         <v>232800</v>
@@ -2134,25 +2134,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27100</v>
+        <v>28100</v>
       </c>
       <c r="E47" s="3">
-        <v>25400</v>
+        <v>26300</v>
       </c>
       <c r="F47" s="3">
-        <v>37400</v>
+        <v>38800</v>
       </c>
       <c r="G47" s="3">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="H47" s="3">
-        <v>18500</v>
+        <v>19200</v>
       </c>
       <c r="I47" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="J47" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="K47" s="3">
         <v>11900</v>
@@ -2175,25 +2175,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1612100</v>
+        <v>1672200</v>
       </c>
       <c r="E48" s="3">
-        <v>1585900</v>
+        <v>1645000</v>
       </c>
       <c r="F48" s="3">
-        <v>1797000</v>
+        <v>1864000</v>
       </c>
       <c r="G48" s="3">
-        <v>1771700</v>
+        <v>1837700</v>
       </c>
       <c r="H48" s="3">
-        <v>1769000</v>
+        <v>1835000</v>
       </c>
       <c r="I48" s="3">
-        <v>1717000</v>
+        <v>1781000</v>
       </c>
       <c r="J48" s="3">
-        <v>1751000</v>
+        <v>1816300</v>
       </c>
       <c r="K48" s="3">
         <v>2007600</v>
@@ -2216,25 +2216,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F49" s="3">
         <v>30500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>30500</v>
       </c>
-      <c r="F49" s="3">
-        <v>29400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>29400</v>
-      </c>
       <c r="H49" s="3">
-        <v>34300</v>
+        <v>35600</v>
       </c>
       <c r="I49" s="3">
-        <v>34500</v>
+        <v>35700</v>
       </c>
       <c r="J49" s="3">
-        <v>49300</v>
+        <v>51200</v>
       </c>
       <c r="K49" s="3">
         <v>58400</v>
@@ -2339,25 +2339,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>213300</v>
+        <v>221200</v>
       </c>
       <c r="E52" s="3">
-        <v>207600</v>
+        <v>215400</v>
       </c>
       <c r="F52" s="3">
-        <v>206500</v>
+        <v>214200</v>
       </c>
       <c r="G52" s="3">
-        <v>198800</v>
+        <v>206200</v>
       </c>
       <c r="H52" s="3">
-        <v>182200</v>
+        <v>189000</v>
       </c>
       <c r="I52" s="3">
-        <v>175200</v>
+        <v>181800</v>
       </c>
       <c r="J52" s="3">
-        <v>190000</v>
+        <v>197000</v>
       </c>
       <c r="K52" s="3">
         <v>174100</v>
@@ -2421,25 +2421,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2174800</v>
+        <v>2255800</v>
       </c>
       <c r="E54" s="3">
-        <v>2099500</v>
+        <v>2177700</v>
       </c>
       <c r="F54" s="3">
-        <v>2319400</v>
+        <v>2405900</v>
       </c>
       <c r="G54" s="3">
-        <v>2258700</v>
+        <v>2342900</v>
       </c>
       <c r="H54" s="3">
-        <v>2292600</v>
+        <v>2378000</v>
       </c>
       <c r="I54" s="3">
-        <v>2222200</v>
+        <v>2305000</v>
       </c>
       <c r="J54" s="3">
-        <v>2297300</v>
+        <v>2382900</v>
       </c>
       <c r="K54" s="3">
         <v>2484700</v>
@@ -2496,25 +2496,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>167200</v>
+        <v>173400</v>
       </c>
       <c r="E57" s="3">
-        <v>164300</v>
+        <v>170400</v>
       </c>
       <c r="F57" s="3">
-        <v>168400</v>
+        <v>174700</v>
       </c>
       <c r="G57" s="3">
-        <v>154500</v>
+        <v>160300</v>
       </c>
       <c r="H57" s="3">
-        <v>129000</v>
+        <v>133900</v>
       </c>
       <c r="I57" s="3">
-        <v>114900</v>
+        <v>119200</v>
       </c>
       <c r="J57" s="3">
-        <v>120600</v>
+        <v>125100</v>
       </c>
       <c r="K57" s="3">
         <v>113500</v>
@@ -2537,22 +2537,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E58" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="F58" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="G58" s="3">
-        <v>39400</v>
+        <v>40900</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>104800</v>
+        <v>108700</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2578,16 +2578,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>40300</v>
+        <v>41900</v>
       </c>
       <c r="E59" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="F59" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="G59" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="H59" s="3">
         <v>1500</v>
@@ -2596,7 +2596,7 @@
         <v>16</v>
       </c>
       <c r="J59" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K59" s="3">
         <v>2700</v>
@@ -2619,25 +2619,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>212400</v>
+        <v>220300</v>
       </c>
       <c r="E60" s="3">
-        <v>184800</v>
+        <v>191700</v>
       </c>
       <c r="F60" s="3">
-        <v>191000</v>
+        <v>198100</v>
       </c>
       <c r="G60" s="3">
-        <v>205700</v>
+        <v>213300</v>
       </c>
       <c r="H60" s="3">
-        <v>130500</v>
+        <v>135400</v>
       </c>
       <c r="I60" s="3">
-        <v>219700</v>
+        <v>227900</v>
       </c>
       <c r="J60" s="3">
-        <v>124400</v>
+        <v>129000</v>
       </c>
       <c r="K60" s="3">
         <v>136300</v>
@@ -2660,25 +2660,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>311700</v>
+        <v>323300</v>
       </c>
       <c r="E61" s="3">
-        <v>333000</v>
+        <v>345400</v>
       </c>
       <c r="F61" s="3">
-        <v>335500</v>
+        <v>348000</v>
       </c>
       <c r="G61" s="3">
-        <v>281400</v>
+        <v>291900</v>
       </c>
       <c r="H61" s="3">
-        <v>146600</v>
+        <v>152100</v>
       </c>
       <c r="I61" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="J61" s="3">
-        <v>86000</v>
+        <v>89200</v>
       </c>
       <c r="K61" s="3">
         <v>136800</v>
@@ -2701,25 +2701,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>291000</v>
+        <v>301800</v>
       </c>
       <c r="E62" s="3">
-        <v>289300</v>
+        <v>300100</v>
       </c>
       <c r="F62" s="3">
-        <v>330300</v>
+        <v>342600</v>
       </c>
       <c r="G62" s="3">
-        <v>321100</v>
+        <v>333000</v>
       </c>
       <c r="H62" s="3">
-        <v>315200</v>
+        <v>326900</v>
       </c>
       <c r="I62" s="3">
-        <v>311400</v>
+        <v>323000</v>
       </c>
       <c r="J62" s="3">
-        <v>329200</v>
+        <v>341500</v>
       </c>
       <c r="K62" s="3">
         <v>320800</v>
@@ -2865,25 +2865,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>814800</v>
+        <v>845200</v>
       </c>
       <c r="E66" s="3">
-        <v>807100</v>
+        <v>837200</v>
       </c>
       <c r="F66" s="3">
-        <v>856800</v>
+        <v>888800</v>
       </c>
       <c r="G66" s="3">
-        <v>808200</v>
+        <v>838300</v>
       </c>
       <c r="H66" s="3">
-        <v>592400</v>
+        <v>614400</v>
       </c>
       <c r="I66" s="3">
-        <v>548200</v>
+        <v>568600</v>
       </c>
       <c r="J66" s="3">
-        <v>539500</v>
+        <v>559600</v>
       </c>
       <c r="K66" s="3">
         <v>593900</v>
@@ -3087,25 +3087,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-328800</v>
+        <v>-341100</v>
       </c>
       <c r="E72" s="3">
-        <v>-396400</v>
+        <v>-411200</v>
       </c>
       <c r="F72" s="3">
-        <v>-226300</v>
+        <v>-234700</v>
       </c>
       <c r="G72" s="3">
-        <v>-226200</v>
+        <v>-234600</v>
       </c>
       <c r="H72" s="3">
-        <v>80800</v>
+        <v>83800</v>
       </c>
       <c r="I72" s="3">
-        <v>54600</v>
+        <v>56600</v>
       </c>
       <c r="J72" s="3">
-        <v>138400</v>
+        <v>143600</v>
       </c>
       <c r="K72" s="3">
         <v>-10500</v>
@@ -3251,25 +3251,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1360000</v>
+        <v>1410700</v>
       </c>
       <c r="E76" s="3">
-        <v>1292400</v>
+        <v>1340600</v>
       </c>
       <c r="F76" s="3">
-        <v>1462600</v>
+        <v>1517100</v>
       </c>
       <c r="G76" s="3">
-        <v>1450600</v>
+        <v>1504600</v>
       </c>
       <c r="H76" s="3">
-        <v>1700200</v>
+        <v>1763600</v>
       </c>
       <c r="I76" s="3">
-        <v>1674000</v>
+        <v>1736400</v>
       </c>
       <c r="J76" s="3">
-        <v>1757800</v>
+        <v>1823300</v>
       </c>
       <c r="K76" s="3">
         <v>1890800</v>
@@ -3379,25 +3379,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76100</v>
+        <v>79000</v>
       </c>
       <c r="E81" s="3">
-        <v>-153300</v>
+        <v>-159000</v>
       </c>
       <c r="F81" s="3">
         <v>-1100</v>
       </c>
       <c r="G81" s="3">
-        <v>-306900</v>
+        <v>-318300</v>
       </c>
       <c r="H81" s="3">
-        <v>51300</v>
+        <v>53200</v>
       </c>
       <c r="I81" s="3">
-        <v>-67300</v>
+        <v>-69800</v>
       </c>
       <c r="J81" s="3">
-        <v>88000</v>
+        <v>91200</v>
       </c>
       <c r="K81" s="3">
         <v>93500</v>
@@ -3683,25 +3683,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>156200</v>
+        <v>162000</v>
       </c>
       <c r="E89" s="3">
-        <v>116000</v>
+        <v>120300</v>
       </c>
       <c r="F89" s="3">
-        <v>151400</v>
+        <v>157100</v>
       </c>
       <c r="G89" s="3">
-        <v>117300</v>
+        <v>121600</v>
       </c>
       <c r="H89" s="3">
-        <v>104700</v>
+        <v>108600</v>
       </c>
       <c r="I89" s="3">
-        <v>108000</v>
+        <v>112000</v>
       </c>
       <c r="J89" s="3">
-        <v>109400</v>
+        <v>113500</v>
       </c>
       <c r="K89" s="3">
         <v>184600</v>
@@ -3741,25 +3741,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-129700</v>
+        <v>-134600</v>
       </c>
       <c r="E91" s="3">
-        <v>-150600</v>
+        <v>-156200</v>
       </c>
       <c r="F91" s="3">
-        <v>-137200</v>
+        <v>-142300</v>
       </c>
       <c r="G91" s="3">
-        <v>-114100</v>
+        <v>-118400</v>
       </c>
       <c r="H91" s="3">
-        <v>-146600</v>
+        <v>-152100</v>
       </c>
       <c r="I91" s="3">
-        <v>-140400</v>
+        <v>-145600</v>
       </c>
       <c r="J91" s="3">
-        <v>-82000</v>
+        <v>-85000</v>
       </c>
       <c r="K91" s="3">
         <v>-84900</v>
@@ -3864,25 +3864,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-127000</v>
+        <v>-131800</v>
       </c>
       <c r="E94" s="3">
-        <v>-140400</v>
+        <v>-145600</v>
       </c>
       <c r="F94" s="3">
-        <v>-133800</v>
+        <v>-138800</v>
       </c>
       <c r="G94" s="3">
-        <v>-313800</v>
+        <v>-325500</v>
       </c>
       <c r="H94" s="3">
-        <v>-147700</v>
+        <v>-153200</v>
       </c>
       <c r="I94" s="3">
-        <v>-138000</v>
+        <v>-143200</v>
       </c>
       <c r="J94" s="3">
-        <v>-55300</v>
+        <v>-57400</v>
       </c>
       <c r="K94" s="3">
         <v>-96200</v>
@@ -3934,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="I96" s="3">
-        <v>-12600</v>
+        <v>-13100</v>
       </c>
       <c r="J96" s="3">
-        <v>-12500</v>
+        <v>-12900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4086,25 +4086,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16300</v>
+        <v>-16900</v>
       </c>
       <c r="E100" s="3">
         <v>1700</v>
       </c>
       <c r="F100" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="G100" s="3">
-        <v>181100</v>
+        <v>187800</v>
       </c>
       <c r="H100" s="3">
-        <v>31700</v>
+        <v>32900</v>
       </c>
       <c r="I100" s="3">
-        <v>27300</v>
+        <v>28300</v>
       </c>
       <c r="J100" s="3">
-        <v>-53000</v>
+        <v>-55000</v>
       </c>
       <c r="K100" s="3">
         <v>-62300</v>
@@ -4127,7 +4127,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
@@ -4136,16 +4136,16 @@
         <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="H101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I101" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J101" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="K101" s="3">
         <v>-600</v>
@@ -4168,25 +4168,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="E102" s="3">
-        <v>-22600</v>
+        <v>-23400</v>
       </c>
       <c r="F102" s="3">
-        <v>39000</v>
+        <v>40400</v>
       </c>
       <c r="G102" s="3">
-        <v>-19900</v>
+        <v>-20700</v>
       </c>
       <c r="H102" s="3">
-        <v>-10900</v>
+        <v>-11300</v>
       </c>
       <c r="I102" s="3">
         <v>1800</v>
       </c>
       <c r="J102" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K102" s="3">
         <v>25500</v>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>917500</v>
+        <v>902600</v>
       </c>
       <c r="E8" s="3">
-        <v>777900</v>
+        <v>1014700</v>
       </c>
       <c r="F8" s="3">
-        <v>817400</v>
+        <v>860300</v>
       </c>
       <c r="G8" s="3">
-        <v>627000</v>
+        <v>904000</v>
       </c>
       <c r="H8" s="3">
-        <v>585400</v>
+        <v>693400</v>
       </c>
       <c r="I8" s="3">
-        <v>557000</v>
+        <v>647400</v>
       </c>
       <c r="J8" s="3">
+        <v>616000</v>
+      </c>
+      <c r="K8" s="3">
         <v>585000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>646000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>596800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>293200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>273400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>798600</v>
+        <v>812700</v>
       </c>
       <c r="E9" s="3">
-        <v>709700</v>
+        <v>883200</v>
       </c>
       <c r="F9" s="3">
-        <v>756800</v>
+        <v>784900</v>
       </c>
       <c r="G9" s="3">
-        <v>558500</v>
+        <v>837000</v>
       </c>
       <c r="H9" s="3">
-        <v>511600</v>
+        <v>617700</v>
       </c>
       <c r="I9" s="3">
-        <v>524200</v>
+        <v>565800</v>
       </c>
       <c r="J9" s="3">
+        <v>579700</v>
+      </c>
+      <c r="K9" s="3">
         <v>533800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>524900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>547700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>289500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>270700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>118900</v>
+        <v>89900</v>
       </c>
       <c r="E10" s="3">
-        <v>68200</v>
+        <v>131400</v>
       </c>
       <c r="F10" s="3">
-        <v>60600</v>
+        <v>75500</v>
       </c>
       <c r="G10" s="3">
-        <v>68500</v>
+        <v>67000</v>
       </c>
       <c r="H10" s="3">
-        <v>73800</v>
+        <v>75700</v>
       </c>
       <c r="I10" s="3">
-        <v>32800</v>
+        <v>81600</v>
       </c>
       <c r="J10" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K10" s="3">
         <v>51200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>121100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,49 +882,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7500</v>
+        <v>5100</v>
       </c>
       <c r="E12" s="3">
-        <v>4500</v>
+        <v>8300</v>
       </c>
       <c r="F12" s="3">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="3">
-        <v>3200</v>
+        <v>4700</v>
       </c>
       <c r="H12" s="3">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="I12" s="3">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="J12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K12" s="3">
         <v>8500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,49 +968,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1500</v>
+        <v>6200</v>
       </c>
       <c r="E14" s="3">
-        <v>230100</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="3">
-        <v>8200</v>
+        <v>256700</v>
       </c>
       <c r="G14" s="3">
-        <v>315000</v>
+        <v>10600</v>
       </c>
       <c r="H14" s="3">
-        <v>10600</v>
+        <v>348700</v>
       </c>
       <c r="I14" s="3">
-        <v>104000</v>
+        <v>13900</v>
       </c>
       <c r="J14" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-45900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>249300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>817600</v>
+        <v>1036200</v>
       </c>
       <c r="E17" s="3">
-        <v>936100</v>
+        <v>907500</v>
       </c>
       <c r="F17" s="3">
-        <v>806700</v>
+        <v>1037600</v>
       </c>
       <c r="G17" s="3">
-        <v>977200</v>
+        <v>893800</v>
       </c>
       <c r="H17" s="3">
-        <v>515000</v>
+        <v>1081000</v>
       </c>
       <c r="I17" s="3">
-        <v>686400</v>
+        <v>571700</v>
       </c>
       <c r="J17" s="3">
+        <v>758500</v>
+      </c>
+      <c r="K17" s="3">
         <v>466400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>513000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>623000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>330900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>535400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>99900</v>
+        <v>-133500</v>
       </c>
       <c r="E18" s="3">
-        <v>-158200</v>
+        <v>107100</v>
       </c>
       <c r="F18" s="3">
-        <v>10700</v>
+        <v>-177300</v>
       </c>
       <c r="G18" s="3">
-        <v>-350200</v>
+        <v>10200</v>
       </c>
       <c r="H18" s="3">
-        <v>70400</v>
+        <v>-387600</v>
       </c>
       <c r="I18" s="3">
-        <v>-129400</v>
+        <v>75700</v>
       </c>
       <c r="J18" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="K18" s="3">
         <v>118600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-262000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,69 +1179,73 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-11600</v>
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
-        <v>-11900</v>
+        <v>-9500</v>
       </c>
       <c r="F20" s="3">
-        <v>-9000</v>
+        <v>-10800</v>
       </c>
       <c r="G20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
-        <v>4100</v>
-      </c>
       <c r="I20" s="3">
-        <v>1300</v>
+        <v>6700</v>
       </c>
       <c r="J20" s="3">
+        <v>900</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>202400</v>
+        <v>-159200</v>
       </c>
       <c r="E21" s="3">
-        <v>-181000</v>
+        <v>223900</v>
       </c>
       <c r="F21" s="3">
-        <v>127300</v>
+        <v>-200200</v>
       </c>
       <c r="G21" s="3">
-        <v>-349700</v>
+        <v>140800</v>
       </c>
       <c r="H21" s="3">
-        <v>148700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
+        <v>-386700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>164500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1216,20 +1253,23 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>45400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-222400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,90 +1309,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>88300</v>
+        <v>-136600</v>
       </c>
       <c r="E23" s="3">
-        <v>-170100</v>
+        <v>97600</v>
       </c>
       <c r="F23" s="3">
-        <v>1700</v>
+        <v>-188100</v>
       </c>
       <c r="G23" s="3">
-        <v>-353500</v>
+        <v>1900</v>
       </c>
       <c r="H23" s="3">
-        <v>74500</v>
+        <v>-390900</v>
       </c>
       <c r="I23" s="3">
-        <v>-128100</v>
+        <v>82300</v>
       </c>
       <c r="J23" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="K23" s="3">
         <v>119300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>134500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-29000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-39200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-263000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9300</v>
+        <v>6400</v>
       </c>
       <c r="E24" s="3">
-        <v>-11100</v>
+        <v>10300</v>
       </c>
       <c r="F24" s="3">
-        <v>2800</v>
+        <v>-12300</v>
       </c>
       <c r="G24" s="3">
-        <v>-35200</v>
+        <v>3100</v>
       </c>
       <c r="H24" s="3">
-        <v>21300</v>
+        <v>-38900</v>
       </c>
       <c r="I24" s="3">
-        <v>-58300</v>
+        <v>23500</v>
       </c>
       <c r="J24" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="K24" s="3">
         <v>28100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-39800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>79000</v>
+        <v>-143100</v>
       </c>
       <c r="E26" s="3">
-        <v>-159000</v>
+        <v>87300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1100</v>
+        <v>-175800</v>
       </c>
       <c r="G26" s="3">
-        <v>-318300</v>
+        <v>-1200</v>
       </c>
       <c r="H26" s="3">
-        <v>53200</v>
+        <v>-352100</v>
       </c>
       <c r="I26" s="3">
-        <v>-69800</v>
+        <v>58800</v>
       </c>
       <c r="J26" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="K26" s="3">
         <v>91200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-223200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>79000</v>
+        <v>-144900</v>
       </c>
       <c r="E27" s="3">
-        <v>-159000</v>
+        <v>87300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1100</v>
+        <v>-175800</v>
       </c>
       <c r="G27" s="3">
-        <v>-318300</v>
+        <v>-1200</v>
       </c>
       <c r="H27" s="3">
-        <v>53200</v>
+        <v>-352100</v>
       </c>
       <c r="I27" s="3">
-        <v>-69800</v>
+        <v>58800</v>
       </c>
       <c r="J27" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="K27" s="3">
         <v>91200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>93500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-223200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11600</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
-        <v>11900</v>
+        <v>9500</v>
       </c>
       <c r="F32" s="3">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="G32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-4100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-1300</v>
+        <v>-6700</v>
       </c>
       <c r="J32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>79000</v>
+        <v>-144900</v>
       </c>
       <c r="E33" s="3">
-        <v>-159000</v>
+        <v>87300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1100</v>
+        <v>-175800</v>
       </c>
       <c r="G33" s="3">
-        <v>-318300</v>
+        <v>-1200</v>
       </c>
       <c r="H33" s="3">
-        <v>53200</v>
+        <v>-352100</v>
       </c>
       <c r="I33" s="3">
-        <v>-69800</v>
+        <v>58800</v>
       </c>
       <c r="J33" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="K33" s="3">
         <v>91200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>93500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-223200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>79000</v>
+        <v>-144900</v>
       </c>
       <c r="E35" s="3">
-        <v>-159000</v>
+        <v>87300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1100</v>
+        <v>-175800</v>
       </c>
       <c r="G35" s="3">
-        <v>-318300</v>
+        <v>-1200</v>
       </c>
       <c r="H35" s="3">
-        <v>53200</v>
+        <v>-352100</v>
       </c>
       <c r="I35" s="3">
-        <v>-69800</v>
+        <v>58800</v>
       </c>
       <c r="J35" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="K35" s="3">
         <v>91200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>93500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-223200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>74100</v>
+        <v>416800</v>
       </c>
       <c r="E41" s="3">
-        <v>58900</v>
+        <v>82000</v>
       </c>
       <c r="F41" s="3">
-        <v>82300</v>
+        <v>65100</v>
       </c>
       <c r="G41" s="3">
-        <v>41900</v>
+        <v>91000</v>
       </c>
       <c r="H41" s="3">
-        <v>62500</v>
+        <v>46300</v>
       </c>
       <c r="I41" s="3">
-        <v>73900</v>
+        <v>69200</v>
       </c>
       <c r="J41" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K41" s="3">
         <v>72000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>105300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>75600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,119 +2054,128 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>77700</v>
+        <v>85800</v>
       </c>
       <c r="E43" s="3">
-        <v>63100</v>
+        <v>85900</v>
       </c>
       <c r="F43" s="3">
-        <v>70400</v>
+        <v>69800</v>
       </c>
       <c r="G43" s="3">
-        <v>67500</v>
+        <v>77900</v>
       </c>
       <c r="H43" s="3">
-        <v>58900</v>
+        <v>74700</v>
       </c>
       <c r="I43" s="3">
-        <v>59500</v>
+        <v>65100</v>
       </c>
       <c r="J43" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K43" s="3">
         <v>48600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>45900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>55400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>115800</v>
+        <v>158700</v>
       </c>
       <c r="E44" s="3">
-        <v>116600</v>
+        <v>128000</v>
       </c>
       <c r="F44" s="3">
-        <v>106400</v>
+        <v>129000</v>
       </c>
       <c r="G44" s="3">
-        <v>104300</v>
+        <v>117700</v>
       </c>
       <c r="H44" s="3">
-        <v>81200</v>
+        <v>115300</v>
       </c>
       <c r="I44" s="3">
-        <v>66800</v>
+        <v>89800</v>
       </c>
       <c r="J44" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K44" s="3">
         <v>95800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>78300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>89400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>91500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35000</v>
+        <v>5200</v>
       </c>
       <c r="E45" s="3">
-        <v>20900</v>
+        <v>38700</v>
       </c>
       <c r="F45" s="3">
-        <v>14600</v>
+        <v>23100</v>
       </c>
       <c r="G45" s="3">
-        <v>34200</v>
+        <v>16200</v>
       </c>
       <c r="H45" s="3">
-        <v>96700</v>
+        <v>37800</v>
       </c>
       <c r="I45" s="3">
-        <v>92400</v>
+        <v>106900</v>
       </c>
       <c r="J45" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K45" s="3">
         <v>90800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1100</v>
       </c>
       <c r="M45" s="3">
         <v>1100</v>
@@ -2085,174 +2184,189 @@
         <v>1100</v>
       </c>
       <c r="O45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>302600</v>
+        <v>666500</v>
       </c>
       <c r="E46" s="3">
-        <v>259500</v>
+        <v>334700</v>
       </c>
       <c r="F46" s="3">
-        <v>273800</v>
+        <v>287000</v>
       </c>
       <c r="G46" s="3">
-        <v>247800</v>
+        <v>302800</v>
       </c>
       <c r="H46" s="3">
-        <v>299300</v>
+        <v>274100</v>
       </c>
       <c r="I46" s="3">
-        <v>292500</v>
+        <v>331000</v>
       </c>
       <c r="J46" s="3">
+        <v>323500</v>
+      </c>
+      <c r="K46" s="3">
         <v>307200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>232800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>193400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>251300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>223200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28100</v>
+        <v>35000</v>
       </c>
       <c r="E47" s="3">
-        <v>26300</v>
+        <v>31100</v>
       </c>
       <c r="F47" s="3">
-        <v>38800</v>
+        <v>29100</v>
       </c>
       <c r="G47" s="3">
-        <v>20600</v>
+        <v>42900</v>
       </c>
       <c r="H47" s="3">
-        <v>19200</v>
+        <v>22800</v>
       </c>
       <c r="I47" s="3">
-        <v>13900</v>
+        <v>21200</v>
       </c>
       <c r="J47" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K47" s="3">
         <v>11300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>6000</v>
       </c>
       <c r="N47" s="3">
         <v>6000</v>
       </c>
       <c r="O47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1672200</v>
+        <v>1913400</v>
       </c>
       <c r="E48" s="3">
-        <v>1645000</v>
+        <v>1849400</v>
       </c>
       <c r="F48" s="3">
-        <v>1864000</v>
+        <v>1819200</v>
       </c>
       <c r="G48" s="3">
-        <v>1837700</v>
+        <v>2061500</v>
       </c>
       <c r="H48" s="3">
-        <v>1835000</v>
+        <v>2032400</v>
       </c>
       <c r="I48" s="3">
-        <v>1781000</v>
+        <v>2029300</v>
       </c>
       <c r="J48" s="3">
+        <v>1969700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1816300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2007600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2063100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2111000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2092600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31700</v>
+        <v>35100</v>
       </c>
       <c r="E49" s="3">
-        <v>31600</v>
+        <v>35000</v>
       </c>
       <c r="F49" s="3">
-        <v>30500</v>
+        <v>34900</v>
       </c>
       <c r="G49" s="3">
-        <v>30500</v>
+        <v>33800</v>
       </c>
       <c r="H49" s="3">
-        <v>35600</v>
+        <v>33800</v>
       </c>
       <c r="I49" s="3">
-        <v>35700</v>
+        <v>39300</v>
       </c>
       <c r="J49" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K49" s="3">
         <v>51200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>58400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2450,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>221200</v>
+        <v>279900</v>
       </c>
       <c r="E52" s="3">
-        <v>215400</v>
+        <v>244700</v>
       </c>
       <c r="F52" s="3">
-        <v>214200</v>
+        <v>238200</v>
       </c>
       <c r="G52" s="3">
-        <v>206200</v>
+        <v>236900</v>
       </c>
       <c r="H52" s="3">
-        <v>189000</v>
+        <v>228000</v>
       </c>
       <c r="I52" s="3">
-        <v>181800</v>
+        <v>209000</v>
       </c>
       <c r="J52" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K52" s="3">
         <v>197000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>174100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>173100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>176800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>174800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2255800</v>
+        <v>2930000</v>
       </c>
       <c r="E54" s="3">
-        <v>2177700</v>
+        <v>2494800</v>
       </c>
       <c r="F54" s="3">
-        <v>2405900</v>
+        <v>2408400</v>
       </c>
       <c r="G54" s="3">
-        <v>2342900</v>
+        <v>2660800</v>
       </c>
       <c r="H54" s="3">
-        <v>2378000</v>
+        <v>2591100</v>
       </c>
       <c r="I54" s="3">
-        <v>2305000</v>
+        <v>2629900</v>
       </c>
       <c r="J54" s="3">
+        <v>2549200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2382900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2484700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2495800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2607500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2559200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>230400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,119 +2620,126 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>173400</v>
+        <v>197100</v>
       </c>
       <c r="E57" s="3">
-        <v>170400</v>
+        <v>191800</v>
       </c>
       <c r="F57" s="3">
-        <v>174700</v>
+        <v>188500</v>
       </c>
       <c r="G57" s="3">
-        <v>160300</v>
+        <v>193200</v>
       </c>
       <c r="H57" s="3">
-        <v>133900</v>
+        <v>177300</v>
       </c>
       <c r="I57" s="3">
-        <v>119200</v>
+        <v>148000</v>
       </c>
       <c r="J57" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K57" s="3">
         <v>125100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>113500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>112500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>129600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>117600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5100</v>
+        <v>16700</v>
       </c>
       <c r="E58" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="F58" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="G58" s="3">
-        <v>40900</v>
+        <v>6000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>45200</v>
       </c>
       <c r="I58" s="3">
-        <v>108700</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>120200</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>20100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20500</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41900</v>
+        <v>281800</v>
       </c>
       <c r="E59" s="3">
-        <v>16000</v>
+        <v>46300</v>
       </c>
       <c r="F59" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="G59" s="3">
-        <v>12200</v>
+        <v>19900</v>
       </c>
       <c r="H59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I59" s="3" t="s">
+        <v>13400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -2613,131 +2750,143 @@
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>220300</v>
+        <v>495600</v>
       </c>
       <c r="E60" s="3">
-        <v>191700</v>
+        <v>243700</v>
       </c>
       <c r="F60" s="3">
-        <v>198100</v>
+        <v>212000</v>
       </c>
       <c r="G60" s="3">
-        <v>213300</v>
+        <v>219100</v>
       </c>
       <c r="H60" s="3">
-        <v>135400</v>
+        <v>236000</v>
       </c>
       <c r="I60" s="3">
-        <v>227900</v>
+        <v>149700</v>
       </c>
       <c r="J60" s="3">
+        <v>252000</v>
+      </c>
+      <c r="K60" s="3">
         <v>129000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>136300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>133100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>129700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>117600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>323300</v>
+        <v>489300</v>
       </c>
       <c r="E61" s="3">
-        <v>345400</v>
+        <v>357600</v>
       </c>
       <c r="F61" s="3">
-        <v>348000</v>
+        <v>382000</v>
       </c>
       <c r="G61" s="3">
-        <v>291900</v>
+        <v>384900</v>
       </c>
       <c r="H61" s="3">
-        <v>152100</v>
+        <v>322800</v>
       </c>
       <c r="I61" s="3">
-        <v>17700</v>
+        <v>168200</v>
       </c>
       <c r="J61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K61" s="3">
         <v>89200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>136800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>211900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>292400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>240700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>301800</v>
+        <v>412600</v>
       </c>
       <c r="E62" s="3">
-        <v>300100</v>
+        <v>333800</v>
       </c>
       <c r="F62" s="3">
-        <v>342600</v>
+        <v>331900</v>
       </c>
       <c r="G62" s="3">
-        <v>333000</v>
+        <v>378900</v>
       </c>
       <c r="H62" s="3">
-        <v>326900</v>
+        <v>368300</v>
       </c>
       <c r="I62" s="3">
-        <v>323000</v>
+        <v>361600</v>
       </c>
       <c r="J62" s="3">
+        <v>357200</v>
+      </c>
+      <c r="K62" s="3">
         <v>341500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>320800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>308500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>309400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>306200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>845200</v>
+        <v>1397800</v>
       </c>
       <c r="E66" s="3">
-        <v>837200</v>
+        <v>934700</v>
       </c>
       <c r="F66" s="3">
-        <v>888800</v>
+        <v>925800</v>
       </c>
       <c r="G66" s="3">
-        <v>838300</v>
+        <v>982900</v>
       </c>
       <c r="H66" s="3">
-        <v>614400</v>
+        <v>927100</v>
       </c>
       <c r="I66" s="3">
-        <v>568600</v>
+        <v>679500</v>
       </c>
       <c r="J66" s="3">
+        <v>628900</v>
+      </c>
+      <c r="K66" s="3">
         <v>559600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>593900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>653500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>731500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>664600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-341100</v>
+        <v>-627100</v>
       </c>
       <c r="E72" s="3">
-        <v>-411200</v>
+        <v>-377200</v>
       </c>
       <c r="F72" s="3">
-        <v>-234700</v>
+        <v>-454800</v>
       </c>
       <c r="G72" s="3">
-        <v>-234600</v>
+        <v>-259600</v>
       </c>
       <c r="H72" s="3">
-        <v>83800</v>
+        <v>-259500</v>
       </c>
       <c r="I72" s="3">
-        <v>56600</v>
+        <v>92600</v>
       </c>
       <c r="J72" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K72" s="3">
         <v>143600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-99000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-129900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-111300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1410700</v>
+        <v>1532200</v>
       </c>
       <c r="E76" s="3">
-        <v>1340600</v>
+        <v>1560100</v>
       </c>
       <c r="F76" s="3">
-        <v>1517100</v>
+        <v>1482600</v>
       </c>
       <c r="G76" s="3">
-        <v>1504600</v>
+        <v>1677800</v>
       </c>
       <c r="H76" s="3">
-        <v>1763600</v>
+        <v>1664000</v>
       </c>
       <c r="I76" s="3">
-        <v>1736400</v>
+        <v>1950400</v>
       </c>
       <c r="J76" s="3">
+        <v>1920300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1823300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1890800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1842300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1876000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1894600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>79000</v>
+        <v>-144900</v>
       </c>
       <c r="E81" s="3">
-        <v>-159000</v>
+        <v>87300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1100</v>
+        <v>-175800</v>
       </c>
       <c r="G81" s="3">
-        <v>-318300</v>
+        <v>-1200</v>
       </c>
       <c r="H81" s="3">
-        <v>53200</v>
+        <v>-352100</v>
       </c>
       <c r="I81" s="3">
-        <v>-69800</v>
+        <v>58800</v>
       </c>
       <c r="J81" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="K81" s="3">
         <v>91200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>93500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-223200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3472,8 +3671,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>162000</v>
+        <v>130500</v>
       </c>
       <c r="E89" s="3">
-        <v>120300</v>
+        <v>179200</v>
       </c>
       <c r="F89" s="3">
-        <v>157100</v>
+        <v>133000</v>
       </c>
       <c r="G89" s="3">
-        <v>121600</v>
+        <v>173700</v>
       </c>
       <c r="H89" s="3">
-        <v>108600</v>
+        <v>134500</v>
       </c>
       <c r="I89" s="3">
-        <v>112000</v>
+        <v>120100</v>
       </c>
       <c r="J89" s="3">
+        <v>123900</v>
+      </c>
+      <c r="K89" s="3">
         <v>113500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>184600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>120800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>132800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,49 +3955,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-134600</v>
+        <v>-87300</v>
       </c>
       <c r="E91" s="3">
-        <v>-156200</v>
+        <v>-148800</v>
       </c>
       <c r="F91" s="3">
-        <v>-142300</v>
+        <v>-172800</v>
       </c>
       <c r="G91" s="3">
-        <v>-118400</v>
+        <v>-157300</v>
       </c>
       <c r="H91" s="3">
-        <v>-152100</v>
+        <v>-130900</v>
       </c>
       <c r="I91" s="3">
-        <v>-145600</v>
+        <v>-168200</v>
       </c>
       <c r="J91" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-85000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-84900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-80100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-187500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,49 +4085,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-131800</v>
+        <v>-87500</v>
       </c>
       <c r="E94" s="3">
-        <v>-145600</v>
+        <v>-145700</v>
       </c>
       <c r="F94" s="3">
-        <v>-138800</v>
+        <v>-161000</v>
       </c>
       <c r="G94" s="3">
-        <v>-325500</v>
+        <v>-153500</v>
       </c>
       <c r="H94" s="3">
-        <v>-153200</v>
+        <v>-360000</v>
       </c>
       <c r="I94" s="3">
-        <v>-143200</v>
+        <v>-169400</v>
       </c>
       <c r="J94" s="3">
+        <v>-158300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-57400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-79800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-192100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3934,17 +4168,17 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-9100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-13100</v>
+        <v>-10100</v>
       </c>
       <c r="J96" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,127 +4323,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16900</v>
+        <v>300900</v>
       </c>
       <c r="E100" s="3">
-        <v>1700</v>
+        <v>-18700</v>
       </c>
       <c r="F100" s="3">
-        <v>20800</v>
+        <v>1900</v>
       </c>
       <c r="G100" s="3">
-        <v>187800</v>
+        <v>23000</v>
       </c>
       <c r="H100" s="3">
-        <v>32900</v>
+        <v>207700</v>
       </c>
       <c r="I100" s="3">
-        <v>28300</v>
+        <v>36400</v>
       </c>
       <c r="J100" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-55000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1900</v>
+        <v>-9000</v>
       </c>
       <c r="E101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>1300</v>
-      </c>
       <c r="G101" s="3">
-        <v>-4600</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
-        <v>4600</v>
-      </c>
       <c r="J101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15200</v>
+        <v>334800</v>
       </c>
       <c r="E102" s="3">
-        <v>-23400</v>
+        <v>16800</v>
       </c>
       <c r="F102" s="3">
-        <v>40400</v>
+        <v>-25900</v>
       </c>
       <c r="G102" s="3">
-        <v>-20700</v>
+        <v>44700</v>
       </c>
       <c r="H102" s="3">
-        <v>-11300</v>
+        <v>-22900</v>
       </c>
       <c r="I102" s="3">
-        <v>1800</v>
+        <v>-12500</v>
       </c>
       <c r="J102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-45900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,221 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>902600</v>
+        <v>1437300</v>
       </c>
       <c r="E8" s="3">
-        <v>1014700</v>
+        <v>916700</v>
       </c>
       <c r="F8" s="3">
-        <v>860300</v>
+        <v>1030500</v>
       </c>
       <c r="G8" s="3">
-        <v>904000</v>
+        <v>873700</v>
       </c>
       <c r="H8" s="3">
-        <v>693400</v>
+        <v>918100</v>
       </c>
       <c r="I8" s="3">
-        <v>647400</v>
+        <v>704200</v>
       </c>
       <c r="J8" s="3">
+        <v>657500</v>
+      </c>
+      <c r="K8" s="3">
         <v>616000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>585000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>646000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>596800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>293200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>273400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>812700</v>
+        <v>1116600</v>
       </c>
       <c r="E9" s="3">
-        <v>883200</v>
+        <v>825300</v>
       </c>
       <c r="F9" s="3">
-        <v>784900</v>
+        <v>897000</v>
       </c>
       <c r="G9" s="3">
-        <v>837000</v>
+        <v>797100</v>
       </c>
       <c r="H9" s="3">
-        <v>617700</v>
+        <v>850000</v>
       </c>
       <c r="I9" s="3">
-        <v>565800</v>
+        <v>627300</v>
       </c>
       <c r="J9" s="3">
+        <v>574600</v>
+      </c>
+      <c r="K9" s="3">
         <v>579700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>533800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>524900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>547700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>289500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>270700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>89900</v>
+        <v>320700</v>
       </c>
       <c r="E10" s="3">
-        <v>131400</v>
+        <v>91300</v>
       </c>
       <c r="F10" s="3">
-        <v>75500</v>
+        <v>133500</v>
       </c>
       <c r="G10" s="3">
-        <v>67000</v>
+        <v>76600</v>
       </c>
       <c r="H10" s="3">
-        <v>75700</v>
+        <v>68000</v>
       </c>
       <c r="I10" s="3">
-        <v>81600</v>
+        <v>76900</v>
       </c>
       <c r="J10" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K10" s="3">
         <v>36300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>121100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +896,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,43 +906,46 @@
         <v>5100</v>
       </c>
       <c r="E12" s="3">
-        <v>8300</v>
+        <v>5200</v>
       </c>
       <c r="F12" s="3">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="G12" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="H12" s="3">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="I12" s="3">
-        <v>5300</v>
+        <v>3600</v>
       </c>
       <c r="J12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K12" s="3">
         <v>6400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,52 +988,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6200</v>
+        <v>-59300</v>
       </c>
       <c r="E14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
-        <v>256700</v>
-      </c>
       <c r="G14" s="3">
-        <v>10600</v>
+        <v>260700</v>
       </c>
       <c r="H14" s="3">
-        <v>348700</v>
+        <v>10800</v>
       </c>
       <c r="I14" s="3">
-        <v>13900</v>
+        <v>354100</v>
       </c>
       <c r="J14" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K14" s="3">
         <v>114400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-45900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>249300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1082,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1100,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1036200</v>
+        <v>997500</v>
       </c>
       <c r="E17" s="3">
-        <v>907500</v>
+        <v>1052300</v>
       </c>
       <c r="F17" s="3">
-        <v>1037600</v>
+        <v>921700</v>
       </c>
       <c r="G17" s="3">
-        <v>893800</v>
+        <v>1053800</v>
       </c>
       <c r="H17" s="3">
-        <v>1081000</v>
+        <v>907700</v>
       </c>
       <c r="I17" s="3">
-        <v>571700</v>
+        <v>1097800</v>
       </c>
       <c r="J17" s="3">
+        <v>580600</v>
+      </c>
+      <c r="K17" s="3">
         <v>758500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>466400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>513000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>623000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>330900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>535400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-133500</v>
+        <v>439800</v>
       </c>
       <c r="E18" s="3">
-        <v>107100</v>
+        <v>-135600</v>
       </c>
       <c r="F18" s="3">
-        <v>-177300</v>
+        <v>108800</v>
       </c>
       <c r="G18" s="3">
-        <v>10200</v>
+        <v>-180000</v>
       </c>
       <c r="H18" s="3">
-        <v>-387600</v>
+        <v>10400</v>
       </c>
       <c r="I18" s="3">
-        <v>75700</v>
+        <v>-393600</v>
       </c>
       <c r="J18" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-142500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>118600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>133000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-262000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1180,75 +1213,79 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-9500</v>
-      </c>
       <c r="F20" s="3">
-        <v>-10800</v>
+        <v>-9700</v>
       </c>
       <c r="G20" s="3">
-        <v>-8300</v>
+        <v>-11000</v>
       </c>
       <c r="H20" s="3">
-        <v>-3300</v>
+        <v>-8500</v>
       </c>
       <c r="I20" s="3">
-        <v>6700</v>
+        <v>-3400</v>
       </c>
       <c r="J20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-159200</v>
+        <v>559300</v>
       </c>
       <c r="E21" s="3">
-        <v>223900</v>
+        <v>-155000</v>
       </c>
       <c r="F21" s="3">
-        <v>-200200</v>
+        <v>227400</v>
       </c>
       <c r="G21" s="3">
-        <v>140800</v>
+        <v>-191600</v>
       </c>
       <c r="H21" s="3">
-        <v>-386700</v>
+        <v>143000</v>
       </c>
       <c r="I21" s="3">
-        <v>164500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+        <v>-392800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>167000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1256,20 +1293,23 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>45400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-222400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,96 +1352,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-136600</v>
+        <v>438400</v>
       </c>
       <c r="E23" s="3">
-        <v>97600</v>
+        <v>-138800</v>
       </c>
       <c r="F23" s="3">
-        <v>-188100</v>
+        <v>99100</v>
       </c>
       <c r="G23" s="3">
+        <v>-191000</v>
+      </c>
+      <c r="H23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
-        <v>-390900</v>
-      </c>
       <c r="I23" s="3">
-        <v>82300</v>
+        <v>-397000</v>
       </c>
       <c r="J23" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-141700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>119300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>134500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-39200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-263000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6400</v>
+        <v>51400</v>
       </c>
       <c r="E24" s="3">
-        <v>10300</v>
+        <v>6500</v>
       </c>
       <c r="F24" s="3">
-        <v>-12300</v>
+        <v>10500</v>
       </c>
       <c r="G24" s="3">
-        <v>3100</v>
+        <v>-12500</v>
       </c>
       <c r="H24" s="3">
-        <v>-38900</v>
+        <v>3200</v>
       </c>
       <c r="I24" s="3">
-        <v>23500</v>
+        <v>-39500</v>
       </c>
       <c r="J24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-64500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-39800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-143100</v>
+        <v>387000</v>
       </c>
       <c r="E26" s="3">
-        <v>87300</v>
+        <v>-145300</v>
       </c>
       <c r="F26" s="3">
-        <v>-175800</v>
+        <v>88700</v>
       </c>
       <c r="G26" s="3">
-        <v>-1200</v>
+        <v>-178600</v>
       </c>
       <c r="H26" s="3">
-        <v>-352100</v>
+        <v>-1300</v>
       </c>
       <c r="I26" s="3">
-        <v>58800</v>
+        <v>-357500</v>
       </c>
       <c r="J26" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-77200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>91200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-36900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-223200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-144900</v>
+        <v>385200</v>
       </c>
       <c r="E27" s="3">
-        <v>87300</v>
+        <v>-147100</v>
       </c>
       <c r="F27" s="3">
-        <v>-175800</v>
+        <v>88700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1200</v>
+        <v>-178600</v>
       </c>
       <c r="H27" s="3">
-        <v>-352100</v>
+        <v>-1300</v>
       </c>
       <c r="I27" s="3">
-        <v>58800</v>
+        <v>-357500</v>
       </c>
       <c r="J27" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-77200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>91200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>93500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-36900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-223200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1681,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1775,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
-        <v>9500</v>
-      </c>
       <c r="F32" s="3">
-        <v>10800</v>
+        <v>9700</v>
       </c>
       <c r="G32" s="3">
-        <v>8300</v>
+        <v>11000</v>
       </c>
       <c r="H32" s="3">
-        <v>3300</v>
+        <v>8500</v>
       </c>
       <c r="I32" s="3">
-        <v>-6700</v>
+        <v>3400</v>
       </c>
       <c r="J32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-144900</v>
+        <v>385200</v>
       </c>
       <c r="E33" s="3">
-        <v>87300</v>
+        <v>-147100</v>
       </c>
       <c r="F33" s="3">
-        <v>-175800</v>
+        <v>88700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1200</v>
+        <v>-178600</v>
       </c>
       <c r="H33" s="3">
-        <v>-352100</v>
+        <v>-1300</v>
       </c>
       <c r="I33" s="3">
-        <v>58800</v>
+        <v>-357500</v>
       </c>
       <c r="J33" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-77200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>91200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>93500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-36900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-223200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-144900</v>
+        <v>385200</v>
       </c>
       <c r="E35" s="3">
-        <v>87300</v>
+        <v>-147100</v>
       </c>
       <c r="F35" s="3">
-        <v>-175800</v>
+        <v>88700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1200</v>
+        <v>-178600</v>
       </c>
       <c r="H35" s="3">
-        <v>-352100</v>
+        <v>-1300</v>
       </c>
       <c r="I35" s="3">
-        <v>58800</v>
+        <v>-357500</v>
       </c>
       <c r="J35" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-77200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>91200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>93500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-36900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-223200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2055,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>416800</v>
+        <v>280800</v>
       </c>
       <c r="E41" s="3">
-        <v>82000</v>
+        <v>423200</v>
       </c>
       <c r="F41" s="3">
-        <v>65100</v>
+        <v>83200</v>
       </c>
       <c r="G41" s="3">
-        <v>91000</v>
+        <v>66100</v>
       </c>
       <c r="H41" s="3">
-        <v>46300</v>
+        <v>92400</v>
       </c>
       <c r="I41" s="3">
-        <v>69200</v>
+        <v>47000</v>
       </c>
       <c r="J41" s="3">
+        <v>70200</v>
+      </c>
+      <c r="K41" s="3">
         <v>81700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>105300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>75600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,128 +2147,137 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>85800</v>
+        <v>98900</v>
       </c>
       <c r="E43" s="3">
-        <v>85900</v>
+        <v>87100</v>
       </c>
       <c r="F43" s="3">
-        <v>69800</v>
+        <v>87300</v>
       </c>
       <c r="G43" s="3">
-        <v>77900</v>
+        <v>70800</v>
       </c>
       <c r="H43" s="3">
-        <v>74700</v>
+        <v>79100</v>
       </c>
       <c r="I43" s="3">
-        <v>65100</v>
+        <v>75800</v>
       </c>
       <c r="J43" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K43" s="3">
         <v>65800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>45900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>158700</v>
+        <v>146400</v>
       </c>
       <c r="E44" s="3">
-        <v>128000</v>
+        <v>161200</v>
       </c>
       <c r="F44" s="3">
-        <v>129000</v>
+        <v>130000</v>
       </c>
       <c r="G44" s="3">
-        <v>117700</v>
+        <v>131000</v>
       </c>
       <c r="H44" s="3">
-        <v>115300</v>
+        <v>119500</v>
       </c>
       <c r="I44" s="3">
-        <v>89800</v>
+        <v>117100</v>
       </c>
       <c r="J44" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K44" s="3">
         <v>73900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>95800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>78300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>86400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>89400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>91500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5200</v>
+        <v>52600</v>
       </c>
       <c r="E45" s="3">
-        <v>38700</v>
+        <v>5300</v>
       </c>
       <c r="F45" s="3">
-        <v>23100</v>
+        <v>39300</v>
       </c>
       <c r="G45" s="3">
-        <v>16200</v>
+        <v>23500</v>
       </c>
       <c r="H45" s="3">
-        <v>37800</v>
+        <v>16400</v>
       </c>
       <c r="I45" s="3">
-        <v>106900</v>
+        <v>38400</v>
       </c>
       <c r="J45" s="3">
+        <v>108600</v>
+      </c>
+      <c r="K45" s="3">
         <v>102200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1100</v>
       </c>
       <c r="N45" s="3">
         <v>1100</v>
@@ -2187,186 +2286,201 @@
         <v>1100</v>
       </c>
       <c r="P45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>666500</v>
+        <v>578600</v>
       </c>
       <c r="E46" s="3">
-        <v>334700</v>
+        <v>676900</v>
       </c>
       <c r="F46" s="3">
-        <v>287000</v>
+        <v>339900</v>
       </c>
       <c r="G46" s="3">
-        <v>302800</v>
+        <v>291400</v>
       </c>
       <c r="H46" s="3">
-        <v>274100</v>
+        <v>307500</v>
       </c>
       <c r="I46" s="3">
-        <v>331000</v>
+        <v>278400</v>
       </c>
       <c r="J46" s="3">
+        <v>336200</v>
+      </c>
+      <c r="K46" s="3">
         <v>323500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>307200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>232800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>193400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>251300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>223200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35000</v>
+        <v>35400</v>
       </c>
       <c r="E47" s="3">
-        <v>31100</v>
+        <v>35600</v>
       </c>
       <c r="F47" s="3">
-        <v>29100</v>
+        <v>31600</v>
       </c>
       <c r="G47" s="3">
-        <v>42900</v>
+        <v>29600</v>
       </c>
       <c r="H47" s="3">
-        <v>22800</v>
+        <v>43500</v>
       </c>
       <c r="I47" s="3">
-        <v>21200</v>
+        <v>23200</v>
       </c>
       <c r="J47" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K47" s="3">
         <v>15400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>6000</v>
       </c>
       <c r="O47" s="3">
         <v>6000</v>
       </c>
       <c r="P47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1913400</v>
+        <v>2342300</v>
       </c>
       <c r="E48" s="3">
-        <v>1849400</v>
+        <v>1943200</v>
       </c>
       <c r="F48" s="3">
-        <v>1819200</v>
+        <v>1878200</v>
       </c>
       <c r="G48" s="3">
-        <v>2061500</v>
+        <v>1847500</v>
       </c>
       <c r="H48" s="3">
-        <v>2032400</v>
+        <v>2093500</v>
       </c>
       <c r="I48" s="3">
-        <v>2029300</v>
+        <v>2064000</v>
       </c>
       <c r="J48" s="3">
+        <v>2060900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1969700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1816300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2007600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2063100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2111000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2092600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35100</v>
+        <v>36100</v>
       </c>
       <c r="E49" s="3">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="F49" s="3">
-        <v>34900</v>
+        <v>35600</v>
       </c>
       <c r="G49" s="3">
-        <v>33800</v>
+        <v>35500</v>
       </c>
       <c r="H49" s="3">
-        <v>33800</v>
+        <v>34300</v>
       </c>
       <c r="I49" s="3">
-        <v>39300</v>
+        <v>34300</v>
       </c>
       <c r="J49" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K49" s="3">
         <v>39500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>58400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>60200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2570,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>279900</v>
+        <v>402300</v>
       </c>
       <c r="E52" s="3">
-        <v>244700</v>
+        <v>284300</v>
       </c>
       <c r="F52" s="3">
-        <v>238200</v>
+        <v>248500</v>
       </c>
       <c r="G52" s="3">
-        <v>236900</v>
+        <v>241900</v>
       </c>
       <c r="H52" s="3">
-        <v>228000</v>
+        <v>240600</v>
       </c>
       <c r="I52" s="3">
-        <v>209000</v>
+        <v>231600</v>
       </c>
       <c r="J52" s="3">
+        <v>212300</v>
+      </c>
+      <c r="K52" s="3">
         <v>201000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>197000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>174100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>173100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>176800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>174800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2930000</v>
+        <v>3394600</v>
       </c>
       <c r="E54" s="3">
-        <v>2494800</v>
+        <v>2975600</v>
       </c>
       <c r="F54" s="3">
-        <v>2408400</v>
+        <v>2533600</v>
       </c>
       <c r="G54" s="3">
-        <v>2660800</v>
+        <v>2445900</v>
       </c>
       <c r="H54" s="3">
-        <v>2591100</v>
+        <v>2702100</v>
       </c>
       <c r="I54" s="3">
-        <v>2629900</v>
+        <v>2631400</v>
       </c>
       <c r="J54" s="3">
+        <v>2670900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2549200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2382900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2484700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2495800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2607500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2559200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>230400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,128 +2751,135 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>197100</v>
+        <v>274600</v>
       </c>
       <c r="E57" s="3">
-        <v>191800</v>
+        <v>200100</v>
       </c>
       <c r="F57" s="3">
-        <v>188500</v>
+        <v>194700</v>
       </c>
       <c r="G57" s="3">
-        <v>193200</v>
+        <v>191400</v>
       </c>
       <c r="H57" s="3">
-        <v>177300</v>
+        <v>196200</v>
       </c>
       <c r="I57" s="3">
-        <v>148000</v>
+        <v>180000</v>
       </c>
       <c r="J57" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K57" s="3">
         <v>131800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>125100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>113500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>112500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>129600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>117600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16700</v>
+        <v>26000</v>
       </c>
       <c r="E58" s="3">
-        <v>5600</v>
+        <v>17000</v>
       </c>
       <c r="F58" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G58" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H58" s="3">
-        <v>45200</v>
+        <v>6100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>45900</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>120200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>20100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20500</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>281800</v>
+        <v>145900</v>
       </c>
       <c r="E59" s="3">
-        <v>46300</v>
+        <v>286200</v>
       </c>
       <c r="F59" s="3">
-        <v>17700</v>
+        <v>47000</v>
       </c>
       <c r="G59" s="3">
-        <v>19900</v>
+        <v>18000</v>
       </c>
       <c r="H59" s="3">
-        <v>13400</v>
+        <v>20200</v>
       </c>
       <c r="I59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2753,140 +2890,152 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>495600</v>
+        <v>446600</v>
       </c>
       <c r="E60" s="3">
-        <v>243700</v>
+        <v>503300</v>
       </c>
       <c r="F60" s="3">
-        <v>212000</v>
+        <v>247500</v>
       </c>
       <c r="G60" s="3">
-        <v>219100</v>
+        <v>215300</v>
       </c>
       <c r="H60" s="3">
-        <v>236000</v>
+        <v>222500</v>
       </c>
       <c r="I60" s="3">
-        <v>149700</v>
+        <v>239600</v>
       </c>
       <c r="J60" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K60" s="3">
         <v>252000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>129000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>136300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>133100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>129700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>117600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>489300</v>
+        <v>293400</v>
       </c>
       <c r="E61" s="3">
-        <v>357600</v>
+        <v>496900</v>
       </c>
       <c r="F61" s="3">
-        <v>382000</v>
+        <v>363100</v>
       </c>
       <c r="G61" s="3">
-        <v>384900</v>
+        <v>387900</v>
       </c>
       <c r="H61" s="3">
-        <v>322800</v>
+        <v>390900</v>
       </c>
       <c r="I61" s="3">
-        <v>168200</v>
+        <v>327800</v>
       </c>
       <c r="J61" s="3">
+        <v>170800</v>
+      </c>
+      <c r="K61" s="3">
         <v>19600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>89200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>136800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>211900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>292400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>240700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>412600</v>
+        <v>590100</v>
       </c>
       <c r="E62" s="3">
-        <v>333800</v>
+        <v>419100</v>
       </c>
       <c r="F62" s="3">
-        <v>331900</v>
+        <v>339000</v>
       </c>
       <c r="G62" s="3">
-        <v>378900</v>
+        <v>337000</v>
       </c>
       <c r="H62" s="3">
-        <v>368300</v>
+        <v>384800</v>
       </c>
       <c r="I62" s="3">
-        <v>361600</v>
+        <v>374000</v>
       </c>
       <c r="J62" s="3">
+        <v>367200</v>
+      </c>
+      <c r="K62" s="3">
         <v>357200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>341500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>320800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>308500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>309400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>306200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3172,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1397800</v>
+        <v>1333000</v>
       </c>
       <c r="E66" s="3">
-        <v>934700</v>
+        <v>1419600</v>
       </c>
       <c r="F66" s="3">
-        <v>925800</v>
+        <v>949200</v>
       </c>
       <c r="G66" s="3">
-        <v>982900</v>
+        <v>940200</v>
       </c>
       <c r="H66" s="3">
-        <v>927100</v>
+        <v>998200</v>
       </c>
       <c r="I66" s="3">
-        <v>679500</v>
+        <v>941500</v>
       </c>
       <c r="J66" s="3">
+        <v>690100</v>
+      </c>
+      <c r="K66" s="3">
         <v>628900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>559600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>593900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>653500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>731500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>664600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3332,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-627100</v>
+        <v>-131200</v>
       </c>
       <c r="E72" s="3">
-        <v>-377200</v>
+        <v>-636900</v>
       </c>
       <c r="F72" s="3">
-        <v>-454800</v>
+        <v>-383100</v>
       </c>
       <c r="G72" s="3">
-        <v>-259600</v>
+        <v>-461900</v>
       </c>
       <c r="H72" s="3">
-        <v>-259500</v>
+        <v>-263600</v>
       </c>
       <c r="I72" s="3">
-        <v>92600</v>
+        <v>-263500</v>
       </c>
       <c r="J72" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K72" s="3">
         <v>62600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>143600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-99000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-129900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-111300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1532200</v>
+        <v>2061600</v>
       </c>
       <c r="E76" s="3">
-        <v>1560100</v>
+        <v>1556000</v>
       </c>
       <c r="F76" s="3">
-        <v>1482600</v>
+        <v>1584400</v>
       </c>
       <c r="G76" s="3">
-        <v>1677800</v>
+        <v>1505600</v>
       </c>
       <c r="H76" s="3">
-        <v>1664000</v>
+        <v>1703900</v>
       </c>
       <c r="I76" s="3">
-        <v>1950400</v>
+        <v>1689900</v>
       </c>
       <c r="J76" s="3">
+        <v>1980800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1920300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1823300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1890800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1842300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1876000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1894600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-144900</v>
+        <v>385200</v>
       </c>
       <c r="E81" s="3">
-        <v>87300</v>
+        <v>-147100</v>
       </c>
       <c r="F81" s="3">
-        <v>-175800</v>
+        <v>88700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1200</v>
+        <v>-178600</v>
       </c>
       <c r="H81" s="3">
-        <v>-352100</v>
+        <v>-1300</v>
       </c>
       <c r="I81" s="3">
-        <v>58800</v>
+        <v>-357500</v>
       </c>
       <c r="J81" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-77200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>91200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>93500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-36900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-223200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,8 +3828,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3674,8 +3873,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4108,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>130500</v>
+        <v>384800</v>
       </c>
       <c r="E89" s="3">
-        <v>179200</v>
+        <v>132500</v>
       </c>
       <c r="F89" s="3">
-        <v>133000</v>
+        <v>182000</v>
       </c>
       <c r="G89" s="3">
-        <v>173700</v>
+        <v>135100</v>
       </c>
       <c r="H89" s="3">
-        <v>134500</v>
+        <v>176400</v>
       </c>
       <c r="I89" s="3">
-        <v>120100</v>
+        <v>136600</v>
       </c>
       <c r="J89" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K89" s="3">
         <v>123900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>113500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>184600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>120800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>132800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,52 +4176,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-87300</v>
+        <v>-157500</v>
       </c>
       <c r="E91" s="3">
-        <v>-148800</v>
+        <v>-88700</v>
       </c>
       <c r="F91" s="3">
-        <v>-172800</v>
+        <v>-151100</v>
       </c>
       <c r="G91" s="3">
-        <v>-157300</v>
+        <v>-175400</v>
       </c>
       <c r="H91" s="3">
-        <v>-130900</v>
+        <v>-159800</v>
       </c>
       <c r="I91" s="3">
-        <v>-168200</v>
+        <v>-133000</v>
       </c>
       <c r="J91" s="3">
+        <v>-170800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-161000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-84900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-80100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-187500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,52 +4315,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-87500</v>
+        <v>-377500</v>
       </c>
       <c r="E94" s="3">
-        <v>-145700</v>
+        <v>-88900</v>
       </c>
       <c r="F94" s="3">
-        <v>-161000</v>
+        <v>-148000</v>
       </c>
       <c r="G94" s="3">
-        <v>-153500</v>
+        <v>-163500</v>
       </c>
       <c r="H94" s="3">
-        <v>-360000</v>
+        <v>-155900</v>
       </c>
       <c r="I94" s="3">
-        <v>-169400</v>
+        <v>-365600</v>
       </c>
       <c r="J94" s="3">
+        <v>-172000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-158300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-96200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-79800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-192100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4383,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4171,17 +4405,17 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-10100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4194,8 +4428,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,136 +4569,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300900</v>
+        <v>-144100</v>
       </c>
       <c r="E100" s="3">
-        <v>-18700</v>
+        <v>305600</v>
       </c>
       <c r="F100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
-        <v>23000</v>
-      </c>
       <c r="H100" s="3">
-        <v>207700</v>
+        <v>23400</v>
       </c>
       <c r="I100" s="3">
-        <v>36400</v>
+        <v>210900</v>
       </c>
       <c r="J100" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K100" s="3">
         <v>31300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9000</v>
+        <v>-5700</v>
       </c>
       <c r="E101" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>1400</v>
-      </c>
       <c r="H101" s="3">
-        <v>-5100</v>
+        <v>1500</v>
       </c>
       <c r="I101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>334800</v>
+        <v>-142500</v>
       </c>
       <c r="E102" s="3">
-        <v>16800</v>
+        <v>340000</v>
       </c>
       <c r="F102" s="3">
-        <v>-25900</v>
+        <v>17100</v>
       </c>
       <c r="G102" s="3">
-        <v>44700</v>
+        <v>-26300</v>
       </c>
       <c r="H102" s="3">
-        <v>-22900</v>
+        <v>45400</v>
       </c>
       <c r="I102" s="3">
-        <v>-12500</v>
+        <v>-23200</v>
       </c>
       <c r="J102" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>29700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-45900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -743,25 +743,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1437300</v>
+        <v>1558200</v>
       </c>
       <c r="E8" s="3">
-        <v>916700</v>
+        <v>993800</v>
       </c>
       <c r="F8" s="3">
-        <v>1030500</v>
+        <v>1117100</v>
       </c>
       <c r="G8" s="3">
-        <v>873700</v>
+        <v>947200</v>
       </c>
       <c r="H8" s="3">
-        <v>918100</v>
+        <v>995300</v>
       </c>
       <c r="I8" s="3">
-        <v>704200</v>
+        <v>763400</v>
       </c>
       <c r="J8" s="3">
-        <v>657500</v>
+        <v>712800</v>
       </c>
       <c r="K8" s="3">
         <v>616000</v>
@@ -790,25 +790,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1116600</v>
+        <v>1210500</v>
       </c>
       <c r="E9" s="3">
-        <v>825300</v>
+        <v>894700</v>
       </c>
       <c r="F9" s="3">
-        <v>897000</v>
+        <v>972400</v>
       </c>
       <c r="G9" s="3">
-        <v>797100</v>
+        <v>864100</v>
       </c>
       <c r="H9" s="3">
-        <v>850000</v>
+        <v>921500</v>
       </c>
       <c r="I9" s="3">
-        <v>627300</v>
+        <v>680100</v>
       </c>
       <c r="J9" s="3">
-        <v>574600</v>
+        <v>622900</v>
       </c>
       <c r="K9" s="3">
         <v>579700</v>
@@ -837,25 +837,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>320700</v>
+        <v>347700</v>
       </c>
       <c r="E10" s="3">
-        <v>91300</v>
+        <v>99000</v>
       </c>
       <c r="F10" s="3">
-        <v>133500</v>
+        <v>144700</v>
       </c>
       <c r="G10" s="3">
-        <v>76600</v>
+        <v>83100</v>
       </c>
       <c r="H10" s="3">
-        <v>68000</v>
+        <v>73800</v>
       </c>
       <c r="I10" s="3">
-        <v>76900</v>
+        <v>83400</v>
       </c>
       <c r="J10" s="3">
-        <v>82900</v>
+        <v>89900</v>
       </c>
       <c r="K10" s="3">
         <v>36300</v>
@@ -903,25 +903,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="E12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H12" s="3">
         <v>5200</v>
       </c>
-      <c r="F12" s="3">
-        <v>8500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4800</v>
-      </c>
       <c r="I12" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="J12" s="3">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="K12" s="3">
         <v>6400</v>
@@ -997,25 +997,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-59300</v>
+        <v>-64300</v>
       </c>
       <c r="E14" s="3">
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="F14" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="G14" s="3">
-        <v>260700</v>
+        <v>282700</v>
       </c>
       <c r="H14" s="3">
-        <v>10800</v>
+        <v>11700</v>
       </c>
       <c r="I14" s="3">
-        <v>354100</v>
+        <v>383900</v>
       </c>
       <c r="J14" s="3">
-        <v>14100</v>
+        <v>15300</v>
       </c>
       <c r="K14" s="3">
         <v>114400</v>
@@ -1107,25 +1107,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>997500</v>
+        <v>1081400</v>
       </c>
       <c r="E17" s="3">
-        <v>1052300</v>
+        <v>1140800</v>
       </c>
       <c r="F17" s="3">
-        <v>921700</v>
+        <v>999200</v>
       </c>
       <c r="G17" s="3">
-        <v>1053800</v>
+        <v>1142400</v>
       </c>
       <c r="H17" s="3">
-        <v>907700</v>
+        <v>984000</v>
       </c>
       <c r="I17" s="3">
-        <v>1097800</v>
+        <v>1190200</v>
       </c>
       <c r="J17" s="3">
-        <v>580600</v>
+        <v>629500</v>
       </c>
       <c r="K17" s="3">
         <v>758500</v>
@@ -1154,25 +1154,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>439800</v>
+        <v>476800</v>
       </c>
       <c r="E18" s="3">
-        <v>-135600</v>
+        <v>-147000</v>
       </c>
       <c r="F18" s="3">
-        <v>108800</v>
+        <v>117900</v>
       </c>
       <c r="G18" s="3">
-        <v>-180000</v>
+        <v>-195200</v>
       </c>
       <c r="H18" s="3">
-        <v>10400</v>
+        <v>11300</v>
       </c>
       <c r="I18" s="3">
-        <v>-393600</v>
+        <v>-426700</v>
       </c>
       <c r="J18" s="3">
-        <v>76800</v>
+        <v>83300</v>
       </c>
       <c r="K18" s="3">
         <v>-142500</v>
@@ -1220,25 +1220,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
-        <v>-3100</v>
+        <v>-3400</v>
       </c>
       <c r="F20" s="3">
-        <v>-9700</v>
+        <v>-10500</v>
       </c>
       <c r="G20" s="3">
-        <v>-11000</v>
+        <v>-11900</v>
       </c>
       <c r="H20" s="3">
-        <v>-8500</v>
+        <v>-9200</v>
       </c>
       <c r="I20" s="3">
-        <v>-3400</v>
+        <v>-3700</v>
       </c>
       <c r="J20" s="3">
-        <v>6800</v>
+        <v>7400</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1267,25 +1267,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>559300</v>
+        <v>606300</v>
       </c>
       <c r="E21" s="3">
-        <v>-155000</v>
+        <v>-168000</v>
       </c>
       <c r="F21" s="3">
-        <v>227400</v>
+        <v>246500</v>
       </c>
       <c r="G21" s="3">
-        <v>-191600</v>
+        <v>-207700</v>
       </c>
       <c r="H21" s="3">
-        <v>143000</v>
+        <v>155000</v>
       </c>
       <c r="I21" s="3">
-        <v>-392800</v>
+        <v>-425800</v>
       </c>
       <c r="J21" s="3">
-        <v>167000</v>
+        <v>181100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1361,25 +1361,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>438400</v>
+        <v>475200</v>
       </c>
       <c r="E23" s="3">
-        <v>-138800</v>
+        <v>-150400</v>
       </c>
       <c r="F23" s="3">
-        <v>99100</v>
+        <v>107500</v>
       </c>
       <c r="G23" s="3">
-        <v>-191000</v>
+        <v>-207100</v>
       </c>
       <c r="H23" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="I23" s="3">
-        <v>-397000</v>
+        <v>-430400</v>
       </c>
       <c r="J23" s="3">
-        <v>83600</v>
+        <v>90700</v>
       </c>
       <c r="K23" s="3">
         <v>-141700</v>
@@ -1408,25 +1408,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51400</v>
+        <v>55700</v>
       </c>
       <c r="E24" s="3">
-        <v>6500</v>
+        <v>7100</v>
       </c>
       <c r="F24" s="3">
-        <v>10500</v>
+        <v>11300</v>
       </c>
       <c r="G24" s="3">
-        <v>-12500</v>
+        <v>-13500</v>
       </c>
       <c r="H24" s="3">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="I24" s="3">
-        <v>-39500</v>
+        <v>-42800</v>
       </c>
       <c r="J24" s="3">
-        <v>23900</v>
+        <v>25900</v>
       </c>
       <c r="K24" s="3">
         <v>-64500</v>
@@ -1502,25 +1502,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>387000</v>
+        <v>419500</v>
       </c>
       <c r="E26" s="3">
-        <v>-145300</v>
+        <v>-157500</v>
       </c>
       <c r="F26" s="3">
-        <v>88700</v>
+        <v>96100</v>
       </c>
       <c r="G26" s="3">
-        <v>-178600</v>
+        <v>-193600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I26" s="3">
-        <v>-357500</v>
+        <v>-387600</v>
       </c>
       <c r="J26" s="3">
-        <v>59700</v>
+        <v>64700</v>
       </c>
       <c r="K26" s="3">
         <v>-77200</v>
@@ -1549,25 +1549,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>385200</v>
+        <v>417600</v>
       </c>
       <c r="E27" s="3">
-        <v>-147100</v>
+        <v>-159500</v>
       </c>
       <c r="F27" s="3">
-        <v>88700</v>
+        <v>96100</v>
       </c>
       <c r="G27" s="3">
-        <v>-178600</v>
+        <v>-193600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I27" s="3">
-        <v>-357500</v>
+        <v>-387600</v>
       </c>
       <c r="J27" s="3">
-        <v>59700</v>
+        <v>64700</v>
       </c>
       <c r="K27" s="3">
         <v>-77200</v>
@@ -1784,25 +1784,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="F32" s="3">
-        <v>9700</v>
+        <v>10500</v>
       </c>
       <c r="G32" s="3">
-        <v>11000</v>
+        <v>11900</v>
       </c>
       <c r="H32" s="3">
-        <v>8500</v>
+        <v>9200</v>
       </c>
       <c r="I32" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="J32" s="3">
-        <v>-6800</v>
+        <v>-7400</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1831,25 +1831,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>385200</v>
+        <v>417600</v>
       </c>
       <c r="E33" s="3">
-        <v>-147100</v>
+        <v>-159500</v>
       </c>
       <c r="F33" s="3">
-        <v>88700</v>
+        <v>96100</v>
       </c>
       <c r="G33" s="3">
-        <v>-178600</v>
+        <v>-193600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I33" s="3">
-        <v>-357500</v>
+        <v>-387600</v>
       </c>
       <c r="J33" s="3">
-        <v>59700</v>
+        <v>64700</v>
       </c>
       <c r="K33" s="3">
         <v>-77200</v>
@@ -1925,25 +1925,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>385200</v>
+        <v>417600</v>
       </c>
       <c r="E35" s="3">
-        <v>-147100</v>
+        <v>-159500</v>
       </c>
       <c r="F35" s="3">
-        <v>88700</v>
+        <v>96100</v>
       </c>
       <c r="G35" s="3">
-        <v>-178600</v>
+        <v>-193600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I35" s="3">
-        <v>-357500</v>
+        <v>-387600</v>
       </c>
       <c r="J35" s="3">
-        <v>59700</v>
+        <v>64700</v>
       </c>
       <c r="K35" s="3">
         <v>-77200</v>
@@ -2062,25 +2062,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>280800</v>
+        <v>304400</v>
       </c>
       <c r="E41" s="3">
-        <v>423200</v>
+        <v>458800</v>
       </c>
       <c r="F41" s="3">
-        <v>83200</v>
+        <v>90200</v>
       </c>
       <c r="G41" s="3">
-        <v>66100</v>
+        <v>71700</v>
       </c>
       <c r="H41" s="3">
-        <v>92400</v>
+        <v>100200</v>
       </c>
       <c r="I41" s="3">
-        <v>47000</v>
+        <v>51000</v>
       </c>
       <c r="J41" s="3">
-        <v>70200</v>
+        <v>76100</v>
       </c>
       <c r="K41" s="3">
         <v>81700</v>
@@ -2156,25 +2156,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>98900</v>
+        <v>107200</v>
       </c>
       <c r="E43" s="3">
-        <v>87100</v>
+        <v>94400</v>
       </c>
       <c r="F43" s="3">
-        <v>87300</v>
+        <v>94600</v>
       </c>
       <c r="G43" s="3">
-        <v>70800</v>
+        <v>76800</v>
       </c>
       <c r="H43" s="3">
-        <v>79100</v>
+        <v>85700</v>
       </c>
       <c r="I43" s="3">
-        <v>75800</v>
+        <v>82200</v>
       </c>
       <c r="J43" s="3">
-        <v>66100</v>
+        <v>71700</v>
       </c>
       <c r="K43" s="3">
         <v>65800</v>
@@ -2203,25 +2203,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>146400</v>
+        <v>158700</v>
       </c>
       <c r="E44" s="3">
-        <v>161200</v>
+        <v>174700</v>
       </c>
       <c r="F44" s="3">
-        <v>130000</v>
+        <v>141000</v>
       </c>
       <c r="G44" s="3">
-        <v>131000</v>
+        <v>142000</v>
       </c>
       <c r="H44" s="3">
-        <v>119500</v>
+        <v>129600</v>
       </c>
       <c r="I44" s="3">
-        <v>117100</v>
+        <v>127000</v>
       </c>
       <c r="J44" s="3">
-        <v>91200</v>
+        <v>98900</v>
       </c>
       <c r="K44" s="3">
         <v>73900</v>
@@ -2250,25 +2250,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52600</v>
+        <v>57000</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="F45" s="3">
-        <v>39300</v>
+        <v>42700</v>
       </c>
       <c r="G45" s="3">
-        <v>23500</v>
+        <v>25500</v>
       </c>
       <c r="H45" s="3">
-        <v>16400</v>
+        <v>17800</v>
       </c>
       <c r="I45" s="3">
-        <v>38400</v>
+        <v>41600</v>
       </c>
       <c r="J45" s="3">
-        <v>108600</v>
+        <v>117700</v>
       </c>
       <c r="K45" s="3">
         <v>102200</v>
@@ -2297,25 +2297,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>578600</v>
+        <v>627300</v>
       </c>
       <c r="E46" s="3">
-        <v>676900</v>
+        <v>733800</v>
       </c>
       <c r="F46" s="3">
-        <v>339900</v>
+        <v>368500</v>
       </c>
       <c r="G46" s="3">
-        <v>291400</v>
+        <v>315900</v>
       </c>
       <c r="H46" s="3">
-        <v>307500</v>
+        <v>333300</v>
       </c>
       <c r="I46" s="3">
-        <v>278400</v>
+        <v>301800</v>
       </c>
       <c r="J46" s="3">
-        <v>336200</v>
+        <v>364400</v>
       </c>
       <c r="K46" s="3">
         <v>323500</v>
@@ -2344,25 +2344,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35400</v>
+        <v>38300</v>
       </c>
       <c r="E47" s="3">
-        <v>35600</v>
+        <v>38500</v>
       </c>
       <c r="F47" s="3">
-        <v>31600</v>
+        <v>34200</v>
       </c>
       <c r="G47" s="3">
-        <v>29600</v>
+        <v>32000</v>
       </c>
       <c r="H47" s="3">
-        <v>43500</v>
+        <v>47200</v>
       </c>
       <c r="I47" s="3">
-        <v>23200</v>
+        <v>25100</v>
       </c>
       <c r="J47" s="3">
-        <v>21600</v>
+        <v>23400</v>
       </c>
       <c r="K47" s="3">
         <v>15400</v>
@@ -2391,25 +2391,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2342300</v>
+        <v>2539300</v>
       </c>
       <c r="E48" s="3">
-        <v>1943200</v>
+        <v>2106600</v>
       </c>
       <c r="F48" s="3">
-        <v>1878200</v>
+        <v>2036100</v>
       </c>
       <c r="G48" s="3">
-        <v>1847500</v>
+        <v>2002900</v>
       </c>
       <c r="H48" s="3">
-        <v>2093500</v>
+        <v>2269600</v>
       </c>
       <c r="I48" s="3">
-        <v>2064000</v>
+        <v>2237700</v>
       </c>
       <c r="J48" s="3">
-        <v>2060900</v>
+        <v>2234300</v>
       </c>
       <c r="K48" s="3">
         <v>1969700</v>
@@ -2438,25 +2438,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36100</v>
+        <v>39100</v>
       </c>
       <c r="E49" s="3">
-        <v>35700</v>
+        <v>38700</v>
       </c>
       <c r="F49" s="3">
-        <v>35600</v>
+        <v>38500</v>
       </c>
       <c r="G49" s="3">
-        <v>35500</v>
+        <v>38500</v>
       </c>
       <c r="H49" s="3">
-        <v>34300</v>
+        <v>37200</v>
       </c>
       <c r="I49" s="3">
-        <v>34300</v>
+        <v>37200</v>
       </c>
       <c r="J49" s="3">
-        <v>39900</v>
+        <v>43300</v>
       </c>
       <c r="K49" s="3">
         <v>39500</v>
@@ -2579,25 +2579,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>402300</v>
+        <v>436100</v>
       </c>
       <c r="E52" s="3">
-        <v>284300</v>
+        <v>308200</v>
       </c>
       <c r="F52" s="3">
-        <v>248500</v>
+        <v>269400</v>
       </c>
       <c r="G52" s="3">
-        <v>241900</v>
+        <v>262200</v>
       </c>
       <c r="H52" s="3">
-        <v>240600</v>
+        <v>260800</v>
       </c>
       <c r="I52" s="3">
-        <v>231600</v>
+        <v>251000</v>
       </c>
       <c r="J52" s="3">
-        <v>212300</v>
+        <v>230100</v>
       </c>
       <c r="K52" s="3">
         <v>201000</v>
@@ -2673,25 +2673,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3394600</v>
+        <v>3680200</v>
       </c>
       <c r="E54" s="3">
-        <v>2975600</v>
+        <v>3225900</v>
       </c>
       <c r="F54" s="3">
-        <v>2533600</v>
+        <v>2746700</v>
       </c>
       <c r="G54" s="3">
-        <v>2445900</v>
+        <v>2651600</v>
       </c>
       <c r="H54" s="3">
-        <v>2702100</v>
+        <v>2929400</v>
       </c>
       <c r="I54" s="3">
-        <v>2631400</v>
+        <v>2852800</v>
       </c>
       <c r="J54" s="3">
-        <v>2670900</v>
+        <v>2895500</v>
       </c>
       <c r="K54" s="3">
         <v>2549200</v>
@@ -2758,25 +2758,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>274600</v>
+        <v>297700</v>
       </c>
       <c r="E57" s="3">
-        <v>200100</v>
+        <v>217000</v>
       </c>
       <c r="F57" s="3">
-        <v>194700</v>
+        <v>211100</v>
       </c>
       <c r="G57" s="3">
-        <v>191400</v>
+        <v>207500</v>
       </c>
       <c r="H57" s="3">
-        <v>196200</v>
+        <v>212700</v>
       </c>
       <c r="I57" s="3">
-        <v>180000</v>
+        <v>195200</v>
       </c>
       <c r="J57" s="3">
-        <v>150300</v>
+        <v>163000</v>
       </c>
       <c r="K57" s="3">
         <v>131800</v>
@@ -2805,22 +2805,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26000</v>
+        <v>28200</v>
       </c>
       <c r="E58" s="3">
-        <v>17000</v>
+        <v>18400</v>
       </c>
       <c r="F58" s="3">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="G58" s="3">
-        <v>5900</v>
+        <v>6400</v>
       </c>
       <c r="H58" s="3">
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="I58" s="3">
-        <v>45900</v>
+        <v>49800</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2852,25 +2852,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>145900</v>
+        <v>158200</v>
       </c>
       <c r="E59" s="3">
-        <v>286200</v>
+        <v>310300</v>
       </c>
       <c r="F59" s="3">
-        <v>47000</v>
+        <v>51000</v>
       </c>
       <c r="G59" s="3">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="H59" s="3">
-        <v>20200</v>
+        <v>21900</v>
       </c>
       <c r="I59" s="3">
-        <v>13600</v>
+        <v>14800</v>
       </c>
       <c r="J59" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
@@ -2899,25 +2899,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>446600</v>
+        <v>484100</v>
       </c>
       <c r="E60" s="3">
-        <v>503300</v>
+        <v>545700</v>
       </c>
       <c r="F60" s="3">
-        <v>247500</v>
+        <v>268300</v>
       </c>
       <c r="G60" s="3">
-        <v>215300</v>
+        <v>233400</v>
       </c>
       <c r="H60" s="3">
-        <v>222500</v>
+        <v>241200</v>
       </c>
       <c r="I60" s="3">
-        <v>239600</v>
+        <v>259800</v>
       </c>
       <c r="J60" s="3">
-        <v>152100</v>
+        <v>164900</v>
       </c>
       <c r="K60" s="3">
         <v>252000</v>
@@ -2946,25 +2946,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>293400</v>
+        <v>318100</v>
       </c>
       <c r="E61" s="3">
-        <v>496900</v>
+        <v>538700</v>
       </c>
       <c r="F61" s="3">
-        <v>363100</v>
+        <v>393700</v>
       </c>
       <c r="G61" s="3">
-        <v>387900</v>
+        <v>420500</v>
       </c>
       <c r="H61" s="3">
-        <v>390900</v>
+        <v>423800</v>
       </c>
       <c r="I61" s="3">
-        <v>327800</v>
+        <v>355400</v>
       </c>
       <c r="J61" s="3">
-        <v>170800</v>
+        <v>185200</v>
       </c>
       <c r="K61" s="3">
         <v>19600</v>
@@ -2993,25 +2993,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>590100</v>
+        <v>639700</v>
       </c>
       <c r="E62" s="3">
-        <v>419100</v>
+        <v>454300</v>
       </c>
       <c r="F62" s="3">
-        <v>339000</v>
+        <v>367500</v>
       </c>
       <c r="G62" s="3">
-        <v>337000</v>
+        <v>365400</v>
       </c>
       <c r="H62" s="3">
-        <v>384800</v>
+        <v>417200</v>
       </c>
       <c r="I62" s="3">
-        <v>374000</v>
+        <v>405500</v>
       </c>
       <c r="J62" s="3">
-        <v>367200</v>
+        <v>398100</v>
       </c>
       <c r="K62" s="3">
         <v>357200</v>
@@ -3181,25 +3181,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1333000</v>
+        <v>1445100</v>
       </c>
       <c r="E66" s="3">
-        <v>1419600</v>
+        <v>1538900</v>
       </c>
       <c r="F66" s="3">
-        <v>949200</v>
+        <v>1029100</v>
       </c>
       <c r="G66" s="3">
-        <v>940200</v>
+        <v>1019300</v>
       </c>
       <c r="H66" s="3">
-        <v>998200</v>
+        <v>1082200</v>
       </c>
       <c r="I66" s="3">
-        <v>941500</v>
+        <v>1020700</v>
       </c>
       <c r="J66" s="3">
-        <v>690100</v>
+        <v>748100</v>
       </c>
       <c r="K66" s="3">
         <v>628900</v>
@@ -3435,25 +3435,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-131200</v>
+        <v>-142200</v>
       </c>
       <c r="E72" s="3">
-        <v>-636900</v>
+        <v>-690500</v>
       </c>
       <c r="F72" s="3">
-        <v>-383100</v>
+        <v>-415300</v>
       </c>
       <c r="G72" s="3">
-        <v>-461900</v>
+        <v>-500700</v>
       </c>
       <c r="H72" s="3">
-        <v>-263600</v>
+        <v>-285800</v>
       </c>
       <c r="I72" s="3">
-        <v>-263500</v>
+        <v>-285700</v>
       </c>
       <c r="J72" s="3">
-        <v>94100</v>
+        <v>102000</v>
       </c>
       <c r="K72" s="3">
         <v>62600</v>
@@ -3623,25 +3623,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2061600</v>
+        <v>2235100</v>
       </c>
       <c r="E76" s="3">
-        <v>1556000</v>
+        <v>1686900</v>
       </c>
       <c r="F76" s="3">
-        <v>1584400</v>
+        <v>1717700</v>
       </c>
       <c r="G76" s="3">
-        <v>1505600</v>
+        <v>1632300</v>
       </c>
       <c r="H76" s="3">
-        <v>1703900</v>
+        <v>1847200</v>
       </c>
       <c r="I76" s="3">
-        <v>1689900</v>
+        <v>1832100</v>
       </c>
       <c r="J76" s="3">
-        <v>1980800</v>
+        <v>2147400</v>
       </c>
       <c r="K76" s="3">
         <v>1920300</v>
@@ -3769,25 +3769,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>385200</v>
+        <v>417600</v>
       </c>
       <c r="E81" s="3">
-        <v>-147100</v>
+        <v>-159500</v>
       </c>
       <c r="F81" s="3">
-        <v>88700</v>
+        <v>96100</v>
       </c>
       <c r="G81" s="3">
-        <v>-178600</v>
+        <v>-193600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I81" s="3">
-        <v>-357500</v>
+        <v>-387600</v>
       </c>
       <c r="J81" s="3">
-        <v>59700</v>
+        <v>64700</v>
       </c>
       <c r="K81" s="3">
         <v>-77200</v>
@@ -4117,25 +4117,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>384800</v>
+        <v>417100</v>
       </c>
       <c r="E89" s="3">
-        <v>132500</v>
+        <v>143600</v>
       </c>
       <c r="F89" s="3">
-        <v>182000</v>
+        <v>197300</v>
       </c>
       <c r="G89" s="3">
-        <v>135100</v>
+        <v>146500</v>
       </c>
       <c r="H89" s="3">
-        <v>176400</v>
+        <v>191300</v>
       </c>
       <c r="I89" s="3">
-        <v>136600</v>
+        <v>148100</v>
       </c>
       <c r="J89" s="3">
-        <v>122000</v>
+        <v>132200</v>
       </c>
       <c r="K89" s="3">
         <v>123900</v>
@@ -4183,25 +4183,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-157500</v>
+        <v>-170800</v>
       </c>
       <c r="E91" s="3">
-        <v>-88700</v>
+        <v>-96100</v>
       </c>
       <c r="F91" s="3">
-        <v>-151100</v>
+        <v>-163800</v>
       </c>
       <c r="G91" s="3">
-        <v>-175400</v>
+        <v>-190200</v>
       </c>
       <c r="H91" s="3">
-        <v>-159800</v>
+        <v>-173200</v>
       </c>
       <c r="I91" s="3">
-        <v>-133000</v>
+        <v>-144100</v>
       </c>
       <c r="J91" s="3">
-        <v>-170800</v>
+        <v>-185100</v>
       </c>
       <c r="K91" s="3">
         <v>-161000</v>
@@ -4324,25 +4324,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-377500</v>
+        <v>-409300</v>
       </c>
       <c r="E94" s="3">
-        <v>-88900</v>
+        <v>-96400</v>
       </c>
       <c r="F94" s="3">
-        <v>-148000</v>
+        <v>-160500</v>
       </c>
       <c r="G94" s="3">
-        <v>-163500</v>
+        <v>-177300</v>
       </c>
       <c r="H94" s="3">
-        <v>-155900</v>
+        <v>-169000</v>
       </c>
       <c r="I94" s="3">
-        <v>-365600</v>
+        <v>-396300</v>
       </c>
       <c r="J94" s="3">
-        <v>-172000</v>
+        <v>-186500</v>
       </c>
       <c r="K94" s="3">
         <v>-158300</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-10300</v>
+        <v>-11100</v>
       </c>
       <c r="K96" s="3">
         <v>-14500</v>
@@ -4578,25 +4578,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-144100</v>
+        <v>-156200</v>
       </c>
       <c r="E100" s="3">
-        <v>305600</v>
+        <v>331300</v>
       </c>
       <c r="F100" s="3">
-        <v>-19000</v>
+        <v>-20600</v>
       </c>
       <c r="G100" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="H100" s="3">
-        <v>23400</v>
+        <v>25300</v>
       </c>
       <c r="I100" s="3">
-        <v>210900</v>
+        <v>228700</v>
       </c>
       <c r="J100" s="3">
-        <v>37000</v>
+        <v>40100</v>
       </c>
       <c r="K100" s="3">
         <v>31300</v>
@@ -4625,22 +4625,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="E101" s="3">
-        <v>-9200</v>
+        <v>-10000</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I101" s="3">
-        <v>-5200</v>
+        <v>-5600</v>
       </c>
       <c r="J101" s="3">
         <v>400</v>
@@ -4672,25 +4672,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-142500</v>
+        <v>-154500</v>
       </c>
       <c r="E102" s="3">
-        <v>340000</v>
+        <v>368600</v>
       </c>
       <c r="F102" s="3">
-        <v>17100</v>
+        <v>18600</v>
       </c>
       <c r="G102" s="3">
-        <v>-26300</v>
+        <v>-28500</v>
       </c>
       <c r="H102" s="3">
-        <v>45400</v>
+        <v>49200</v>
       </c>
       <c r="I102" s="3">
-        <v>-23200</v>
+        <v>-25200</v>
       </c>
       <c r="J102" s="3">
-        <v>-12700</v>
+        <v>-13800</v>
       </c>
       <c r="K102" s="3">
         <v>2000</v>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -743,25 +743,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1558200</v>
+        <v>1420100</v>
       </c>
       <c r="E8" s="3">
-        <v>993800</v>
+        <v>905700</v>
       </c>
       <c r="F8" s="3">
-        <v>1117100</v>
+        <v>1018100</v>
       </c>
       <c r="G8" s="3">
-        <v>947200</v>
+        <v>863200</v>
       </c>
       <c r="H8" s="3">
-        <v>995300</v>
+        <v>907000</v>
       </c>
       <c r="I8" s="3">
-        <v>763400</v>
+        <v>695800</v>
       </c>
       <c r="J8" s="3">
-        <v>712800</v>
+        <v>649600</v>
       </c>
       <c r="K8" s="3">
         <v>616000</v>
@@ -790,25 +790,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1210500</v>
+        <v>1103200</v>
       </c>
       <c r="E9" s="3">
-        <v>894700</v>
+        <v>815400</v>
       </c>
       <c r="F9" s="3">
-        <v>972400</v>
+        <v>886200</v>
       </c>
       <c r="G9" s="3">
-        <v>864100</v>
+        <v>787500</v>
       </c>
       <c r="H9" s="3">
-        <v>921500</v>
+        <v>839800</v>
       </c>
       <c r="I9" s="3">
-        <v>680100</v>
+        <v>619800</v>
       </c>
       <c r="J9" s="3">
-        <v>622900</v>
+        <v>567700</v>
       </c>
       <c r="K9" s="3">
         <v>579700</v>
@@ -837,25 +837,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>347700</v>
+        <v>316900</v>
       </c>
       <c r="E10" s="3">
-        <v>99000</v>
+        <v>90300</v>
       </c>
       <c r="F10" s="3">
-        <v>144700</v>
+        <v>131900</v>
       </c>
       <c r="G10" s="3">
-        <v>83100</v>
+        <v>75700</v>
       </c>
       <c r="H10" s="3">
-        <v>73800</v>
+        <v>67200</v>
       </c>
       <c r="I10" s="3">
-        <v>83400</v>
+        <v>76000</v>
       </c>
       <c r="J10" s="3">
-        <v>89900</v>
+        <v>81900</v>
       </c>
       <c r="K10" s="3">
         <v>36300</v>
@@ -903,25 +903,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="E12" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="F12" s="3">
-        <v>9200</v>
+        <v>8400</v>
       </c>
       <c r="G12" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="H12" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="I12" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="J12" s="3">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="K12" s="3">
         <v>6400</v>
@@ -997,25 +997,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-64300</v>
+        <v>-58600</v>
       </c>
       <c r="E14" s="3">
-        <v>6900</v>
+        <v>6200</v>
       </c>
       <c r="F14" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="G14" s="3">
-        <v>282700</v>
+        <v>257600</v>
       </c>
       <c r="H14" s="3">
-        <v>11700</v>
+        <v>10700</v>
       </c>
       <c r="I14" s="3">
-        <v>383900</v>
+        <v>349900</v>
       </c>
       <c r="J14" s="3">
-        <v>15300</v>
+        <v>13900</v>
       </c>
       <c r="K14" s="3">
         <v>114400</v>
@@ -1107,25 +1107,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1081400</v>
+        <v>985500</v>
       </c>
       <c r="E17" s="3">
-        <v>1140800</v>
+        <v>1039700</v>
       </c>
       <c r="F17" s="3">
-        <v>999200</v>
+        <v>910600</v>
       </c>
       <c r="G17" s="3">
-        <v>1142400</v>
+        <v>1041100</v>
       </c>
       <c r="H17" s="3">
-        <v>984000</v>
+        <v>896800</v>
       </c>
       <c r="I17" s="3">
-        <v>1190200</v>
+        <v>1084600</v>
       </c>
       <c r="J17" s="3">
-        <v>629500</v>
+        <v>573700</v>
       </c>
       <c r="K17" s="3">
         <v>758500</v>
@@ -1154,25 +1154,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>476800</v>
+        <v>434500</v>
       </c>
       <c r="E18" s="3">
-        <v>-147000</v>
+        <v>-134000</v>
       </c>
       <c r="F18" s="3">
-        <v>117900</v>
+        <v>107500</v>
       </c>
       <c r="G18" s="3">
-        <v>-195200</v>
+        <v>-177900</v>
       </c>
       <c r="H18" s="3">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="I18" s="3">
-        <v>-426700</v>
+        <v>-388900</v>
       </c>
       <c r="J18" s="3">
-        <v>83300</v>
+        <v>75900</v>
       </c>
       <c r="K18" s="3">
         <v>-142500</v>
@@ -1220,25 +1220,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J20" s="3">
-        <v>7400</v>
+        <v>6700</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1267,25 +1267,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>606300</v>
+        <v>552600</v>
       </c>
       <c r="E21" s="3">
-        <v>-168000</v>
+        <v>-153100</v>
       </c>
       <c r="F21" s="3">
-        <v>246500</v>
+        <v>224600</v>
       </c>
       <c r="G21" s="3">
-        <v>-207700</v>
+        <v>-189200</v>
       </c>
       <c r="H21" s="3">
-        <v>155000</v>
+        <v>141300</v>
       </c>
       <c r="I21" s="3">
-        <v>-425800</v>
+        <v>-388000</v>
       </c>
       <c r="J21" s="3">
-        <v>181100</v>
+        <v>165000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1361,25 +1361,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>475200</v>
+        <v>433100</v>
       </c>
       <c r="E23" s="3">
-        <v>-150400</v>
+        <v>-137100</v>
       </c>
       <c r="F23" s="3">
-        <v>107500</v>
+        <v>97900</v>
       </c>
       <c r="G23" s="3">
-        <v>-207100</v>
+        <v>-188700</v>
       </c>
       <c r="H23" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="I23" s="3">
-        <v>-430400</v>
+        <v>-392200</v>
       </c>
       <c r="J23" s="3">
-        <v>90700</v>
+        <v>82600</v>
       </c>
       <c r="K23" s="3">
         <v>-141700</v>
@@ -1408,25 +1408,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55700</v>
+        <v>50800</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>6400</v>
       </c>
       <c r="F24" s="3">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="G24" s="3">
-        <v>-13500</v>
+        <v>-12300</v>
       </c>
       <c r="H24" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="I24" s="3">
-        <v>-42800</v>
+        <v>-39000</v>
       </c>
       <c r="J24" s="3">
-        <v>25900</v>
+        <v>23600</v>
       </c>
       <c r="K24" s="3">
         <v>-64500</v>
@@ -1502,25 +1502,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>419500</v>
+        <v>382300</v>
       </c>
       <c r="E26" s="3">
-        <v>-157500</v>
+        <v>-143500</v>
       </c>
       <c r="F26" s="3">
-        <v>96100</v>
+        <v>87600</v>
       </c>
       <c r="G26" s="3">
-        <v>-193600</v>
+        <v>-176400</v>
       </c>
       <c r="H26" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="I26" s="3">
-        <v>-387600</v>
+        <v>-353200</v>
       </c>
       <c r="J26" s="3">
-        <v>64700</v>
+        <v>59000</v>
       </c>
       <c r="K26" s="3">
         <v>-77200</v>
@@ -1549,25 +1549,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>417600</v>
+        <v>380500</v>
       </c>
       <c r="E27" s="3">
-        <v>-159500</v>
+        <v>-145400</v>
       </c>
       <c r="F27" s="3">
-        <v>96100</v>
+        <v>87600</v>
       </c>
       <c r="G27" s="3">
-        <v>-193600</v>
+        <v>-176400</v>
       </c>
       <c r="H27" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="I27" s="3">
-        <v>-387600</v>
+        <v>-353200</v>
       </c>
       <c r="J27" s="3">
-        <v>64700</v>
+        <v>59000</v>
       </c>
       <c r="K27" s="3">
         <v>-77200</v>
@@ -1784,25 +1784,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3700</v>
-      </c>
       <c r="J32" s="3">
-        <v>-7400</v>
+        <v>-6700</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1831,25 +1831,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>417600</v>
+        <v>380500</v>
       </c>
       <c r="E33" s="3">
-        <v>-159500</v>
+        <v>-145400</v>
       </c>
       <c r="F33" s="3">
-        <v>96100</v>
+        <v>87600</v>
       </c>
       <c r="G33" s="3">
-        <v>-193600</v>
+        <v>-176400</v>
       </c>
       <c r="H33" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="I33" s="3">
-        <v>-387600</v>
+        <v>-353200</v>
       </c>
       <c r="J33" s="3">
-        <v>64700</v>
+        <v>59000</v>
       </c>
       <c r="K33" s="3">
         <v>-77200</v>
@@ -1925,25 +1925,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>417600</v>
+        <v>380500</v>
       </c>
       <c r="E35" s="3">
-        <v>-159500</v>
+        <v>-145400</v>
       </c>
       <c r="F35" s="3">
-        <v>96100</v>
+        <v>87600</v>
       </c>
       <c r="G35" s="3">
-        <v>-193600</v>
+        <v>-176400</v>
       </c>
       <c r="H35" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="I35" s="3">
-        <v>-387600</v>
+        <v>-353200</v>
       </c>
       <c r="J35" s="3">
-        <v>64700</v>
+        <v>59000</v>
       </c>
       <c r="K35" s="3">
         <v>-77200</v>
@@ -2062,25 +2062,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>304400</v>
+        <v>277400</v>
       </c>
       <c r="E41" s="3">
-        <v>458800</v>
+        <v>418200</v>
       </c>
       <c r="F41" s="3">
-        <v>90200</v>
+        <v>82200</v>
       </c>
       <c r="G41" s="3">
-        <v>71700</v>
+        <v>65300</v>
       </c>
       <c r="H41" s="3">
-        <v>100200</v>
+        <v>91300</v>
       </c>
       <c r="I41" s="3">
-        <v>51000</v>
+        <v>46400</v>
       </c>
       <c r="J41" s="3">
-        <v>76100</v>
+        <v>69400</v>
       </c>
       <c r="K41" s="3">
         <v>81700</v>
@@ -2156,25 +2156,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>107200</v>
+        <v>97700</v>
       </c>
       <c r="E43" s="3">
-        <v>94400</v>
+        <v>86000</v>
       </c>
       <c r="F43" s="3">
-        <v>94600</v>
+        <v>86200</v>
       </c>
       <c r="G43" s="3">
-        <v>76800</v>
+        <v>70000</v>
       </c>
       <c r="H43" s="3">
-        <v>85700</v>
+        <v>78100</v>
       </c>
       <c r="I43" s="3">
-        <v>82200</v>
+        <v>74900</v>
       </c>
       <c r="J43" s="3">
-        <v>71700</v>
+        <v>65300</v>
       </c>
       <c r="K43" s="3">
         <v>65800</v>
@@ -2203,25 +2203,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>158700</v>
+        <v>144700</v>
       </c>
       <c r="E44" s="3">
-        <v>174700</v>
+        <v>159300</v>
       </c>
       <c r="F44" s="3">
-        <v>141000</v>
+        <v>128500</v>
       </c>
       <c r="G44" s="3">
-        <v>142000</v>
+        <v>129400</v>
       </c>
       <c r="H44" s="3">
-        <v>129600</v>
+        <v>118100</v>
       </c>
       <c r="I44" s="3">
-        <v>127000</v>
+        <v>115700</v>
       </c>
       <c r="J44" s="3">
-        <v>98900</v>
+        <v>90100</v>
       </c>
       <c r="K44" s="3">
         <v>73900</v>
@@ -2250,25 +2250,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57000</v>
+        <v>52000</v>
       </c>
       <c r="E45" s="3">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="F45" s="3">
-        <v>42700</v>
+        <v>38900</v>
       </c>
       <c r="G45" s="3">
-        <v>25500</v>
+        <v>23200</v>
       </c>
       <c r="H45" s="3">
-        <v>17800</v>
+        <v>16200</v>
       </c>
       <c r="I45" s="3">
-        <v>41600</v>
+        <v>38000</v>
       </c>
       <c r="J45" s="3">
-        <v>117700</v>
+        <v>107300</v>
       </c>
       <c r="K45" s="3">
         <v>102200</v>
@@ -2297,25 +2297,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>627300</v>
+        <v>571700</v>
       </c>
       <c r="E46" s="3">
-        <v>733800</v>
+        <v>668700</v>
       </c>
       <c r="F46" s="3">
-        <v>368500</v>
+        <v>335800</v>
       </c>
       <c r="G46" s="3">
-        <v>315900</v>
+        <v>287900</v>
       </c>
       <c r="H46" s="3">
-        <v>333300</v>
+        <v>303800</v>
       </c>
       <c r="I46" s="3">
-        <v>301800</v>
+        <v>275000</v>
       </c>
       <c r="J46" s="3">
-        <v>364400</v>
+        <v>332100</v>
       </c>
       <c r="K46" s="3">
         <v>323500</v>
@@ -2344,25 +2344,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38300</v>
+        <v>34900</v>
       </c>
       <c r="E47" s="3">
-        <v>38500</v>
+        <v>35100</v>
       </c>
       <c r="F47" s="3">
-        <v>34200</v>
+        <v>31200</v>
       </c>
       <c r="G47" s="3">
-        <v>32000</v>
+        <v>29200</v>
       </c>
       <c r="H47" s="3">
-        <v>47200</v>
+        <v>43000</v>
       </c>
       <c r="I47" s="3">
-        <v>25100</v>
+        <v>22900</v>
       </c>
       <c r="J47" s="3">
-        <v>23400</v>
+        <v>21300</v>
       </c>
       <c r="K47" s="3">
         <v>15400</v>
@@ -2391,25 +2391,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2539300</v>
+        <v>2314100</v>
       </c>
       <c r="E48" s="3">
-        <v>2106600</v>
+        <v>1919900</v>
       </c>
       <c r="F48" s="3">
-        <v>2036100</v>
+        <v>1855600</v>
       </c>
       <c r="G48" s="3">
-        <v>2002900</v>
+        <v>1825300</v>
       </c>
       <c r="H48" s="3">
-        <v>2269600</v>
+        <v>2068400</v>
       </c>
       <c r="I48" s="3">
-        <v>2237700</v>
+        <v>2039200</v>
       </c>
       <c r="J48" s="3">
-        <v>2234300</v>
+        <v>2036200</v>
       </c>
       <c r="K48" s="3">
         <v>1969700</v>
@@ -2438,25 +2438,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39100</v>
+        <v>35700</v>
       </c>
       <c r="E49" s="3">
-        <v>38700</v>
+        <v>35300</v>
       </c>
       <c r="F49" s="3">
-        <v>38500</v>
+        <v>35100</v>
       </c>
       <c r="G49" s="3">
-        <v>38500</v>
+        <v>35100</v>
       </c>
       <c r="H49" s="3">
-        <v>37200</v>
+        <v>33900</v>
       </c>
       <c r="I49" s="3">
-        <v>37200</v>
+        <v>33900</v>
       </c>
       <c r="J49" s="3">
-        <v>43300</v>
+        <v>39500</v>
       </c>
       <c r="K49" s="3">
         <v>39500</v>
@@ -2579,25 +2579,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>436100</v>
+        <v>397400</v>
       </c>
       <c r="E52" s="3">
-        <v>308200</v>
+        <v>280900</v>
       </c>
       <c r="F52" s="3">
-        <v>269400</v>
+        <v>245500</v>
       </c>
       <c r="G52" s="3">
-        <v>262200</v>
+        <v>239000</v>
       </c>
       <c r="H52" s="3">
-        <v>260800</v>
+        <v>237700</v>
       </c>
       <c r="I52" s="3">
-        <v>251000</v>
+        <v>228800</v>
       </c>
       <c r="J52" s="3">
-        <v>230100</v>
+        <v>209700</v>
       </c>
       <c r="K52" s="3">
         <v>201000</v>
@@ -2673,25 +2673,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3680200</v>
+        <v>3353900</v>
       </c>
       <c r="E54" s="3">
-        <v>3225900</v>
+        <v>2939800</v>
       </c>
       <c r="F54" s="3">
-        <v>2746700</v>
+        <v>2503200</v>
       </c>
       <c r="G54" s="3">
-        <v>2651600</v>
+        <v>2416500</v>
       </c>
       <c r="H54" s="3">
-        <v>2929400</v>
+        <v>2669700</v>
       </c>
       <c r="I54" s="3">
-        <v>2852800</v>
+        <v>2599800</v>
       </c>
       <c r="J54" s="3">
-        <v>2895500</v>
+        <v>2638800</v>
       </c>
       <c r="K54" s="3">
         <v>2549200</v>
@@ -2758,25 +2758,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>297700</v>
+        <v>271300</v>
       </c>
       <c r="E57" s="3">
-        <v>217000</v>
+        <v>197700</v>
       </c>
       <c r="F57" s="3">
-        <v>211100</v>
+        <v>192400</v>
       </c>
       <c r="G57" s="3">
-        <v>207500</v>
+        <v>189100</v>
       </c>
       <c r="H57" s="3">
-        <v>212700</v>
+        <v>193900</v>
       </c>
       <c r="I57" s="3">
-        <v>195200</v>
+        <v>177900</v>
       </c>
       <c r="J57" s="3">
-        <v>163000</v>
+        <v>148500</v>
       </c>
       <c r="K57" s="3">
         <v>131800</v>
@@ -2805,22 +2805,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28200</v>
+        <v>25700</v>
       </c>
       <c r="E58" s="3">
-        <v>18400</v>
+        <v>16800</v>
       </c>
       <c r="F58" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="G58" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="H58" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="I58" s="3">
-        <v>49800</v>
+        <v>45400</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2852,25 +2852,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>158200</v>
+        <v>144200</v>
       </c>
       <c r="E59" s="3">
-        <v>310300</v>
+        <v>282800</v>
       </c>
       <c r="F59" s="3">
-        <v>51000</v>
+        <v>46400</v>
       </c>
       <c r="G59" s="3">
-        <v>19500</v>
+        <v>17800</v>
       </c>
       <c r="H59" s="3">
-        <v>21900</v>
+        <v>19900</v>
       </c>
       <c r="I59" s="3">
-        <v>14800</v>
+        <v>13500</v>
       </c>
       <c r="J59" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
@@ -2899,25 +2899,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>484100</v>
+        <v>441200</v>
       </c>
       <c r="E60" s="3">
-        <v>545700</v>
+        <v>497300</v>
       </c>
       <c r="F60" s="3">
-        <v>268300</v>
+        <v>244500</v>
       </c>
       <c r="G60" s="3">
-        <v>233400</v>
+        <v>212700</v>
       </c>
       <c r="H60" s="3">
-        <v>241200</v>
+        <v>219800</v>
       </c>
       <c r="I60" s="3">
-        <v>259800</v>
+        <v>236700</v>
       </c>
       <c r="J60" s="3">
-        <v>164900</v>
+        <v>150200</v>
       </c>
       <c r="K60" s="3">
         <v>252000</v>
@@ -2946,25 +2946,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>318100</v>
+        <v>289900</v>
       </c>
       <c r="E61" s="3">
-        <v>538700</v>
+        <v>490900</v>
       </c>
       <c r="F61" s="3">
-        <v>393700</v>
+        <v>358800</v>
       </c>
       <c r="G61" s="3">
-        <v>420500</v>
+        <v>383200</v>
       </c>
       <c r="H61" s="3">
-        <v>423800</v>
+        <v>386200</v>
       </c>
       <c r="I61" s="3">
-        <v>355400</v>
+        <v>323900</v>
       </c>
       <c r="J61" s="3">
-        <v>185200</v>
+        <v>168800</v>
       </c>
       <c r="K61" s="3">
         <v>19600</v>
@@ -2993,25 +2993,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>639700</v>
+        <v>583000</v>
       </c>
       <c r="E62" s="3">
-        <v>454300</v>
+        <v>414000</v>
       </c>
       <c r="F62" s="3">
-        <v>367500</v>
+        <v>334900</v>
       </c>
       <c r="G62" s="3">
-        <v>365400</v>
+        <v>333000</v>
       </c>
       <c r="H62" s="3">
-        <v>417200</v>
+        <v>380200</v>
       </c>
       <c r="I62" s="3">
-        <v>405500</v>
+        <v>369600</v>
       </c>
       <c r="J62" s="3">
-        <v>398100</v>
+        <v>362800</v>
       </c>
       <c r="K62" s="3">
         <v>357200</v>
@@ -3181,25 +3181,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1445100</v>
+        <v>1317000</v>
       </c>
       <c r="E66" s="3">
-        <v>1538900</v>
+        <v>1402500</v>
       </c>
       <c r="F66" s="3">
-        <v>1029100</v>
+        <v>937800</v>
       </c>
       <c r="G66" s="3">
-        <v>1019300</v>
+        <v>928900</v>
       </c>
       <c r="H66" s="3">
-        <v>1082200</v>
+        <v>986200</v>
       </c>
       <c r="I66" s="3">
-        <v>1020700</v>
+        <v>930200</v>
       </c>
       <c r="J66" s="3">
-        <v>748100</v>
+        <v>681800</v>
       </c>
       <c r="K66" s="3">
         <v>628900</v>
@@ -3435,25 +3435,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-142200</v>
+        <v>-129600</v>
       </c>
       <c r="E72" s="3">
-        <v>-690500</v>
+        <v>-629300</v>
       </c>
       <c r="F72" s="3">
-        <v>-415300</v>
+        <v>-378500</v>
       </c>
       <c r="G72" s="3">
-        <v>-500700</v>
+        <v>-456300</v>
       </c>
       <c r="H72" s="3">
-        <v>-285800</v>
+        <v>-260400</v>
       </c>
       <c r="I72" s="3">
-        <v>-285700</v>
+        <v>-260400</v>
       </c>
       <c r="J72" s="3">
-        <v>102000</v>
+        <v>92900</v>
       </c>
       <c r="K72" s="3">
         <v>62600</v>
@@ -3623,25 +3623,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2235100</v>
+        <v>2036900</v>
       </c>
       <c r="E76" s="3">
-        <v>1686900</v>
+        <v>1537300</v>
       </c>
       <c r="F76" s="3">
-        <v>1717700</v>
+        <v>1565400</v>
       </c>
       <c r="G76" s="3">
-        <v>1632300</v>
+        <v>1487500</v>
       </c>
       <c r="H76" s="3">
-        <v>1847200</v>
+        <v>1683400</v>
       </c>
       <c r="I76" s="3">
-        <v>1832100</v>
+        <v>1669600</v>
       </c>
       <c r="J76" s="3">
-        <v>2147400</v>
+        <v>1957000</v>
       </c>
       <c r="K76" s="3">
         <v>1920300</v>
@@ -3769,25 +3769,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>417600</v>
+        <v>380500</v>
       </c>
       <c r="E81" s="3">
-        <v>-159500</v>
+        <v>-145400</v>
       </c>
       <c r="F81" s="3">
-        <v>96100</v>
+        <v>87600</v>
       </c>
       <c r="G81" s="3">
-        <v>-193600</v>
+        <v>-176400</v>
       </c>
       <c r="H81" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="I81" s="3">
-        <v>-387600</v>
+        <v>-353200</v>
       </c>
       <c r="J81" s="3">
-        <v>64700</v>
+        <v>59000</v>
       </c>
       <c r="K81" s="3">
         <v>-77200</v>
@@ -4117,25 +4117,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>417100</v>
+        <v>380100</v>
       </c>
       <c r="E89" s="3">
-        <v>143600</v>
+        <v>130900</v>
       </c>
       <c r="F89" s="3">
-        <v>197300</v>
+        <v>179800</v>
       </c>
       <c r="G89" s="3">
-        <v>146500</v>
+        <v>133500</v>
       </c>
       <c r="H89" s="3">
-        <v>191300</v>
+        <v>174300</v>
       </c>
       <c r="I89" s="3">
-        <v>148100</v>
+        <v>135000</v>
       </c>
       <c r="J89" s="3">
-        <v>132200</v>
+        <v>120500</v>
       </c>
       <c r="K89" s="3">
         <v>123900</v>
@@ -4183,25 +4183,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-170800</v>
+        <v>-155600</v>
       </c>
       <c r="E91" s="3">
-        <v>-96100</v>
+        <v>-87600</v>
       </c>
       <c r="F91" s="3">
-        <v>-163800</v>
+        <v>-149300</v>
       </c>
       <c r="G91" s="3">
-        <v>-190200</v>
+        <v>-173300</v>
       </c>
       <c r="H91" s="3">
-        <v>-173200</v>
+        <v>-157900</v>
       </c>
       <c r="I91" s="3">
-        <v>-144100</v>
+        <v>-131400</v>
       </c>
       <c r="J91" s="3">
-        <v>-185100</v>
+        <v>-168700</v>
       </c>
       <c r="K91" s="3">
         <v>-161000</v>
@@ -4324,25 +4324,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-409300</v>
+        <v>-373000</v>
       </c>
       <c r="E94" s="3">
-        <v>-96400</v>
+        <v>-87800</v>
       </c>
       <c r="F94" s="3">
-        <v>-160500</v>
+        <v>-146200</v>
       </c>
       <c r="G94" s="3">
-        <v>-177300</v>
+        <v>-161600</v>
       </c>
       <c r="H94" s="3">
-        <v>-169000</v>
+        <v>-154000</v>
       </c>
       <c r="I94" s="3">
-        <v>-396300</v>
+        <v>-361200</v>
       </c>
       <c r="J94" s="3">
-        <v>-186500</v>
+        <v>-170000</v>
       </c>
       <c r="K94" s="3">
         <v>-158300</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-11100</v>
+        <v>-10100</v>
       </c>
       <c r="K96" s="3">
         <v>-14500</v>
@@ -4578,25 +4578,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-156200</v>
+        <v>-142300</v>
       </c>
       <c r="E100" s="3">
-        <v>331300</v>
+        <v>301900</v>
       </c>
       <c r="F100" s="3">
-        <v>-20600</v>
+        <v>-18700</v>
       </c>
       <c r="G100" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="H100" s="3">
-        <v>25300</v>
+        <v>23100</v>
       </c>
       <c r="I100" s="3">
-        <v>228700</v>
+        <v>208400</v>
       </c>
       <c r="J100" s="3">
-        <v>40100</v>
+        <v>36500</v>
       </c>
       <c r="K100" s="3">
         <v>31300</v>
@@ -4625,22 +4625,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6100</v>
+        <v>-5600</v>
       </c>
       <c r="E101" s="3">
-        <v>-10000</v>
+        <v>-9100</v>
       </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="I101" s="3">
-        <v>-5600</v>
+        <v>-5100</v>
       </c>
       <c r="J101" s="3">
         <v>400</v>
@@ -4672,25 +4672,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-154500</v>
+        <v>-140800</v>
       </c>
       <c r="E102" s="3">
-        <v>368600</v>
+        <v>335900</v>
       </c>
       <c r="F102" s="3">
-        <v>18600</v>
+        <v>16900</v>
       </c>
       <c r="G102" s="3">
-        <v>-28500</v>
+        <v>-26000</v>
       </c>
       <c r="H102" s="3">
-        <v>49200</v>
+        <v>44900</v>
       </c>
       <c r="I102" s="3">
-        <v>-25200</v>
+        <v>-23000</v>
       </c>
       <c r="J102" s="3">
-        <v>-13800</v>
+        <v>-12600</v>
       </c>
       <c r="K102" s="3">
         <v>2000</v>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,234 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1420100</v>
+        <v>1248000</v>
       </c>
       <c r="E8" s="3">
-        <v>905700</v>
+        <v>1337400</v>
       </c>
       <c r="F8" s="3">
-        <v>1018100</v>
+        <v>852900</v>
       </c>
       <c r="G8" s="3">
-        <v>863200</v>
+        <v>958800</v>
       </c>
       <c r="H8" s="3">
-        <v>907000</v>
+        <v>813000</v>
       </c>
       <c r="I8" s="3">
-        <v>695800</v>
+        <v>854200</v>
       </c>
       <c r="J8" s="3">
+        <v>655200</v>
+      </c>
+      <c r="K8" s="3">
         <v>649600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>616000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>585000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>646000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>596800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>293200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>273400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1103200</v>
+        <v>1069400</v>
       </c>
       <c r="E9" s="3">
-        <v>815400</v>
+        <v>1039000</v>
       </c>
       <c r="F9" s="3">
-        <v>886200</v>
+        <v>767900</v>
       </c>
       <c r="G9" s="3">
-        <v>787500</v>
+        <v>834600</v>
       </c>
       <c r="H9" s="3">
-        <v>839800</v>
+        <v>741700</v>
       </c>
       <c r="I9" s="3">
-        <v>619800</v>
+        <v>790900</v>
       </c>
       <c r="J9" s="3">
+        <v>583700</v>
+      </c>
+      <c r="K9" s="3">
         <v>567700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>579700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>533800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>524900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>547700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>289500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>270700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>316900</v>
+        <v>178600</v>
       </c>
       <c r="E10" s="3">
-        <v>90300</v>
+        <v>298400</v>
       </c>
       <c r="F10" s="3">
-        <v>131900</v>
+        <v>85000</v>
       </c>
       <c r="G10" s="3">
-        <v>75700</v>
+        <v>124200</v>
       </c>
       <c r="H10" s="3">
-        <v>67200</v>
+        <v>71300</v>
       </c>
       <c r="I10" s="3">
-        <v>76000</v>
+        <v>63300</v>
       </c>
       <c r="J10" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K10" s="3">
         <v>81900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>121100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>49100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,55 +910,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="E12" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="F12" s="3">
-        <v>8400</v>
+        <v>4800</v>
       </c>
       <c r="G12" s="3">
-        <v>5000</v>
+        <v>7900</v>
       </c>
       <c r="H12" s="3">
         <v>4700</v>
       </c>
       <c r="I12" s="3">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="J12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K12" s="3">
         <v>5300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,55 +1008,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-58600</v>
+        <v>139300</v>
       </c>
       <c r="E14" s="3">
-        <v>6200</v>
+        <v>-55200</v>
       </c>
       <c r="F14" s="3">
-        <v>1700</v>
+        <v>5900</v>
       </c>
       <c r="G14" s="3">
-        <v>257600</v>
+        <v>1600</v>
       </c>
       <c r="H14" s="3">
-        <v>10700</v>
+        <v>242600</v>
       </c>
       <c r="I14" s="3">
-        <v>349900</v>
+        <v>10000</v>
       </c>
       <c r="J14" s="3">
+        <v>329500</v>
+      </c>
+      <c r="K14" s="3">
         <v>13900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>114400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-45900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>249300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,8 +1108,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1127,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>985500</v>
+        <v>1246600</v>
       </c>
       <c r="E17" s="3">
-        <v>1039700</v>
+        <v>928100</v>
       </c>
       <c r="F17" s="3">
-        <v>910600</v>
+        <v>979100</v>
       </c>
       <c r="G17" s="3">
-        <v>1041100</v>
+        <v>857600</v>
       </c>
       <c r="H17" s="3">
-        <v>896800</v>
+        <v>980500</v>
       </c>
       <c r="I17" s="3">
-        <v>1084600</v>
+        <v>844600</v>
       </c>
       <c r="J17" s="3">
+        <v>1021500</v>
+      </c>
+      <c r="K17" s="3">
         <v>573700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>758500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>466400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>513000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>623000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>330900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>535400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>434500</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-134000</v>
+        <v>409200</v>
       </c>
       <c r="F18" s="3">
-        <v>107500</v>
+        <v>-126200</v>
       </c>
       <c r="G18" s="3">
-        <v>-177900</v>
+        <v>101200</v>
       </c>
       <c r="H18" s="3">
-        <v>10300</v>
+        <v>-167500</v>
       </c>
       <c r="I18" s="3">
-        <v>-388900</v>
+        <v>9700</v>
       </c>
       <c r="J18" s="3">
+        <v>-366200</v>
+      </c>
+      <c r="K18" s="3">
         <v>75900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-142500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>118600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>133000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-37700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-262000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,81 +1247,85 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3100</v>
-      </c>
       <c r="F20" s="3">
-        <v>-9500</v>
+        <v>-2900</v>
       </c>
       <c r="G20" s="3">
-        <v>-10900</v>
+        <v>-9000</v>
       </c>
       <c r="H20" s="3">
-        <v>-8400</v>
+        <v>-10200</v>
       </c>
       <c r="I20" s="3">
-        <v>-3400</v>
+        <v>-7900</v>
       </c>
       <c r="J20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K20" s="3">
         <v>6700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>552600</v>
+        <v>2500</v>
       </c>
       <c r="E21" s="3">
-        <v>-153100</v>
+        <v>520400</v>
       </c>
       <c r="F21" s="3">
-        <v>224600</v>
+        <v>-144200</v>
       </c>
       <c r="G21" s="3">
-        <v>-189200</v>
+        <v>211600</v>
       </c>
       <c r="H21" s="3">
-        <v>141300</v>
+        <v>-178200</v>
       </c>
       <c r="I21" s="3">
-        <v>-388000</v>
+        <v>133100</v>
       </c>
       <c r="J21" s="3">
+        <v>-365400</v>
+      </c>
+      <c r="K21" s="3">
         <v>165000</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
@@ -1296,20 +1333,23 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>45400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-222400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,102 +1395,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>433100</v>
+        <v>-12500</v>
       </c>
       <c r="E23" s="3">
-        <v>-137100</v>
+        <v>407900</v>
       </c>
       <c r="F23" s="3">
-        <v>97900</v>
+        <v>-129100</v>
       </c>
       <c r="G23" s="3">
-        <v>-188700</v>
+        <v>92200</v>
       </c>
       <c r="H23" s="3">
-        <v>1900</v>
+        <v>-177700</v>
       </c>
       <c r="I23" s="3">
-        <v>-392200</v>
+        <v>1800</v>
       </c>
       <c r="J23" s="3">
+        <v>-369400</v>
+      </c>
+      <c r="K23" s="3">
         <v>82600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-141700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>119300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>134500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-39200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-263000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50800</v>
+        <v>30100</v>
       </c>
       <c r="E24" s="3">
-        <v>6400</v>
+        <v>47800</v>
       </c>
       <c r="F24" s="3">
-        <v>10300</v>
+        <v>6100</v>
       </c>
       <c r="G24" s="3">
-        <v>-12300</v>
+        <v>9700</v>
       </c>
       <c r="H24" s="3">
-        <v>3200</v>
+        <v>-11600</v>
       </c>
       <c r="I24" s="3">
-        <v>-39000</v>
+        <v>3000</v>
       </c>
       <c r="J24" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="K24" s="3">
         <v>23600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-64500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1545,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>382300</v>
+        <v>-42600</v>
       </c>
       <c r="E26" s="3">
-        <v>-143500</v>
+        <v>360100</v>
       </c>
       <c r="F26" s="3">
-        <v>87600</v>
+        <v>-135200</v>
       </c>
       <c r="G26" s="3">
-        <v>-176400</v>
+        <v>82500</v>
       </c>
       <c r="H26" s="3">
+        <v>-166100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-353200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-332700</v>
+      </c>
+      <c r="K26" s="3">
         <v>59000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-77200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>91200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-36900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-223200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>380500</v>
+        <v>-43200</v>
       </c>
       <c r="E27" s="3">
-        <v>-145400</v>
+        <v>358400</v>
       </c>
       <c r="F27" s="3">
-        <v>87600</v>
+        <v>-136900</v>
       </c>
       <c r="G27" s="3">
-        <v>-176400</v>
+        <v>82500</v>
       </c>
       <c r="H27" s="3">
+        <v>-166100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-353200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-332700</v>
+      </c>
+      <c r="K27" s="3">
         <v>59000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-77200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>91200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>93500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-30500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-36900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-223200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1695,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1684,8 +1745,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,102 +1845,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
-        <v>3100</v>
-      </c>
       <c r="F32" s="3">
-        <v>9500</v>
+        <v>2900</v>
       </c>
       <c r="G32" s="3">
-        <v>10900</v>
+        <v>9000</v>
       </c>
       <c r="H32" s="3">
-        <v>8400</v>
+        <v>10200</v>
       </c>
       <c r="I32" s="3">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="J32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>380500</v>
+        <v>-43200</v>
       </c>
       <c r="E33" s="3">
-        <v>-145400</v>
+        <v>358400</v>
       </c>
       <c r="F33" s="3">
-        <v>87600</v>
+        <v>-136900</v>
       </c>
       <c r="G33" s="3">
-        <v>-176400</v>
+        <v>82500</v>
       </c>
       <c r="H33" s="3">
+        <v>-166100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-353200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-332700</v>
+      </c>
+      <c r="K33" s="3">
         <v>59000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-77200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>91200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>93500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-30500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-36900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-223200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1995,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>380500</v>
+        <v>-43200</v>
       </c>
       <c r="E35" s="3">
-        <v>-145400</v>
+        <v>358400</v>
       </c>
       <c r="F35" s="3">
-        <v>87600</v>
+        <v>-136900</v>
       </c>
       <c r="G35" s="3">
-        <v>-176400</v>
+        <v>82500</v>
       </c>
       <c r="H35" s="3">
+        <v>-166100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-353200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-332700</v>
+      </c>
+      <c r="K35" s="3">
         <v>59000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-77200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>91200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>93500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-30500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-36900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-223200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,55 +2142,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>277400</v>
+        <v>174600</v>
       </c>
       <c r="E41" s="3">
-        <v>418200</v>
+        <v>261200</v>
       </c>
       <c r="F41" s="3">
-        <v>82200</v>
+        <v>393800</v>
       </c>
       <c r="G41" s="3">
-        <v>65300</v>
+        <v>77400</v>
       </c>
       <c r="H41" s="3">
-        <v>91300</v>
+        <v>61500</v>
       </c>
       <c r="I41" s="3">
-        <v>46400</v>
+        <v>86000</v>
       </c>
       <c r="J41" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K41" s="3">
         <v>69400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>60000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>105300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>75600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,137 +2240,146 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>97700</v>
+        <v>102300</v>
       </c>
       <c r="E43" s="3">
-        <v>86000</v>
+        <v>92000</v>
       </c>
       <c r="F43" s="3">
-        <v>86200</v>
+        <v>81000</v>
       </c>
       <c r="G43" s="3">
-        <v>70000</v>
+        <v>81200</v>
       </c>
       <c r="H43" s="3">
-        <v>78100</v>
+        <v>65900</v>
       </c>
       <c r="I43" s="3">
-        <v>74900</v>
+        <v>73600</v>
       </c>
       <c r="J43" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K43" s="3">
         <v>65300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>45900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>144700</v>
+        <v>157500</v>
       </c>
       <c r="E44" s="3">
-        <v>159300</v>
+        <v>136200</v>
       </c>
       <c r="F44" s="3">
-        <v>128500</v>
+        <v>150000</v>
       </c>
       <c r="G44" s="3">
-        <v>129400</v>
+        <v>121000</v>
       </c>
       <c r="H44" s="3">
-        <v>118100</v>
+        <v>121900</v>
       </c>
       <c r="I44" s="3">
-        <v>115700</v>
+        <v>111200</v>
       </c>
       <c r="J44" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K44" s="3">
         <v>90100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>73900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>95800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>78300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>86400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>89400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>91500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52000</v>
+        <v>95300</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>48900</v>
       </c>
       <c r="F45" s="3">
-        <v>38900</v>
+        <v>5000</v>
       </c>
       <c r="G45" s="3">
-        <v>23200</v>
+        <v>36600</v>
       </c>
       <c r="H45" s="3">
-        <v>16200</v>
+        <v>21900</v>
       </c>
       <c r="I45" s="3">
-        <v>38000</v>
+        <v>15300</v>
       </c>
       <c r="J45" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K45" s="3">
         <v>107300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>102200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1100</v>
       </c>
       <c r="O45" s="3">
         <v>1100</v>
@@ -2289,198 +2388,213 @@
         <v>1100</v>
       </c>
       <c r="Q45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>571700</v>
+        <v>529700</v>
       </c>
       <c r="E46" s="3">
-        <v>668700</v>
+        <v>538400</v>
       </c>
       <c r="F46" s="3">
-        <v>335800</v>
+        <v>629800</v>
       </c>
       <c r="G46" s="3">
-        <v>287900</v>
+        <v>316300</v>
       </c>
       <c r="H46" s="3">
-        <v>303800</v>
+        <v>271200</v>
       </c>
       <c r="I46" s="3">
-        <v>275000</v>
+        <v>286100</v>
       </c>
       <c r="J46" s="3">
+        <v>259000</v>
+      </c>
+      <c r="K46" s="3">
         <v>332100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>323500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>307200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>232800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>193400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>251300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>223200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34900</v>
+        <v>28400</v>
       </c>
       <c r="E47" s="3">
-        <v>35100</v>
+        <v>32900</v>
       </c>
       <c r="F47" s="3">
-        <v>31200</v>
+        <v>33100</v>
       </c>
       <c r="G47" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="H47" s="3">
-        <v>43000</v>
+        <v>27500</v>
       </c>
       <c r="I47" s="3">
-        <v>22900</v>
+        <v>40500</v>
       </c>
       <c r="J47" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K47" s="3">
         <v>21300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>6000</v>
       </c>
       <c r="P47" s="3">
         <v>6000</v>
       </c>
       <c r="Q47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2314100</v>
+        <v>2081300</v>
       </c>
       <c r="E48" s="3">
-        <v>1919900</v>
+        <v>2179400</v>
       </c>
       <c r="F48" s="3">
-        <v>1855600</v>
+        <v>1808100</v>
       </c>
       <c r="G48" s="3">
-        <v>1825300</v>
+        <v>1747500</v>
       </c>
       <c r="H48" s="3">
-        <v>2068400</v>
+        <v>1719100</v>
       </c>
       <c r="I48" s="3">
-        <v>2039200</v>
+        <v>1948000</v>
       </c>
       <c r="J48" s="3">
+        <v>1920500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2036200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1969700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1816300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2007600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2063100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2111000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2092600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35700</v>
+        <v>22600</v>
       </c>
       <c r="E49" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="F49" s="3">
-        <v>35100</v>
+        <v>33200</v>
       </c>
       <c r="G49" s="3">
-        <v>35100</v>
+        <v>33100</v>
       </c>
       <c r="H49" s="3">
-        <v>33900</v>
+        <v>33000</v>
       </c>
       <c r="I49" s="3">
-        <v>33900</v>
+        <v>31900</v>
       </c>
       <c r="J49" s="3">
-        <v>39500</v>
+        <v>31900</v>
       </c>
       <c r="K49" s="3">
         <v>39500</v>
       </c>
       <c r="L49" s="3">
+        <v>39500</v>
+      </c>
+      <c r="M49" s="3">
         <v>51200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>58400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,55 +2690,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>397400</v>
+        <v>361300</v>
       </c>
       <c r="E52" s="3">
-        <v>280900</v>
+        <v>374300</v>
       </c>
       <c r="F52" s="3">
-        <v>245500</v>
+        <v>264500</v>
       </c>
       <c r="G52" s="3">
-        <v>239000</v>
+        <v>231200</v>
       </c>
       <c r="H52" s="3">
-        <v>237700</v>
+        <v>225100</v>
       </c>
       <c r="I52" s="3">
-        <v>228800</v>
+        <v>223800</v>
       </c>
       <c r="J52" s="3">
+        <v>215500</v>
+      </c>
+      <c r="K52" s="3">
         <v>209700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>201000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>197000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>174100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>173100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>176800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>174800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2790,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3353900</v>
+        <v>3023300</v>
       </c>
       <c r="E54" s="3">
-        <v>2939800</v>
+        <v>3158600</v>
       </c>
       <c r="F54" s="3">
-        <v>2503200</v>
+        <v>2768700</v>
       </c>
       <c r="G54" s="3">
-        <v>2416500</v>
+        <v>2357400</v>
       </c>
       <c r="H54" s="3">
-        <v>2669700</v>
+        <v>2275800</v>
       </c>
       <c r="I54" s="3">
-        <v>2599800</v>
+        <v>2514200</v>
       </c>
       <c r="J54" s="3">
+        <v>2448400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2638800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2549200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2382900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2484700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2495800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2607500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2559200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>230400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,137 +2882,144 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>271300</v>
+        <v>271900</v>
       </c>
       <c r="E57" s="3">
-        <v>197700</v>
+        <v>255500</v>
       </c>
       <c r="F57" s="3">
-        <v>192400</v>
+        <v>186200</v>
       </c>
       <c r="G57" s="3">
-        <v>189100</v>
+        <v>181200</v>
       </c>
       <c r="H57" s="3">
-        <v>193900</v>
+        <v>178100</v>
       </c>
       <c r="I57" s="3">
-        <v>177900</v>
+        <v>182600</v>
       </c>
       <c r="J57" s="3">
+        <v>167500</v>
+      </c>
+      <c r="K57" s="3">
         <v>148500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>131800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>125100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>113500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>112500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>129600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>117600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="E58" s="3">
-        <v>16800</v>
+        <v>24200</v>
       </c>
       <c r="F58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>45400</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>42700</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>120200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>20100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20500</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>144200</v>
+        <v>48100</v>
       </c>
       <c r="E59" s="3">
-        <v>282800</v>
+        <v>135800</v>
       </c>
       <c r="F59" s="3">
-        <v>46400</v>
+        <v>266300</v>
       </c>
       <c r="G59" s="3">
-        <v>17800</v>
+        <v>43700</v>
       </c>
       <c r="H59" s="3">
-        <v>19900</v>
+        <v>16700</v>
       </c>
       <c r="I59" s="3">
-        <v>13500</v>
+        <v>18800</v>
       </c>
       <c r="J59" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -2893,149 +3030,161 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>441200</v>
+        <v>344000</v>
       </c>
       <c r="E60" s="3">
-        <v>497300</v>
+        <v>415500</v>
       </c>
       <c r="F60" s="3">
-        <v>244500</v>
+        <v>468300</v>
       </c>
       <c r="G60" s="3">
-        <v>212700</v>
+        <v>230300</v>
       </c>
       <c r="H60" s="3">
-        <v>219800</v>
+        <v>200300</v>
       </c>
       <c r="I60" s="3">
-        <v>236700</v>
+        <v>207000</v>
       </c>
       <c r="J60" s="3">
+        <v>223000</v>
+      </c>
+      <c r="K60" s="3">
         <v>150200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>252000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>129000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>136300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>133100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>129700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>117600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>289900</v>
+        <v>184200</v>
       </c>
       <c r="E61" s="3">
-        <v>490900</v>
+        <v>273000</v>
       </c>
       <c r="F61" s="3">
-        <v>358800</v>
+        <v>462300</v>
       </c>
       <c r="G61" s="3">
-        <v>383200</v>
+        <v>337900</v>
       </c>
       <c r="H61" s="3">
-        <v>386200</v>
+        <v>360900</v>
       </c>
       <c r="I61" s="3">
-        <v>323900</v>
+        <v>363700</v>
       </c>
       <c r="J61" s="3">
+        <v>305000</v>
+      </c>
+      <c r="K61" s="3">
         <v>168800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>89200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>136800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>211900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>292400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>240700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>583000</v>
+        <v>561400</v>
       </c>
       <c r="E62" s="3">
-        <v>414000</v>
+        <v>549100</v>
       </c>
       <c r="F62" s="3">
-        <v>334900</v>
+        <v>389900</v>
       </c>
       <c r="G62" s="3">
-        <v>333000</v>
+        <v>315400</v>
       </c>
       <c r="H62" s="3">
-        <v>380200</v>
+        <v>313600</v>
       </c>
       <c r="I62" s="3">
-        <v>369600</v>
+        <v>358100</v>
       </c>
       <c r="J62" s="3">
+        <v>348000</v>
+      </c>
+      <c r="K62" s="3">
         <v>362800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>357200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>341500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>320800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>308500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>309400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>306200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,55 +3330,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1317000</v>
+        <v>1093000</v>
       </c>
       <c r="E66" s="3">
-        <v>1402500</v>
+        <v>1240300</v>
       </c>
       <c r="F66" s="3">
-        <v>937800</v>
+        <v>1320800</v>
       </c>
       <c r="G66" s="3">
-        <v>928900</v>
+        <v>883200</v>
       </c>
       <c r="H66" s="3">
-        <v>986200</v>
+        <v>874900</v>
       </c>
       <c r="I66" s="3">
-        <v>930200</v>
+        <v>928800</v>
       </c>
       <c r="J66" s="3">
+        <v>876000</v>
+      </c>
+      <c r="K66" s="3">
         <v>681800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>628900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>559600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>593900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>653500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>731500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>664600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3500,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3382,8 +3550,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3600,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-129600</v>
+        <v>-109900</v>
       </c>
       <c r="E72" s="3">
-        <v>-629300</v>
+        <v>-122000</v>
       </c>
       <c r="F72" s="3">
-        <v>-378500</v>
+        <v>-592600</v>
       </c>
       <c r="G72" s="3">
-        <v>-456300</v>
+        <v>-356500</v>
       </c>
       <c r="H72" s="3">
-        <v>-260400</v>
+        <v>-429700</v>
       </c>
       <c r="I72" s="3">
-        <v>-260400</v>
+        <v>-245300</v>
       </c>
       <c r="J72" s="3">
+        <v>-245200</v>
+      </c>
+      <c r="K72" s="3">
         <v>92900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>62600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>143600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-99000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-129900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-111300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3800,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2036900</v>
+        <v>1930400</v>
       </c>
       <c r="E76" s="3">
-        <v>1537300</v>
+        <v>1918300</v>
       </c>
       <c r="F76" s="3">
-        <v>1565400</v>
+        <v>1447800</v>
       </c>
       <c r="G76" s="3">
-        <v>1487500</v>
+        <v>1474200</v>
       </c>
       <c r="H76" s="3">
-        <v>1683400</v>
+        <v>1400900</v>
       </c>
       <c r="I76" s="3">
-        <v>1669600</v>
+        <v>1585400</v>
       </c>
       <c r="J76" s="3">
+        <v>1572400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1957000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1920300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1823300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1890800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1842300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1876000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1894600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3900,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>380500</v>
+        <v>-43200</v>
       </c>
       <c r="E81" s="3">
-        <v>-145400</v>
+        <v>358400</v>
       </c>
       <c r="F81" s="3">
-        <v>87600</v>
+        <v>-136900</v>
       </c>
       <c r="G81" s="3">
-        <v>-176400</v>
+        <v>82500</v>
       </c>
       <c r="H81" s="3">
+        <v>-166100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-353200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-332700</v>
+      </c>
+      <c r="K81" s="3">
         <v>59000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-77200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>91200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>93500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-30500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-36900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-223200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,8 +4027,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3876,8 +4075,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4325,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>380100</v>
+        <v>210600</v>
       </c>
       <c r="E89" s="3">
-        <v>130900</v>
+        <v>358000</v>
       </c>
       <c r="F89" s="3">
-        <v>179800</v>
+        <v>123300</v>
       </c>
       <c r="G89" s="3">
-        <v>133500</v>
+        <v>169300</v>
       </c>
       <c r="H89" s="3">
-        <v>174300</v>
+        <v>125700</v>
       </c>
       <c r="I89" s="3">
-        <v>135000</v>
+        <v>164200</v>
       </c>
       <c r="J89" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K89" s="3">
         <v>120500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>123900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>113500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>184600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>120800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>50900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>132800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,55 +4397,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-155600</v>
+        <v>-172000</v>
       </c>
       <c r="E91" s="3">
-        <v>-87600</v>
+        <v>-146600</v>
       </c>
       <c r="F91" s="3">
-        <v>-149300</v>
+        <v>-82500</v>
       </c>
       <c r="G91" s="3">
-        <v>-173300</v>
+        <v>-140600</v>
       </c>
       <c r="H91" s="3">
-        <v>-157900</v>
+        <v>-163200</v>
       </c>
       <c r="I91" s="3">
-        <v>-131400</v>
+        <v>-148700</v>
       </c>
       <c r="J91" s="3">
+        <v>-123700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-168700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-161000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-84900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-80100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-42100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-187500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,55 +4545,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-373000</v>
+        <v>-173100</v>
       </c>
       <c r="E94" s="3">
-        <v>-87800</v>
+        <v>-351300</v>
       </c>
       <c r="F94" s="3">
-        <v>-146200</v>
+        <v>-82700</v>
       </c>
       <c r="G94" s="3">
-        <v>-161600</v>
+        <v>-137700</v>
       </c>
       <c r="H94" s="3">
-        <v>-154000</v>
+        <v>-152100</v>
       </c>
       <c r="I94" s="3">
-        <v>-361200</v>
+        <v>-145000</v>
       </c>
       <c r="J94" s="3">
+        <v>-340200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-170000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-158300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-96200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-79800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-192100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4617,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4408,17 +4642,17 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-10100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4431,8 +4665,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,145 +4815,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-142300</v>
+        <v>-132300</v>
       </c>
       <c r="E100" s="3">
-        <v>301900</v>
+        <v>-134100</v>
       </c>
       <c r="F100" s="3">
-        <v>-18700</v>
+        <v>284400</v>
       </c>
       <c r="G100" s="3">
-        <v>1900</v>
+        <v>-17700</v>
       </c>
       <c r="H100" s="3">
-        <v>23100</v>
+        <v>1800</v>
       </c>
       <c r="I100" s="3">
-        <v>208400</v>
+        <v>21700</v>
       </c>
       <c r="J100" s="3">
+        <v>196300</v>
+      </c>
+      <c r="K100" s="3">
         <v>36500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>31300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-56000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5600</v>
+        <v>8100</v>
       </c>
       <c r="E101" s="3">
-        <v>-9100</v>
+        <v>-5300</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>-8500</v>
       </c>
       <c r="G101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
-        <v>-5100</v>
-      </c>
       <c r="J101" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-140800</v>
+        <v>-86600</v>
       </c>
       <c r="E102" s="3">
-        <v>335900</v>
+        <v>-132600</v>
       </c>
       <c r="F102" s="3">
-        <v>16900</v>
+        <v>316400</v>
       </c>
       <c r="G102" s="3">
-        <v>-26000</v>
+        <v>15900</v>
       </c>
       <c r="H102" s="3">
-        <v>44900</v>
+        <v>-24500</v>
       </c>
       <c r="I102" s="3">
-        <v>-23000</v>
+        <v>42200</v>
       </c>
       <c r="J102" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>29700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-45900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>HMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,234 +665,247 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1248000</v>
+        <v>1457300</v>
       </c>
       <c r="E8" s="3">
         <v>1337400</v>
       </c>
       <c r="F8" s="3">
-        <v>852900</v>
+        <v>1433200</v>
       </c>
       <c r="G8" s="3">
-        <v>958800</v>
+        <v>914100</v>
       </c>
       <c r="H8" s="3">
-        <v>813000</v>
+        <v>1027500</v>
       </c>
       <c r="I8" s="3">
-        <v>854200</v>
+        <v>871200</v>
       </c>
       <c r="J8" s="3">
+        <v>915500</v>
+      </c>
+      <c r="K8" s="3">
         <v>655200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>649600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>616000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>585000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>646000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>596800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>293200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>273400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1069400</v>
+        <v>1259900</v>
       </c>
       <c r="E9" s="3">
-        <v>1039000</v>
+        <v>1146000</v>
       </c>
       <c r="F9" s="3">
-        <v>767900</v>
+        <v>1117400</v>
       </c>
       <c r="G9" s="3">
-        <v>834600</v>
+        <v>823000</v>
       </c>
       <c r="H9" s="3">
-        <v>741700</v>
+        <v>894400</v>
       </c>
       <c r="I9" s="3">
-        <v>790900</v>
+        <v>794800</v>
       </c>
       <c r="J9" s="3">
+        <v>847600</v>
+      </c>
+      <c r="K9" s="3">
         <v>583700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>567700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>579700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>533800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>524900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>547700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>289500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>270700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>178600</v>
+        <v>197400</v>
       </c>
       <c r="E10" s="3">
-        <v>298400</v>
+        <v>191400</v>
       </c>
       <c r="F10" s="3">
-        <v>85000</v>
+        <v>315800</v>
       </c>
       <c r="G10" s="3">
-        <v>124200</v>
+        <v>91100</v>
       </c>
       <c r="H10" s="3">
-        <v>71300</v>
+        <v>133100</v>
       </c>
       <c r="I10" s="3">
-        <v>63300</v>
+        <v>76400</v>
       </c>
       <c r="J10" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K10" s="3">
         <v>71600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>121100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,58 +924,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6300</v>
+        <v>6700</v>
       </c>
       <c r="E12" s="3">
-        <v>4700</v>
+        <v>6700</v>
       </c>
       <c r="F12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="3">
         <v>4800</v>
       </c>
-      <c r="G12" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1011,58 +1028,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>139300</v>
+        <v>18200</v>
       </c>
       <c r="E14" s="3">
-        <v>-55200</v>
+        <v>149200</v>
       </c>
       <c r="F14" s="3">
-        <v>5900</v>
+        <v>-2700</v>
       </c>
       <c r="G14" s="3">
-        <v>1600</v>
+        <v>6300</v>
       </c>
       <c r="H14" s="3">
-        <v>242600</v>
+        <v>1700</v>
       </c>
       <c r="I14" s="3">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="J14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K14" s="3">
         <v>329500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>114400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-45900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>249300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1111,8 +1134,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1128,108 +1154,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1246600</v>
+        <v>1346500</v>
       </c>
       <c r="E17" s="3">
-        <v>928100</v>
+        <v>1335900</v>
       </c>
       <c r="F17" s="3">
-        <v>979100</v>
+        <v>1055700</v>
       </c>
       <c r="G17" s="3">
-        <v>857600</v>
+        <v>1049300</v>
       </c>
       <c r="H17" s="3">
-        <v>980500</v>
+        <v>919000</v>
       </c>
       <c r="I17" s="3">
-        <v>844600</v>
+        <v>1050800</v>
       </c>
       <c r="J17" s="3">
+        <v>905100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1021500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>573700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>758500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>466400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>513000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>623000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>330900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>535400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1400</v>
+        <v>110900</v>
       </c>
       <c r="E18" s="3">
-        <v>409200</v>
+        <v>1500</v>
       </c>
       <c r="F18" s="3">
-        <v>-126200</v>
+        <v>377600</v>
       </c>
       <c r="G18" s="3">
-        <v>101200</v>
+        <v>-135200</v>
       </c>
       <c r="H18" s="3">
-        <v>-167500</v>
+        <v>108500</v>
       </c>
       <c r="I18" s="3">
-        <v>9700</v>
+        <v>-179500</v>
       </c>
       <c r="J18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-366200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-142500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>118600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>133000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-37700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-262000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1248,87 +1281,91 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-13900</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1400</v>
+        <v>-14900</v>
       </c>
       <c r="F20" s="3">
-        <v>-2900</v>
+        <v>6100</v>
       </c>
       <c r="G20" s="3">
-        <v>-9000</v>
+        <v>-3100</v>
       </c>
       <c r="H20" s="3">
-        <v>-10200</v>
+        <v>-9600</v>
       </c>
       <c r="I20" s="3">
-        <v>-7900</v>
+        <v>-11000</v>
       </c>
       <c r="J20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2500</v>
+        <v>233400</v>
       </c>
       <c r="E21" s="3">
-        <v>520400</v>
+        <v>2700</v>
       </c>
       <c r="F21" s="3">
-        <v>-144200</v>
+        <v>504200</v>
       </c>
       <c r="G21" s="3">
-        <v>211600</v>
+        <v>-154600</v>
       </c>
       <c r="H21" s="3">
-        <v>-178200</v>
+        <v>226700</v>
       </c>
       <c r="I21" s="3">
-        <v>133100</v>
+        <v>-191000</v>
       </c>
       <c r="J21" s="3">
+        <v>142600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-365400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>165000</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
@@ -1336,43 +1373,46 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>45400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-222400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>8300</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1398,108 +1438,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12500</v>
+        <v>108700</v>
       </c>
       <c r="E23" s="3">
-        <v>407900</v>
+        <v>-13400</v>
       </c>
       <c r="F23" s="3">
-        <v>-129100</v>
+        <v>375400</v>
       </c>
       <c r="G23" s="3">
-        <v>92200</v>
+        <v>-138400</v>
       </c>
       <c r="H23" s="3">
-        <v>-177700</v>
+        <v>98900</v>
       </c>
       <c r="I23" s="3">
-        <v>1800</v>
+        <v>-190500</v>
       </c>
       <c r="J23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-369400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>82600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-141700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>119300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>134500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-263000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30100</v>
+        <v>15500</v>
       </c>
       <c r="E24" s="3">
-        <v>47800</v>
+        <v>32300</v>
       </c>
       <c r="F24" s="3">
-        <v>6100</v>
+        <v>70000</v>
       </c>
       <c r="G24" s="3">
-        <v>9700</v>
+        <v>6500</v>
       </c>
       <c r="H24" s="3">
-        <v>-11600</v>
+        <v>10400</v>
       </c>
       <c r="I24" s="3">
-        <v>3000</v>
+        <v>-12400</v>
       </c>
       <c r="J24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-36700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-64500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-39800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,108 +1597,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42600</v>
+        <v>93200</v>
       </c>
       <c r="E26" s="3">
-        <v>360100</v>
+        <v>-45700</v>
       </c>
       <c r="F26" s="3">
-        <v>-135200</v>
+        <v>305400</v>
       </c>
       <c r="G26" s="3">
-        <v>82500</v>
+        <v>-144900</v>
       </c>
       <c r="H26" s="3">
-        <v>-166100</v>
+        <v>88400</v>
       </c>
       <c r="I26" s="3">
-        <v>-1200</v>
+        <v>-178100</v>
       </c>
       <c r="J26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-332700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-77200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>91200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-223200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-43200</v>
+        <v>92100</v>
       </c>
       <c r="E27" s="3">
-        <v>358400</v>
+        <v>-46300</v>
       </c>
       <c r="F27" s="3">
-        <v>-136900</v>
+        <v>303600</v>
       </c>
       <c r="G27" s="3">
-        <v>82500</v>
+        <v>-146700</v>
       </c>
       <c r="H27" s="3">
-        <v>-166100</v>
+        <v>88400</v>
       </c>
       <c r="I27" s="3">
-        <v>-1200</v>
+        <v>-178100</v>
       </c>
       <c r="J27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-332700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-77200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>91200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>93500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-30500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-223200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1698,8 +1756,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1748,8 +1809,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1862,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1848,108 +1915,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13900</v>
+        <v>-2300</v>
       </c>
       <c r="E32" s="3">
-        <v>1400</v>
+        <v>14900</v>
       </c>
       <c r="F32" s="3">
-        <v>2900</v>
+        <v>-6100</v>
       </c>
       <c r="G32" s="3">
-        <v>9000</v>
+        <v>3100</v>
       </c>
       <c r="H32" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="I32" s="3">
-        <v>7900</v>
+        <v>11000</v>
       </c>
       <c r="J32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-43200</v>
+        <v>92100</v>
       </c>
       <c r="E33" s="3">
-        <v>358400</v>
+        <v>-46300</v>
       </c>
       <c r="F33" s="3">
-        <v>-136900</v>
+        <v>303600</v>
       </c>
       <c r="G33" s="3">
-        <v>82500</v>
+        <v>-146700</v>
       </c>
       <c r="H33" s="3">
-        <v>-166100</v>
+        <v>88400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1200</v>
+        <v>-178100</v>
       </c>
       <c r="J33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-332700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-77200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>91200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>93500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-30500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-223200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1998,113 +2074,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-43200</v>
+        <v>92100</v>
       </c>
       <c r="E35" s="3">
-        <v>358400</v>
+        <v>-46300</v>
       </c>
       <c r="F35" s="3">
-        <v>-136900</v>
+        <v>303600</v>
       </c>
       <c r="G35" s="3">
-        <v>82500</v>
+        <v>-146700</v>
       </c>
       <c r="H35" s="3">
-        <v>-166100</v>
+        <v>88400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1200</v>
+        <v>-178100</v>
       </c>
       <c r="J35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-332700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-77200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>91200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>93500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-30500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-223200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2123,8 +2208,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2143,58 +2229,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>174600</v>
+        <v>195200</v>
       </c>
       <c r="E41" s="3">
-        <v>261200</v>
+        <v>187200</v>
       </c>
       <c r="F41" s="3">
-        <v>393800</v>
+        <v>280000</v>
       </c>
       <c r="G41" s="3">
-        <v>77400</v>
+        <v>422000</v>
       </c>
       <c r="H41" s="3">
-        <v>61500</v>
+        <v>83000</v>
       </c>
       <c r="I41" s="3">
-        <v>86000</v>
+        <v>65900</v>
       </c>
       <c r="J41" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K41" s="3">
         <v>43700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>81700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>60000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>105300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>75600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2243,146 +2333,155 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>102300</v>
+        <v>125100</v>
       </c>
       <c r="E43" s="3">
-        <v>92000</v>
+        <v>109700</v>
       </c>
       <c r="F43" s="3">
-        <v>81000</v>
+        <v>98600</v>
       </c>
       <c r="G43" s="3">
-        <v>81200</v>
+        <v>86800</v>
       </c>
       <c r="H43" s="3">
-        <v>65900</v>
+        <v>87000</v>
       </c>
       <c r="I43" s="3">
-        <v>73600</v>
+        <v>70600</v>
       </c>
       <c r="J43" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K43" s="3">
         <v>70600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>48600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>45900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>157500</v>
+        <v>148000</v>
       </c>
       <c r="E44" s="3">
-        <v>136200</v>
+        <v>168800</v>
       </c>
       <c r="F44" s="3">
-        <v>150000</v>
+        <v>146000</v>
       </c>
       <c r="G44" s="3">
-        <v>121000</v>
+        <v>160700</v>
       </c>
       <c r="H44" s="3">
-        <v>121900</v>
+        <v>129700</v>
       </c>
       <c r="I44" s="3">
-        <v>111200</v>
+        <v>130600</v>
       </c>
       <c r="J44" s="3">
+        <v>119200</v>
+      </c>
+      <c r="K44" s="3">
         <v>109000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>90100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>73900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>95800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>78300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>86400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>89400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>91500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>95300</v>
+        <v>44200</v>
       </c>
       <c r="E45" s="3">
-        <v>48900</v>
+        <v>102100</v>
       </c>
       <c r="F45" s="3">
-        <v>5000</v>
+        <v>52400</v>
       </c>
       <c r="G45" s="3">
-        <v>36600</v>
+        <v>5300</v>
       </c>
       <c r="H45" s="3">
-        <v>21900</v>
+        <v>39200</v>
       </c>
       <c r="I45" s="3">
-        <v>15300</v>
+        <v>23400</v>
       </c>
       <c r="J45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K45" s="3">
         <v>35700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>102200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1100</v>
       </c>
       <c r="P45" s="3">
         <v>1100</v>
@@ -2391,210 +2490,225 @@
         <v>1100</v>
       </c>
       <c r="R45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>529700</v>
+        <v>512500</v>
       </c>
       <c r="E46" s="3">
-        <v>538400</v>
+        <v>567700</v>
       </c>
       <c r="F46" s="3">
-        <v>629800</v>
+        <v>577000</v>
       </c>
       <c r="G46" s="3">
-        <v>316300</v>
+        <v>674900</v>
       </c>
       <c r="H46" s="3">
-        <v>271200</v>
+        <v>338900</v>
       </c>
       <c r="I46" s="3">
-        <v>286100</v>
+        <v>290600</v>
       </c>
       <c r="J46" s="3">
+        <v>306600</v>
+      </c>
+      <c r="K46" s="3">
         <v>259000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>332100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>323500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>307200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>232800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>193400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>251300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>223200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28400</v>
+        <v>29500</v>
       </c>
       <c r="E47" s="3">
-        <v>32900</v>
+        <v>30400</v>
       </c>
       <c r="F47" s="3">
-        <v>33100</v>
+        <v>38400</v>
       </c>
       <c r="G47" s="3">
-        <v>29400</v>
+        <v>35500</v>
       </c>
       <c r="H47" s="3">
-        <v>27500</v>
+        <v>31500</v>
       </c>
       <c r="I47" s="3">
-        <v>40500</v>
+        <v>29500</v>
       </c>
       <c r="J47" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K47" s="3">
         <v>21600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6100</v>
-      </c>
-      <c r="P47" s="3">
-        <v>6000</v>
       </c>
       <c r="Q47" s="3">
         <v>6000</v>
       </c>
       <c r="R47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2081300</v>
+        <v>2374100</v>
       </c>
       <c r="E48" s="3">
-        <v>2179400</v>
+        <v>2230500</v>
       </c>
       <c r="F48" s="3">
-        <v>1808100</v>
+        <v>2297000</v>
       </c>
       <c r="G48" s="3">
-        <v>1747500</v>
+        <v>1937700</v>
       </c>
       <c r="H48" s="3">
-        <v>1719100</v>
+        <v>1872800</v>
       </c>
       <c r="I48" s="3">
-        <v>1948000</v>
+        <v>1842300</v>
       </c>
       <c r="J48" s="3">
+        <v>2087600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1920500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2036200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1969700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1816300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2007600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2063100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2111000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2092600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22600</v>
+        <v>23200</v>
       </c>
       <c r="E49" s="3">
-        <v>33600</v>
+        <v>24200</v>
       </c>
       <c r="F49" s="3">
-        <v>33200</v>
+        <v>36000</v>
       </c>
       <c r="G49" s="3">
-        <v>33100</v>
+        <v>35600</v>
       </c>
       <c r="H49" s="3">
-        <v>33000</v>
+        <v>35500</v>
       </c>
       <c r="I49" s="3">
+        <v>35400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K49" s="3">
         <v>31900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>31900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>39500</v>
       </c>
       <c r="L49" s="3">
         <v>39500</v>
       </c>
       <c r="M49" s="3">
+        <v>39500</v>
+      </c>
+      <c r="N49" s="3">
         <v>51200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>58400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>62700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2643,8 +2757,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2693,58 +2810,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>361300</v>
+        <v>382500</v>
       </c>
       <c r="E52" s="3">
-        <v>374300</v>
+        <v>387200</v>
       </c>
       <c r="F52" s="3">
-        <v>264500</v>
+        <v>421600</v>
       </c>
       <c r="G52" s="3">
-        <v>231200</v>
+        <v>283500</v>
       </c>
       <c r="H52" s="3">
-        <v>225100</v>
+        <v>247800</v>
       </c>
       <c r="I52" s="3">
-        <v>223800</v>
+        <v>241200</v>
       </c>
       <c r="J52" s="3">
+        <v>239900</v>
+      </c>
+      <c r="K52" s="3">
         <v>215500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>209700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>201000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>197000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>174100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>173100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>176800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>174800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2793,58 +2916,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3023300</v>
+        <v>3321800</v>
       </c>
       <c r="E54" s="3">
-        <v>3158600</v>
+        <v>3240000</v>
       </c>
       <c r="F54" s="3">
-        <v>2768700</v>
+        <v>3357700</v>
       </c>
       <c r="G54" s="3">
-        <v>2357400</v>
+        <v>2967100</v>
       </c>
       <c r="H54" s="3">
-        <v>2275800</v>
+        <v>2526400</v>
       </c>
       <c r="I54" s="3">
-        <v>2514200</v>
+        <v>2438900</v>
       </c>
       <c r="J54" s="3">
+        <v>2694400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2448400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2638800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2549200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2382900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2484700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2495800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2607500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2559200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>230400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2863,8 +2992,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2883,146 +3013,153 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>271900</v>
+        <v>278600</v>
       </c>
       <c r="E57" s="3">
-        <v>255500</v>
+        <v>291400</v>
       </c>
       <c r="F57" s="3">
-        <v>186200</v>
+        <v>260500</v>
       </c>
       <c r="G57" s="3">
-        <v>181200</v>
+        <v>199600</v>
       </c>
       <c r="H57" s="3">
-        <v>178100</v>
+        <v>194200</v>
       </c>
       <c r="I57" s="3">
-        <v>182600</v>
+        <v>190900</v>
       </c>
       <c r="J57" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K57" s="3">
         <v>167500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>148500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>131800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>125100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>113500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>112500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>129600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>117600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24000</v>
+        <v>24800</v>
       </c>
       <c r="E58" s="3">
-        <v>24200</v>
+        <v>25700</v>
       </c>
       <c r="F58" s="3">
-        <v>15800</v>
+        <v>25900</v>
       </c>
       <c r="G58" s="3">
-        <v>5300</v>
+        <v>16900</v>
       </c>
       <c r="H58" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="I58" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="J58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K58" s="3">
         <v>42700</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>120200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>20100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20500</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48100</v>
+        <v>39400</v>
       </c>
       <c r="E59" s="3">
-        <v>135800</v>
+        <v>51600</v>
       </c>
       <c r="F59" s="3">
-        <v>266300</v>
+        <v>145500</v>
       </c>
       <c r="G59" s="3">
-        <v>43700</v>
+        <v>285400</v>
       </c>
       <c r="H59" s="3">
-        <v>16700</v>
+        <v>46900</v>
       </c>
       <c r="I59" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="J59" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K59" s="3">
         <v>12700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3033,158 +3170,170 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>344000</v>
+        <v>342800</v>
       </c>
       <c r="E60" s="3">
-        <v>415500</v>
+        <v>368700</v>
       </c>
       <c r="F60" s="3">
-        <v>468300</v>
+        <v>431900</v>
       </c>
       <c r="G60" s="3">
-        <v>230300</v>
+        <v>501900</v>
       </c>
       <c r="H60" s="3">
-        <v>200300</v>
+        <v>246800</v>
       </c>
       <c r="I60" s="3">
-        <v>207000</v>
+        <v>214700</v>
       </c>
       <c r="J60" s="3">
+        <v>221900</v>
+      </c>
+      <c r="K60" s="3">
         <v>223000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>150200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>252000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>129000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>136300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>133100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>129700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>117600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>184200</v>
+        <v>211000</v>
       </c>
       <c r="E61" s="3">
-        <v>273000</v>
+        <v>197400</v>
       </c>
       <c r="F61" s="3">
-        <v>462300</v>
+        <v>292600</v>
       </c>
       <c r="G61" s="3">
-        <v>337900</v>
+        <v>495500</v>
       </c>
       <c r="H61" s="3">
-        <v>360900</v>
+        <v>362100</v>
       </c>
       <c r="I61" s="3">
-        <v>363700</v>
+        <v>386800</v>
       </c>
       <c r="J61" s="3">
+        <v>389800</v>
+      </c>
+      <c r="K61" s="3">
         <v>305000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>168800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>89200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>136800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>211900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>292400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>240700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>561400</v>
+        <v>606800</v>
       </c>
       <c r="E62" s="3">
-        <v>549100</v>
+        <v>601600</v>
       </c>
       <c r="F62" s="3">
-        <v>389900</v>
+        <v>714000</v>
       </c>
       <c r="G62" s="3">
-        <v>315400</v>
+        <v>417900</v>
       </c>
       <c r="H62" s="3">
-        <v>313600</v>
+        <v>338000</v>
       </c>
       <c r="I62" s="3">
-        <v>358100</v>
+        <v>336100</v>
       </c>
       <c r="J62" s="3">
+        <v>383700</v>
+      </c>
+      <c r="K62" s="3">
         <v>348000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>362800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>357200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>341500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>320800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>308500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>309400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>306200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3382,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +3435,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3333,58 +3488,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1093000</v>
+        <v>1164900</v>
       </c>
       <c r="E66" s="3">
-        <v>1240300</v>
+        <v>1171300</v>
       </c>
       <c r="F66" s="3">
-        <v>1320800</v>
+        <v>1382400</v>
       </c>
       <c r="G66" s="3">
-        <v>883200</v>
+        <v>1415500</v>
       </c>
       <c r="H66" s="3">
-        <v>874900</v>
+        <v>946500</v>
       </c>
       <c r="I66" s="3">
-        <v>928800</v>
+        <v>937600</v>
       </c>
       <c r="J66" s="3">
+        <v>995400</v>
+      </c>
+      <c r="K66" s="3">
         <v>876000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>681800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>628900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>559600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>593900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>653500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>731500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>664600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3403,8 +3564,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3453,8 +3615,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3503,8 +3668,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3553,8 +3721,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3603,58 +3774,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-109900</v>
+        <v>-29500</v>
       </c>
       <c r="E72" s="3">
-        <v>-122000</v>
+        <v>-117800</v>
       </c>
       <c r="F72" s="3">
-        <v>-592600</v>
+        <v>-211300</v>
       </c>
       <c r="G72" s="3">
-        <v>-356500</v>
+        <v>-635100</v>
       </c>
       <c r="H72" s="3">
-        <v>-429700</v>
+        <v>-382000</v>
       </c>
       <c r="I72" s="3">
-        <v>-245300</v>
+        <v>-460500</v>
       </c>
       <c r="J72" s="3">
+        <v>-262800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-245200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>92900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>62600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>143600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-99000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-129900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-111300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +3880,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3753,8 +3933,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3803,58 +3986,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1930400</v>
+        <v>2156900</v>
       </c>
       <c r="E76" s="3">
-        <v>1918300</v>
+        <v>2068700</v>
       </c>
       <c r="F76" s="3">
-        <v>1447800</v>
+        <v>1975300</v>
       </c>
       <c r="G76" s="3">
-        <v>1474200</v>
+        <v>1551600</v>
       </c>
       <c r="H76" s="3">
-        <v>1400900</v>
+        <v>1579900</v>
       </c>
       <c r="I76" s="3">
-        <v>1585400</v>
+        <v>1501300</v>
       </c>
       <c r="J76" s="3">
+        <v>1699100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1572400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1957000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1920300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1823300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1890800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1842300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1876000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1894600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3903,113 +4092,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-43200</v>
+        <v>92100</v>
       </c>
       <c r="E81" s="3">
-        <v>358400</v>
+        <v>-46300</v>
       </c>
       <c r="F81" s="3">
-        <v>-136900</v>
+        <v>303600</v>
       </c>
       <c r="G81" s="3">
-        <v>82500</v>
+        <v>-146700</v>
       </c>
       <c r="H81" s="3">
-        <v>-166100</v>
+        <v>88400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1200</v>
+        <v>-178100</v>
       </c>
       <c r="J81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-332700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-77200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>91200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>93500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-30500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-223200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4028,8 +4226,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4078,8 +4277,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4128,8 +4330,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4178,8 +4383,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4228,8 +4436,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,8 +4489,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4328,58 +4542,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>210600</v>
+        <v>2236100</v>
       </c>
       <c r="E89" s="3">
-        <v>358000</v>
+        <v>225700</v>
       </c>
       <c r="F89" s="3">
-        <v>123300</v>
+        <v>383700</v>
       </c>
       <c r="G89" s="3">
-        <v>169300</v>
+        <v>132100</v>
       </c>
       <c r="H89" s="3">
-        <v>125700</v>
+        <v>181400</v>
       </c>
       <c r="I89" s="3">
-        <v>164200</v>
+        <v>134700</v>
       </c>
       <c r="J89" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K89" s="3">
         <v>127100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>120500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>123900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>113500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>184600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>120800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>132800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4398,58 +4618,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-172000</v>
+        <v>-210500</v>
       </c>
       <c r="E91" s="3">
-        <v>-146600</v>
+        <v>-184300</v>
       </c>
       <c r="F91" s="3">
-        <v>-82500</v>
+        <v>-157100</v>
       </c>
       <c r="G91" s="3">
-        <v>-140600</v>
+        <v>-88400</v>
       </c>
       <c r="H91" s="3">
-        <v>-163200</v>
+        <v>-150700</v>
       </c>
       <c r="I91" s="3">
-        <v>-148700</v>
+        <v>-174900</v>
       </c>
       <c r="J91" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-123700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-168700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-161000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-84900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-80100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-187500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4498,8 +4722,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4548,58 +4775,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-173100</v>
+        <v>-2198800</v>
       </c>
       <c r="E94" s="3">
-        <v>-351300</v>
+        <v>-185500</v>
       </c>
       <c r="F94" s="3">
-        <v>-82700</v>
+        <v>-376400</v>
       </c>
       <c r="G94" s="3">
-        <v>-137700</v>
+        <v>-88600</v>
       </c>
       <c r="H94" s="3">
-        <v>-152100</v>
+        <v>-147600</v>
       </c>
       <c r="I94" s="3">
-        <v>-145000</v>
+        <v>-163100</v>
       </c>
       <c r="J94" s="3">
+        <v>-155400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-340200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-170000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-158300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-96200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-79800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-192100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4618,13 +4851,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-11500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4645,17 +4879,17 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-10100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4668,8 +4902,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4718,8 +4955,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4768,8 +5008,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4818,154 +5061,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-132300</v>
+        <v>-29300</v>
       </c>
       <c r="E100" s="3">
-        <v>-134100</v>
+        <v>-141700</v>
       </c>
       <c r="F100" s="3">
-        <v>284400</v>
+        <v>-143700</v>
       </c>
       <c r="G100" s="3">
-        <v>-17700</v>
+        <v>304700</v>
       </c>
       <c r="H100" s="3">
-        <v>1800</v>
+        <v>-18900</v>
       </c>
       <c r="I100" s="3">
-        <v>21700</v>
+        <v>1900</v>
       </c>
       <c r="J100" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K100" s="3">
         <v>196300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>31300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-55000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>-5300</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>-8500</v>
+        <v>-5600</v>
       </c>
       <c r="G101" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
-        <v>200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-86600</v>
+        <v>8000</v>
       </c>
       <c r="E102" s="3">
-        <v>-132600</v>
+        <v>-92800</v>
       </c>
       <c r="F102" s="3">
-        <v>316400</v>
+        <v>-142100</v>
       </c>
       <c r="G102" s="3">
-        <v>15900</v>
+        <v>339100</v>
       </c>
       <c r="H102" s="3">
-        <v>-24500</v>
+        <v>17100</v>
       </c>
       <c r="I102" s="3">
-        <v>42200</v>
+        <v>-26200</v>
       </c>
       <c r="J102" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-21600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>29700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-45900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -751,25 +751,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1457300</v>
+        <v>1363400</v>
       </c>
       <c r="E8" s="3">
-        <v>1337400</v>
+        <v>1251200</v>
       </c>
       <c r="F8" s="3">
-        <v>1433200</v>
+        <v>1340800</v>
       </c>
       <c r="G8" s="3">
-        <v>914100</v>
+        <v>855100</v>
       </c>
       <c r="H8" s="3">
-        <v>1027500</v>
+        <v>961300</v>
       </c>
       <c r="I8" s="3">
-        <v>871200</v>
+        <v>815100</v>
       </c>
       <c r="J8" s="3">
-        <v>915500</v>
+        <v>856400</v>
       </c>
       <c r="K8" s="3">
         <v>655200</v>
@@ -804,25 +804,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1259900</v>
+        <v>1178700</v>
       </c>
       <c r="E9" s="3">
-        <v>1146000</v>
+        <v>1072100</v>
       </c>
       <c r="F9" s="3">
-        <v>1117400</v>
+        <v>1045400</v>
       </c>
       <c r="G9" s="3">
-        <v>823000</v>
+        <v>769900</v>
       </c>
       <c r="H9" s="3">
-        <v>894400</v>
+        <v>836700</v>
       </c>
       <c r="I9" s="3">
-        <v>794800</v>
+        <v>743600</v>
       </c>
       <c r="J9" s="3">
-        <v>847600</v>
+        <v>793000</v>
       </c>
       <c r="K9" s="3">
         <v>583700</v>
@@ -857,25 +857,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>197400</v>
+        <v>184700</v>
       </c>
       <c r="E10" s="3">
-        <v>191400</v>
+        <v>179100</v>
       </c>
       <c r="F10" s="3">
-        <v>315800</v>
+        <v>295500</v>
       </c>
       <c r="G10" s="3">
-        <v>91100</v>
+        <v>85200</v>
       </c>
       <c r="H10" s="3">
-        <v>133100</v>
+        <v>124500</v>
       </c>
       <c r="I10" s="3">
-        <v>76400</v>
+        <v>71500</v>
       </c>
       <c r="J10" s="3">
-        <v>67900</v>
+        <v>63500</v>
       </c>
       <c r="K10" s="3">
         <v>71600</v>
@@ -931,25 +931,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="E12" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="F12" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="G12" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="H12" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="I12" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="J12" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K12" s="3">
         <v>3300</v>
@@ -1037,25 +1037,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="E14" s="3">
-        <v>149200</v>
+        <v>139600</v>
       </c>
       <c r="F14" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="G14" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="H14" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I14" s="3">
-        <v>260000</v>
+        <v>243200</v>
       </c>
       <c r="J14" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="K14" s="3">
         <v>329500</v>
@@ -1161,25 +1161,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1346500</v>
+        <v>1259700</v>
       </c>
       <c r="E17" s="3">
-        <v>1335900</v>
+        <v>1249800</v>
       </c>
       <c r="F17" s="3">
-        <v>1055700</v>
+        <v>987600</v>
       </c>
       <c r="G17" s="3">
-        <v>1049300</v>
+        <v>981600</v>
       </c>
       <c r="H17" s="3">
-        <v>919000</v>
+        <v>859800</v>
       </c>
       <c r="I17" s="3">
-        <v>1050800</v>
+        <v>983000</v>
       </c>
       <c r="J17" s="3">
-        <v>905100</v>
+        <v>846700</v>
       </c>
       <c r="K17" s="3">
         <v>1021500</v>
@@ -1214,25 +1214,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>110900</v>
+        <v>103700</v>
       </c>
       <c r="E18" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F18" s="3">
-        <v>377600</v>
+        <v>353200</v>
       </c>
       <c r="G18" s="3">
-        <v>-135200</v>
+        <v>-126500</v>
       </c>
       <c r="H18" s="3">
-        <v>108500</v>
+        <v>101500</v>
       </c>
       <c r="I18" s="3">
-        <v>-179500</v>
+        <v>-167900</v>
       </c>
       <c r="J18" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="K18" s="3">
         <v>-366200</v>
@@ -1288,25 +1288,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E20" s="3">
-        <v>-14900</v>
+        <v>-14000</v>
       </c>
       <c r="F20" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="H20" s="3">
-        <v>-9600</v>
+        <v>-9000</v>
       </c>
       <c r="I20" s="3">
-        <v>-11000</v>
+        <v>-10200</v>
       </c>
       <c r="J20" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="K20" s="3">
         <v>-3200</v>
@@ -1341,25 +1341,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>233400</v>
+        <v>218300</v>
       </c>
       <c r="E21" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="F21" s="3">
-        <v>504200</v>
+        <v>471700</v>
       </c>
       <c r="G21" s="3">
-        <v>-154600</v>
+        <v>-144600</v>
       </c>
       <c r="H21" s="3">
-        <v>226700</v>
+        <v>212100</v>
       </c>
       <c r="I21" s="3">
-        <v>-191000</v>
+        <v>-178700</v>
       </c>
       <c r="J21" s="3">
-        <v>142600</v>
+        <v>133400</v>
       </c>
       <c r="K21" s="3">
         <v>-365400</v>
@@ -1394,13 +1394,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>16</v>
@@ -1447,25 +1447,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>108700</v>
+        <v>101700</v>
       </c>
       <c r="E23" s="3">
-        <v>-13400</v>
+        <v>-12500</v>
       </c>
       <c r="F23" s="3">
-        <v>375400</v>
+        <v>351200</v>
       </c>
       <c r="G23" s="3">
-        <v>-138400</v>
+        <v>-129400</v>
       </c>
       <c r="H23" s="3">
-        <v>98900</v>
+        <v>92500</v>
       </c>
       <c r="I23" s="3">
-        <v>-190500</v>
+        <v>-178200</v>
       </c>
       <c r="J23" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K23" s="3">
         <v>-369400</v>
@@ -1500,25 +1500,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="E24" s="3">
-        <v>32300</v>
+        <v>30200</v>
       </c>
       <c r="F24" s="3">
-        <v>70000</v>
+        <v>65500</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="H24" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="I24" s="3">
-        <v>-12400</v>
+        <v>-11600</v>
       </c>
       <c r="J24" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K24" s="3">
         <v>-36700</v>
@@ -1606,25 +1606,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>93200</v>
+        <v>87200</v>
       </c>
       <c r="E26" s="3">
-        <v>-45700</v>
+        <v>-42700</v>
       </c>
       <c r="F26" s="3">
-        <v>305400</v>
+        <v>285700</v>
       </c>
       <c r="G26" s="3">
-        <v>-144900</v>
+        <v>-135500</v>
       </c>
       <c r="H26" s="3">
-        <v>88400</v>
+        <v>82700</v>
       </c>
       <c r="I26" s="3">
-        <v>-178100</v>
+        <v>-166600</v>
       </c>
       <c r="J26" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K26" s="3">
         <v>-332700</v>
@@ -1659,25 +1659,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>92100</v>
+        <v>86100</v>
       </c>
       <c r="E27" s="3">
-        <v>-46300</v>
+        <v>-43400</v>
       </c>
       <c r="F27" s="3">
-        <v>303600</v>
+        <v>284000</v>
       </c>
       <c r="G27" s="3">
-        <v>-146700</v>
+        <v>-137300</v>
       </c>
       <c r="H27" s="3">
-        <v>88400</v>
+        <v>82700</v>
       </c>
       <c r="I27" s="3">
-        <v>-178100</v>
+        <v>-166600</v>
       </c>
       <c r="J27" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K27" s="3">
         <v>-332700</v>
@@ -1924,25 +1924,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E32" s="3">
-        <v>14900</v>
+        <v>14000</v>
       </c>
       <c r="F32" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H32" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="I32" s="3">
-        <v>11000</v>
+        <v>10200</v>
       </c>
       <c r="J32" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="K32" s="3">
         <v>3200</v>
@@ -1977,25 +1977,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>92100</v>
+        <v>86100</v>
       </c>
       <c r="E33" s="3">
-        <v>-46300</v>
+        <v>-43400</v>
       </c>
       <c r="F33" s="3">
-        <v>303600</v>
+        <v>284000</v>
       </c>
       <c r="G33" s="3">
-        <v>-146700</v>
+        <v>-137300</v>
       </c>
       <c r="H33" s="3">
-        <v>88400</v>
+        <v>82700</v>
       </c>
       <c r="I33" s="3">
-        <v>-178100</v>
+        <v>-166600</v>
       </c>
       <c r="J33" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K33" s="3">
         <v>-332700</v>
@@ -2083,25 +2083,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>92100</v>
+        <v>86100</v>
       </c>
       <c r="E35" s="3">
-        <v>-46300</v>
+        <v>-43400</v>
       </c>
       <c r="F35" s="3">
-        <v>303600</v>
+        <v>284000</v>
       </c>
       <c r="G35" s="3">
-        <v>-146700</v>
+        <v>-137300</v>
       </c>
       <c r="H35" s="3">
-        <v>88400</v>
+        <v>82700</v>
       </c>
       <c r="I35" s="3">
-        <v>-178100</v>
+        <v>-166600</v>
       </c>
       <c r="J35" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K35" s="3">
         <v>-332700</v>
@@ -2236,25 +2236,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>195200</v>
+        <v>182600</v>
       </c>
       <c r="E41" s="3">
-        <v>187200</v>
+        <v>175100</v>
       </c>
       <c r="F41" s="3">
-        <v>280000</v>
+        <v>261900</v>
       </c>
       <c r="G41" s="3">
-        <v>422000</v>
+        <v>394800</v>
       </c>
       <c r="H41" s="3">
-        <v>83000</v>
+        <v>77600</v>
       </c>
       <c r="I41" s="3">
-        <v>65900</v>
+        <v>61700</v>
       </c>
       <c r="J41" s="3">
-        <v>92100</v>
+        <v>86200</v>
       </c>
       <c r="K41" s="3">
         <v>43700</v>
@@ -2342,25 +2342,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>125100</v>
+        <v>117000</v>
       </c>
       <c r="E43" s="3">
-        <v>109700</v>
+        <v>102600</v>
       </c>
       <c r="F43" s="3">
-        <v>98600</v>
+        <v>92200</v>
       </c>
       <c r="G43" s="3">
-        <v>86800</v>
+        <v>81200</v>
       </c>
       <c r="H43" s="3">
-        <v>87000</v>
+        <v>81400</v>
       </c>
       <c r="I43" s="3">
-        <v>70600</v>
+        <v>66100</v>
       </c>
       <c r="J43" s="3">
-        <v>78900</v>
+        <v>73800</v>
       </c>
       <c r="K43" s="3">
         <v>70600</v>
@@ -2395,25 +2395,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>148000</v>
+        <v>138500</v>
       </c>
       <c r="E44" s="3">
-        <v>168800</v>
+        <v>157900</v>
       </c>
       <c r="F44" s="3">
-        <v>146000</v>
+        <v>136600</v>
       </c>
       <c r="G44" s="3">
-        <v>160700</v>
+        <v>150400</v>
       </c>
       <c r="H44" s="3">
-        <v>129700</v>
+        <v>121300</v>
       </c>
       <c r="I44" s="3">
-        <v>130600</v>
+        <v>122200</v>
       </c>
       <c r="J44" s="3">
-        <v>119200</v>
+        <v>111500</v>
       </c>
       <c r="K44" s="3">
         <v>109000</v>
@@ -2448,25 +2448,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44200</v>
+        <v>41400</v>
       </c>
       <c r="E45" s="3">
-        <v>102100</v>
+        <v>95500</v>
       </c>
       <c r="F45" s="3">
-        <v>52400</v>
+        <v>49100</v>
       </c>
       <c r="G45" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="H45" s="3">
-        <v>39200</v>
+        <v>36700</v>
       </c>
       <c r="I45" s="3">
-        <v>23400</v>
+        <v>21900</v>
       </c>
       <c r="J45" s="3">
-        <v>16400</v>
+        <v>15300</v>
       </c>
       <c r="K45" s="3">
         <v>35700</v>
@@ -2501,25 +2501,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>512500</v>
+        <v>479500</v>
       </c>
       <c r="E46" s="3">
-        <v>567700</v>
+        <v>531100</v>
       </c>
       <c r="F46" s="3">
-        <v>577000</v>
+        <v>539800</v>
       </c>
       <c r="G46" s="3">
-        <v>674900</v>
+        <v>631400</v>
       </c>
       <c r="H46" s="3">
-        <v>338900</v>
+        <v>317100</v>
       </c>
       <c r="I46" s="3">
-        <v>290600</v>
+        <v>271900</v>
       </c>
       <c r="J46" s="3">
-        <v>306600</v>
+        <v>286800</v>
       </c>
       <c r="K46" s="3">
         <v>259000</v>
@@ -2554,25 +2554,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="E47" s="3">
-        <v>30400</v>
+        <v>28400</v>
       </c>
       <c r="F47" s="3">
-        <v>38400</v>
+        <v>35900</v>
       </c>
       <c r="G47" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="H47" s="3">
-        <v>31500</v>
+        <v>29400</v>
       </c>
       <c r="I47" s="3">
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="J47" s="3">
-        <v>43400</v>
+        <v>40600</v>
       </c>
       <c r="K47" s="3">
         <v>21600</v>
@@ -2607,25 +2607,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2374100</v>
+        <v>2221100</v>
       </c>
       <c r="E48" s="3">
-        <v>2230500</v>
+        <v>2086700</v>
       </c>
       <c r="F48" s="3">
-        <v>2297000</v>
+        <v>2148900</v>
       </c>
       <c r="G48" s="3">
-        <v>1937700</v>
+        <v>1812700</v>
       </c>
       <c r="H48" s="3">
-        <v>1872800</v>
+        <v>1752100</v>
       </c>
       <c r="I48" s="3">
-        <v>1842300</v>
+        <v>1723500</v>
       </c>
       <c r="J48" s="3">
-        <v>2087600</v>
+        <v>1953000</v>
       </c>
       <c r="K48" s="3">
         <v>1920500</v>
@@ -2660,25 +2660,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23200</v>
+        <v>21700</v>
       </c>
       <c r="E49" s="3">
-        <v>24200</v>
+        <v>22700</v>
       </c>
       <c r="F49" s="3">
-        <v>36000</v>
+        <v>33700</v>
       </c>
       <c r="G49" s="3">
-        <v>35600</v>
+        <v>33300</v>
       </c>
       <c r="H49" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="I49" s="3">
-        <v>35400</v>
+        <v>33100</v>
       </c>
       <c r="J49" s="3">
-        <v>34200</v>
+        <v>32000</v>
       </c>
       <c r="K49" s="3">
         <v>31900</v>
@@ -2819,25 +2819,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>382500</v>
+        <v>357800</v>
       </c>
       <c r="E52" s="3">
-        <v>387200</v>
+        <v>362200</v>
       </c>
       <c r="F52" s="3">
-        <v>421600</v>
+        <v>394500</v>
       </c>
       <c r="G52" s="3">
-        <v>283500</v>
+        <v>265200</v>
       </c>
       <c r="H52" s="3">
-        <v>247800</v>
+        <v>231800</v>
       </c>
       <c r="I52" s="3">
-        <v>241200</v>
+        <v>225600</v>
       </c>
       <c r="J52" s="3">
-        <v>239900</v>
+        <v>224400</v>
       </c>
       <c r="K52" s="3">
         <v>215500</v>
@@ -2925,25 +2925,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3321800</v>
+        <v>3107700</v>
       </c>
       <c r="E54" s="3">
-        <v>3240000</v>
+        <v>3031200</v>
       </c>
       <c r="F54" s="3">
-        <v>3357700</v>
+        <v>3141300</v>
       </c>
       <c r="G54" s="3">
-        <v>2967100</v>
+        <v>2775800</v>
       </c>
       <c r="H54" s="3">
-        <v>2526400</v>
+        <v>2363500</v>
       </c>
       <c r="I54" s="3">
-        <v>2438900</v>
+        <v>2281700</v>
       </c>
       <c r="J54" s="3">
-        <v>2694400</v>
+        <v>2520700</v>
       </c>
       <c r="K54" s="3">
         <v>2448400</v>
@@ -3020,25 +3020,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>278600</v>
+        <v>260700</v>
       </c>
       <c r="E57" s="3">
-        <v>291400</v>
+        <v>272600</v>
       </c>
       <c r="F57" s="3">
-        <v>260500</v>
+        <v>243700</v>
       </c>
       <c r="G57" s="3">
-        <v>199600</v>
+        <v>186700</v>
       </c>
       <c r="H57" s="3">
-        <v>194200</v>
+        <v>181700</v>
       </c>
       <c r="I57" s="3">
-        <v>190900</v>
+        <v>178600</v>
       </c>
       <c r="J57" s="3">
-        <v>195700</v>
+        <v>183000</v>
       </c>
       <c r="K57" s="3">
         <v>167500</v>
@@ -3073,25 +3073,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24800</v>
+        <v>23200</v>
       </c>
       <c r="E58" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="F58" s="3">
-        <v>25900</v>
+        <v>24200</v>
       </c>
       <c r="G58" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="H58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J58" s="3">
         <v>5700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>6100</v>
       </c>
       <c r="K58" s="3">
         <v>42700</v>
@@ -3126,25 +3126,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39400</v>
+        <v>36800</v>
       </c>
       <c r="E59" s="3">
-        <v>51600</v>
+        <v>48300</v>
       </c>
       <c r="F59" s="3">
-        <v>145500</v>
+        <v>136100</v>
       </c>
       <c r="G59" s="3">
-        <v>285400</v>
+        <v>267000</v>
       </c>
       <c r="H59" s="3">
-        <v>46900</v>
+        <v>43800</v>
       </c>
       <c r="I59" s="3">
-        <v>17900</v>
+        <v>16800</v>
       </c>
       <c r="J59" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="K59" s="3">
         <v>12700</v>
@@ -3179,25 +3179,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>342800</v>
+        <v>320700</v>
       </c>
       <c r="E60" s="3">
-        <v>368700</v>
+        <v>344900</v>
       </c>
       <c r="F60" s="3">
-        <v>431900</v>
+        <v>404100</v>
       </c>
       <c r="G60" s="3">
-        <v>501900</v>
+        <v>469600</v>
       </c>
       <c r="H60" s="3">
-        <v>246800</v>
+        <v>230900</v>
       </c>
       <c r="I60" s="3">
-        <v>214700</v>
+        <v>200900</v>
       </c>
       <c r="J60" s="3">
-        <v>221900</v>
+        <v>207600</v>
       </c>
       <c r="K60" s="3">
         <v>223000</v>
@@ -3232,25 +3232,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>211000</v>
+        <v>197400</v>
       </c>
       <c r="E61" s="3">
-        <v>197400</v>
+        <v>184700</v>
       </c>
       <c r="F61" s="3">
-        <v>292600</v>
+        <v>273700</v>
       </c>
       <c r="G61" s="3">
-        <v>495500</v>
+        <v>463500</v>
       </c>
       <c r="H61" s="3">
-        <v>362100</v>
+        <v>338700</v>
       </c>
       <c r="I61" s="3">
-        <v>386800</v>
+        <v>361900</v>
       </c>
       <c r="J61" s="3">
-        <v>389800</v>
+        <v>364600</v>
       </c>
       <c r="K61" s="3">
         <v>305000</v>
@@ -3285,25 +3285,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>606800</v>
+        <v>567700</v>
       </c>
       <c r="E62" s="3">
-        <v>601600</v>
+        <v>562800</v>
       </c>
       <c r="F62" s="3">
-        <v>714000</v>
+        <v>668000</v>
       </c>
       <c r="G62" s="3">
-        <v>417900</v>
+        <v>390900</v>
       </c>
       <c r="H62" s="3">
-        <v>338000</v>
+        <v>316200</v>
       </c>
       <c r="I62" s="3">
-        <v>336100</v>
+        <v>314400</v>
       </c>
       <c r="J62" s="3">
-        <v>383700</v>
+        <v>359000</v>
       </c>
       <c r="K62" s="3">
         <v>348000</v>
@@ -3497,25 +3497,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1164900</v>
+        <v>1089800</v>
       </c>
       <c r="E66" s="3">
-        <v>1171300</v>
+        <v>1095800</v>
       </c>
       <c r="F66" s="3">
-        <v>1382400</v>
+        <v>1293300</v>
       </c>
       <c r="G66" s="3">
-        <v>1415500</v>
+        <v>1324200</v>
       </c>
       <c r="H66" s="3">
-        <v>946500</v>
+        <v>885500</v>
       </c>
       <c r="I66" s="3">
-        <v>937600</v>
+        <v>877100</v>
       </c>
       <c r="J66" s="3">
-        <v>995400</v>
+        <v>931200</v>
       </c>
       <c r="K66" s="3">
         <v>876000</v>
@@ -3783,25 +3783,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29500</v>
+        <v>-27600</v>
       </c>
       <c r="E72" s="3">
-        <v>-117800</v>
+        <v>-110200</v>
       </c>
       <c r="F72" s="3">
-        <v>-211300</v>
+        <v>-197600</v>
       </c>
       <c r="G72" s="3">
-        <v>-635100</v>
+        <v>-594100</v>
       </c>
       <c r="H72" s="3">
-        <v>-382000</v>
+        <v>-357400</v>
       </c>
       <c r="I72" s="3">
-        <v>-460500</v>
+        <v>-430900</v>
       </c>
       <c r="J72" s="3">
-        <v>-262800</v>
+        <v>-245900</v>
       </c>
       <c r="K72" s="3">
         <v>-245200</v>
@@ -3995,25 +3995,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2156900</v>
+        <v>2017900</v>
       </c>
       <c r="E76" s="3">
-        <v>2068700</v>
+        <v>1935300</v>
       </c>
       <c r="F76" s="3">
-        <v>1975300</v>
+        <v>1848000</v>
       </c>
       <c r="G76" s="3">
-        <v>1551600</v>
+        <v>1451600</v>
       </c>
       <c r="H76" s="3">
-        <v>1579900</v>
+        <v>1478000</v>
       </c>
       <c r="I76" s="3">
-        <v>1501300</v>
+        <v>1404600</v>
       </c>
       <c r="J76" s="3">
-        <v>1699100</v>
+        <v>1589500</v>
       </c>
       <c r="K76" s="3">
         <v>1572400</v>
@@ -4159,25 +4159,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>92100</v>
+        <v>86100</v>
       </c>
       <c r="E81" s="3">
-        <v>-46300</v>
+        <v>-43400</v>
       </c>
       <c r="F81" s="3">
-        <v>303600</v>
+        <v>284000</v>
       </c>
       <c r="G81" s="3">
-        <v>-146700</v>
+        <v>-137300</v>
       </c>
       <c r="H81" s="3">
-        <v>88400</v>
+        <v>82700</v>
       </c>
       <c r="I81" s="3">
-        <v>-178100</v>
+        <v>-166600</v>
       </c>
       <c r="J81" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K81" s="3">
         <v>-332700</v>
@@ -4551,25 +4551,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2236100</v>
+        <v>2091900</v>
       </c>
       <c r="E89" s="3">
-        <v>225700</v>
+        <v>211200</v>
       </c>
       <c r="F89" s="3">
-        <v>383700</v>
+        <v>358900</v>
       </c>
       <c r="G89" s="3">
-        <v>132100</v>
+        <v>123600</v>
       </c>
       <c r="H89" s="3">
-        <v>181400</v>
+        <v>169700</v>
       </c>
       <c r="I89" s="3">
-        <v>134700</v>
+        <v>126000</v>
       </c>
       <c r="J89" s="3">
-        <v>175900</v>
+        <v>164600</v>
       </c>
       <c r="K89" s="3">
         <v>127100</v>
@@ -4625,25 +4625,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-210500</v>
+        <v>-196900</v>
       </c>
       <c r="E91" s="3">
-        <v>-184300</v>
+        <v>-172400</v>
       </c>
       <c r="F91" s="3">
-        <v>-157100</v>
+        <v>-147000</v>
       </c>
       <c r="G91" s="3">
-        <v>-88400</v>
+        <v>-82700</v>
       </c>
       <c r="H91" s="3">
-        <v>-150700</v>
+        <v>-141000</v>
       </c>
       <c r="I91" s="3">
-        <v>-174900</v>
+        <v>-163700</v>
       </c>
       <c r="J91" s="3">
-        <v>-159300</v>
+        <v>-149100</v>
       </c>
       <c r="K91" s="3">
         <v>-123700</v>
@@ -4784,25 +4784,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2198800</v>
+        <v>-2057100</v>
       </c>
       <c r="E94" s="3">
-        <v>-185500</v>
+        <v>-173500</v>
       </c>
       <c r="F94" s="3">
-        <v>-376400</v>
+        <v>-352200</v>
       </c>
       <c r="G94" s="3">
-        <v>-88600</v>
+        <v>-82900</v>
       </c>
       <c r="H94" s="3">
-        <v>-147600</v>
+        <v>-138100</v>
       </c>
       <c r="I94" s="3">
-        <v>-163100</v>
+        <v>-152500</v>
       </c>
       <c r="J94" s="3">
-        <v>-155400</v>
+        <v>-145400</v>
       </c>
       <c r="K94" s="3">
         <v>-340200</v>
@@ -4858,7 +4858,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11500</v>
+        <v>-10700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5070,25 +5070,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29300</v>
+        <v>-27500</v>
       </c>
       <c r="E100" s="3">
-        <v>-141700</v>
+        <v>-132600</v>
       </c>
       <c r="F100" s="3">
-        <v>-143700</v>
+        <v>-134400</v>
       </c>
       <c r="G100" s="3">
-        <v>304700</v>
+        <v>285100</v>
       </c>
       <c r="H100" s="3">
-        <v>-18900</v>
+        <v>-17700</v>
       </c>
       <c r="I100" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J100" s="3">
-        <v>23300</v>
+        <v>21800</v>
       </c>
       <c r="K100" s="3">
         <v>196300</v>
@@ -5126,22 +5126,22 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="F101" s="3">
-        <v>-5600</v>
+        <v>-5300</v>
       </c>
       <c r="G101" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
       </c>
       <c r="J101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K101" s="3">
         <v>-4800</v>
@@ -5176,25 +5176,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="E102" s="3">
-        <v>-92800</v>
+        <v>-86800</v>
       </c>
       <c r="F102" s="3">
-        <v>-142100</v>
+        <v>-132900</v>
       </c>
       <c r="G102" s="3">
-        <v>339100</v>
+        <v>317200</v>
       </c>
       <c r="H102" s="3">
-        <v>17100</v>
+        <v>16000</v>
       </c>
       <c r="I102" s="3">
-        <v>-26200</v>
+        <v>-24500</v>
       </c>
       <c r="J102" s="3">
-        <v>45300</v>
+        <v>42400</v>
       </c>
       <c r="K102" s="3">
         <v>-21600</v>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -751,25 +751,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1363400</v>
+        <v>1309800</v>
       </c>
       <c r="E8" s="3">
-        <v>1251200</v>
+        <v>1202100</v>
       </c>
       <c r="F8" s="3">
-        <v>1340800</v>
+        <v>1288200</v>
       </c>
       <c r="G8" s="3">
-        <v>855100</v>
+        <v>821500</v>
       </c>
       <c r="H8" s="3">
-        <v>961300</v>
+        <v>923500</v>
       </c>
       <c r="I8" s="3">
-        <v>815100</v>
+        <v>783000</v>
       </c>
       <c r="J8" s="3">
-        <v>856400</v>
+        <v>822800</v>
       </c>
       <c r="K8" s="3">
         <v>655200</v>
@@ -804,25 +804,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1178700</v>
+        <v>1132400</v>
       </c>
       <c r="E9" s="3">
-        <v>1072100</v>
+        <v>1030000</v>
       </c>
       <c r="F9" s="3">
-        <v>1045400</v>
+        <v>1004300</v>
       </c>
       <c r="G9" s="3">
-        <v>769900</v>
+        <v>739700</v>
       </c>
       <c r="H9" s="3">
-        <v>836700</v>
+        <v>803900</v>
       </c>
       <c r="I9" s="3">
-        <v>743600</v>
+        <v>714400</v>
       </c>
       <c r="J9" s="3">
-        <v>793000</v>
+        <v>761800</v>
       </c>
       <c r="K9" s="3">
         <v>583700</v>
@@ -857,25 +857,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>184700</v>
+        <v>177400</v>
       </c>
       <c r="E10" s="3">
-        <v>179100</v>
+        <v>172000</v>
       </c>
       <c r="F10" s="3">
-        <v>295500</v>
+        <v>283900</v>
       </c>
       <c r="G10" s="3">
-        <v>85200</v>
+        <v>81900</v>
       </c>
       <c r="H10" s="3">
-        <v>124500</v>
+        <v>119600</v>
       </c>
       <c r="I10" s="3">
-        <v>71500</v>
+        <v>68700</v>
       </c>
       <c r="J10" s="3">
-        <v>63500</v>
+        <v>61000</v>
       </c>
       <c r="K10" s="3">
         <v>71600</v>
@@ -931,25 +931,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E12" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="G12" s="3">
-        <v>4800</v>
-      </c>
       <c r="H12" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="I12" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J12" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="K12" s="3">
         <v>3300</v>
@@ -1037,25 +1037,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>17000</v>
+        <v>16300</v>
       </c>
       <c r="E14" s="3">
-        <v>139600</v>
+        <v>134100</v>
       </c>
       <c r="F14" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G14" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H14" s="3">
         <v>1600</v>
       </c>
       <c r="I14" s="3">
-        <v>243200</v>
+        <v>233700</v>
       </c>
       <c r="J14" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="K14" s="3">
         <v>329500</v>
@@ -1161,25 +1161,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1259700</v>
+        <v>1210200</v>
       </c>
       <c r="E17" s="3">
-        <v>1249800</v>
+        <v>1200700</v>
       </c>
       <c r="F17" s="3">
-        <v>987600</v>
+        <v>948800</v>
       </c>
       <c r="G17" s="3">
-        <v>981600</v>
+        <v>943100</v>
       </c>
       <c r="H17" s="3">
-        <v>859800</v>
+        <v>826000</v>
       </c>
       <c r="I17" s="3">
-        <v>983000</v>
+        <v>944400</v>
       </c>
       <c r="J17" s="3">
-        <v>846700</v>
+        <v>813500</v>
       </c>
       <c r="K17" s="3">
         <v>1021500</v>
@@ -1214,25 +1214,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>103700</v>
+        <v>99600</v>
       </c>
       <c r="E18" s="3">
         <v>1400</v>
       </c>
       <c r="F18" s="3">
-        <v>353200</v>
+        <v>339300</v>
       </c>
       <c r="G18" s="3">
-        <v>-126500</v>
+        <v>-121500</v>
       </c>
       <c r="H18" s="3">
-        <v>101500</v>
+        <v>97500</v>
       </c>
       <c r="I18" s="3">
-        <v>-167900</v>
+        <v>-161300</v>
       </c>
       <c r="J18" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="K18" s="3">
         <v>-366200</v>
@@ -1288,25 +1288,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-14000</v>
+        <v>-13400</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="H20" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="I20" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="J20" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="K20" s="3">
         <v>-3200</v>
@@ -1341,25 +1341,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>218300</v>
+        <v>209700</v>
       </c>
       <c r="E21" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F21" s="3">
-        <v>471700</v>
+        <v>453200</v>
       </c>
       <c r="G21" s="3">
-        <v>-144600</v>
+        <v>-138900</v>
       </c>
       <c r="H21" s="3">
-        <v>212100</v>
+        <v>203800</v>
       </c>
       <c r="I21" s="3">
-        <v>-178700</v>
+        <v>-171700</v>
       </c>
       <c r="J21" s="3">
-        <v>133400</v>
+        <v>128200</v>
       </c>
       <c r="K21" s="3">
         <v>-365400</v>
@@ -1394,13 +1394,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>16</v>
@@ -1447,25 +1447,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>101700</v>
+        <v>97700</v>
       </c>
       <c r="E23" s="3">
-        <v>-12500</v>
+        <v>-12100</v>
       </c>
       <c r="F23" s="3">
-        <v>351200</v>
+        <v>337400</v>
       </c>
       <c r="G23" s="3">
-        <v>-129400</v>
+        <v>-124400</v>
       </c>
       <c r="H23" s="3">
-        <v>92500</v>
+        <v>88800</v>
       </c>
       <c r="I23" s="3">
-        <v>-178200</v>
+        <v>-171200</v>
       </c>
       <c r="J23" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K23" s="3">
         <v>-369400</v>
@@ -1500,25 +1500,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="E24" s="3">
-        <v>30200</v>
+        <v>29000</v>
       </c>
       <c r="F24" s="3">
-        <v>65500</v>
+        <v>62900</v>
       </c>
       <c r="G24" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="H24" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="I24" s="3">
-        <v>-11600</v>
+        <v>-11200</v>
       </c>
       <c r="J24" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K24" s="3">
         <v>-36700</v>
@@ -1606,25 +1606,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87200</v>
+        <v>83800</v>
       </c>
       <c r="E26" s="3">
-        <v>-42700</v>
+        <v>-41100</v>
       </c>
       <c r="F26" s="3">
-        <v>285700</v>
+        <v>274500</v>
       </c>
       <c r="G26" s="3">
-        <v>-135500</v>
+        <v>-130200</v>
       </c>
       <c r="H26" s="3">
-        <v>82700</v>
+        <v>79500</v>
       </c>
       <c r="I26" s="3">
-        <v>-166600</v>
+        <v>-160000</v>
       </c>
       <c r="J26" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K26" s="3">
         <v>-332700</v>
@@ -1659,25 +1659,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>86100</v>
+        <v>82800</v>
       </c>
       <c r="E27" s="3">
-        <v>-43400</v>
+        <v>-41600</v>
       </c>
       <c r="F27" s="3">
-        <v>284000</v>
+        <v>272900</v>
       </c>
       <c r="G27" s="3">
-        <v>-137300</v>
+        <v>-131900</v>
       </c>
       <c r="H27" s="3">
-        <v>82700</v>
+        <v>79500</v>
       </c>
       <c r="I27" s="3">
-        <v>-166600</v>
+        <v>-160000</v>
       </c>
       <c r="J27" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K27" s="3">
         <v>-332700</v>
@@ -1924,25 +1924,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E32" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="G32" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H32" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="I32" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="J32" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="K32" s="3">
         <v>3200</v>
@@ -1977,25 +1977,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>86100</v>
+        <v>82800</v>
       </c>
       <c r="E33" s="3">
-        <v>-43400</v>
+        <v>-41600</v>
       </c>
       <c r="F33" s="3">
-        <v>284000</v>
+        <v>272900</v>
       </c>
       <c r="G33" s="3">
-        <v>-137300</v>
+        <v>-131900</v>
       </c>
       <c r="H33" s="3">
-        <v>82700</v>
+        <v>79500</v>
       </c>
       <c r="I33" s="3">
-        <v>-166600</v>
+        <v>-160000</v>
       </c>
       <c r="J33" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K33" s="3">
         <v>-332700</v>
@@ -2083,25 +2083,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>86100</v>
+        <v>82800</v>
       </c>
       <c r="E35" s="3">
-        <v>-43400</v>
+        <v>-41600</v>
       </c>
       <c r="F35" s="3">
-        <v>284000</v>
+        <v>272900</v>
       </c>
       <c r="G35" s="3">
-        <v>-137300</v>
+        <v>-131900</v>
       </c>
       <c r="H35" s="3">
-        <v>82700</v>
+        <v>79500</v>
       </c>
       <c r="I35" s="3">
-        <v>-166600</v>
+        <v>-160000</v>
       </c>
       <c r="J35" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K35" s="3">
         <v>-332700</v>
@@ -2236,25 +2236,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>182600</v>
+        <v>175400</v>
       </c>
       <c r="E41" s="3">
-        <v>175100</v>
+        <v>168200</v>
       </c>
       <c r="F41" s="3">
-        <v>261900</v>
+        <v>251600</v>
       </c>
       <c r="G41" s="3">
-        <v>394800</v>
+        <v>379300</v>
       </c>
       <c r="H41" s="3">
-        <v>77600</v>
+        <v>74600</v>
       </c>
       <c r="I41" s="3">
-        <v>61700</v>
+        <v>59300</v>
       </c>
       <c r="J41" s="3">
-        <v>86200</v>
+        <v>82800</v>
       </c>
       <c r="K41" s="3">
         <v>43700</v>
@@ -2342,25 +2342,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>117000</v>
+        <v>112400</v>
       </c>
       <c r="E43" s="3">
-        <v>102600</v>
+        <v>98600</v>
       </c>
       <c r="F43" s="3">
-        <v>92200</v>
+        <v>88600</v>
       </c>
       <c r="G43" s="3">
-        <v>81200</v>
+        <v>78000</v>
       </c>
       <c r="H43" s="3">
-        <v>81400</v>
+        <v>78200</v>
       </c>
       <c r="I43" s="3">
-        <v>66100</v>
+        <v>63500</v>
       </c>
       <c r="J43" s="3">
-        <v>73800</v>
+        <v>70900</v>
       </c>
       <c r="K43" s="3">
         <v>70600</v>
@@ -2395,25 +2395,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>138500</v>
+        <v>133100</v>
       </c>
       <c r="E44" s="3">
-        <v>157900</v>
+        <v>151700</v>
       </c>
       <c r="F44" s="3">
-        <v>136600</v>
+        <v>131200</v>
       </c>
       <c r="G44" s="3">
-        <v>150400</v>
+        <v>144500</v>
       </c>
       <c r="H44" s="3">
-        <v>121300</v>
+        <v>116500</v>
       </c>
       <c r="I44" s="3">
-        <v>122200</v>
+        <v>117400</v>
       </c>
       <c r="J44" s="3">
-        <v>111500</v>
+        <v>107100</v>
       </c>
       <c r="K44" s="3">
         <v>109000</v>
@@ -2448,25 +2448,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41400</v>
+        <v>39700</v>
       </c>
       <c r="E45" s="3">
-        <v>95500</v>
+        <v>91800</v>
       </c>
       <c r="F45" s="3">
-        <v>49100</v>
+        <v>47100</v>
       </c>
       <c r="G45" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H45" s="3">
-        <v>36700</v>
+        <v>35300</v>
       </c>
       <c r="I45" s="3">
-        <v>21900</v>
+        <v>21100</v>
       </c>
       <c r="J45" s="3">
-        <v>15300</v>
+        <v>14700</v>
       </c>
       <c r="K45" s="3">
         <v>35700</v>
@@ -2501,25 +2501,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>479500</v>
+        <v>460700</v>
       </c>
       <c r="E46" s="3">
-        <v>531100</v>
+        <v>510200</v>
       </c>
       <c r="F46" s="3">
-        <v>539800</v>
+        <v>518600</v>
       </c>
       <c r="G46" s="3">
-        <v>631400</v>
+        <v>606600</v>
       </c>
       <c r="H46" s="3">
-        <v>317100</v>
+        <v>304600</v>
       </c>
       <c r="I46" s="3">
-        <v>271900</v>
+        <v>261200</v>
       </c>
       <c r="J46" s="3">
-        <v>286800</v>
+        <v>275600</v>
       </c>
       <c r="K46" s="3">
         <v>259000</v>
@@ -2554,25 +2554,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27600</v>
+        <v>26600</v>
       </c>
       <c r="E47" s="3">
-        <v>28400</v>
+        <v>27300</v>
       </c>
       <c r="F47" s="3">
-        <v>35900</v>
+        <v>34500</v>
       </c>
       <c r="G47" s="3">
-        <v>33200</v>
+        <v>31900</v>
       </c>
       <c r="H47" s="3">
-        <v>29400</v>
+        <v>28300</v>
       </c>
       <c r="I47" s="3">
-        <v>27600</v>
+        <v>26500</v>
       </c>
       <c r="J47" s="3">
-        <v>40600</v>
+        <v>39000</v>
       </c>
       <c r="K47" s="3">
         <v>21600</v>
@@ -2607,25 +2607,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2221100</v>
+        <v>2133800</v>
       </c>
       <c r="E48" s="3">
-        <v>2086700</v>
+        <v>2004700</v>
       </c>
       <c r="F48" s="3">
-        <v>2148900</v>
+        <v>2064500</v>
       </c>
       <c r="G48" s="3">
-        <v>1812700</v>
+        <v>1741500</v>
       </c>
       <c r="H48" s="3">
-        <v>1752100</v>
+        <v>1683200</v>
       </c>
       <c r="I48" s="3">
-        <v>1723500</v>
+        <v>1655800</v>
       </c>
       <c r="J48" s="3">
-        <v>1953000</v>
+        <v>1876300</v>
       </c>
       <c r="K48" s="3">
         <v>1920500</v>
@@ -2660,25 +2660,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21700</v>
+        <v>20800</v>
       </c>
       <c r="E49" s="3">
-        <v>22700</v>
+        <v>21800</v>
       </c>
       <c r="F49" s="3">
-        <v>33700</v>
+        <v>32300</v>
       </c>
       <c r="G49" s="3">
-        <v>33300</v>
+        <v>32000</v>
       </c>
       <c r="H49" s="3">
-        <v>33200</v>
+        <v>31900</v>
       </c>
       <c r="I49" s="3">
-        <v>33100</v>
+        <v>31800</v>
       </c>
       <c r="J49" s="3">
-        <v>32000</v>
+        <v>30700</v>
       </c>
       <c r="K49" s="3">
         <v>31900</v>
@@ -2819,25 +2819,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>357800</v>
+        <v>343800</v>
       </c>
       <c r="E52" s="3">
-        <v>362200</v>
+        <v>348000</v>
       </c>
       <c r="F52" s="3">
-        <v>394500</v>
+        <v>379000</v>
       </c>
       <c r="G52" s="3">
-        <v>265200</v>
+        <v>254800</v>
       </c>
       <c r="H52" s="3">
-        <v>231800</v>
+        <v>222700</v>
       </c>
       <c r="I52" s="3">
-        <v>225600</v>
+        <v>216800</v>
       </c>
       <c r="J52" s="3">
-        <v>224400</v>
+        <v>215600</v>
       </c>
       <c r="K52" s="3">
         <v>215500</v>
@@ -2925,25 +2925,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3107700</v>
+        <v>2985600</v>
       </c>
       <c r="E54" s="3">
-        <v>3031200</v>
+        <v>2912100</v>
       </c>
       <c r="F54" s="3">
-        <v>3141300</v>
+        <v>3017900</v>
       </c>
       <c r="G54" s="3">
-        <v>2775800</v>
+        <v>2666800</v>
       </c>
       <c r="H54" s="3">
-        <v>2363500</v>
+        <v>2270700</v>
       </c>
       <c r="I54" s="3">
-        <v>2281700</v>
+        <v>2192000</v>
       </c>
       <c r="J54" s="3">
-        <v>2520700</v>
+        <v>2421700</v>
       </c>
       <c r="K54" s="3">
         <v>2448400</v>
@@ -3020,25 +3020,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>260700</v>
+        <v>250400</v>
       </c>
       <c r="E57" s="3">
-        <v>272600</v>
+        <v>261900</v>
       </c>
       <c r="F57" s="3">
-        <v>243700</v>
+        <v>234100</v>
       </c>
       <c r="G57" s="3">
-        <v>186700</v>
+        <v>179400</v>
       </c>
       <c r="H57" s="3">
-        <v>181700</v>
+        <v>174500</v>
       </c>
       <c r="I57" s="3">
-        <v>178600</v>
+        <v>171600</v>
       </c>
       <c r="J57" s="3">
-        <v>183000</v>
+        <v>175800</v>
       </c>
       <c r="K57" s="3">
         <v>167500</v>
@@ -3073,25 +3073,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23200</v>
+        <v>22300</v>
       </c>
       <c r="E58" s="3">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="F58" s="3">
-        <v>24200</v>
+        <v>23300</v>
       </c>
       <c r="G58" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="H58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I58" s="3">
         <v>5300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5700</v>
       </c>
       <c r="K58" s="3">
         <v>42700</v>
@@ -3126,25 +3126,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36800</v>
+        <v>35400</v>
       </c>
       <c r="E59" s="3">
-        <v>48300</v>
+        <v>46400</v>
       </c>
       <c r="F59" s="3">
-        <v>136100</v>
+        <v>130800</v>
       </c>
       <c r="G59" s="3">
-        <v>267000</v>
+        <v>256500</v>
       </c>
       <c r="H59" s="3">
-        <v>43800</v>
+        <v>42100</v>
       </c>
       <c r="I59" s="3">
-        <v>16800</v>
+        <v>16100</v>
       </c>
       <c r="J59" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="K59" s="3">
         <v>12700</v>
@@ -3179,25 +3179,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>320700</v>
+        <v>308100</v>
       </c>
       <c r="E60" s="3">
-        <v>344900</v>
+        <v>331300</v>
       </c>
       <c r="F60" s="3">
-        <v>404100</v>
+        <v>388200</v>
       </c>
       <c r="G60" s="3">
-        <v>469600</v>
+        <v>451100</v>
       </c>
       <c r="H60" s="3">
-        <v>230900</v>
+        <v>221800</v>
       </c>
       <c r="I60" s="3">
-        <v>200900</v>
+        <v>193000</v>
       </c>
       <c r="J60" s="3">
-        <v>207600</v>
+        <v>199400</v>
       </c>
       <c r="K60" s="3">
         <v>223000</v>
@@ -3232,25 +3232,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>197400</v>
+        <v>189600</v>
       </c>
       <c r="E61" s="3">
-        <v>184700</v>
+        <v>177500</v>
       </c>
       <c r="F61" s="3">
-        <v>273700</v>
+        <v>263000</v>
       </c>
       <c r="G61" s="3">
-        <v>463500</v>
+        <v>445300</v>
       </c>
       <c r="H61" s="3">
-        <v>338700</v>
+        <v>325400</v>
       </c>
       <c r="I61" s="3">
-        <v>361900</v>
+        <v>347600</v>
       </c>
       <c r="J61" s="3">
-        <v>364600</v>
+        <v>350300</v>
       </c>
       <c r="K61" s="3">
         <v>305000</v>
@@ -3285,25 +3285,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>567700</v>
+        <v>545400</v>
       </c>
       <c r="E62" s="3">
-        <v>562800</v>
+        <v>540700</v>
       </c>
       <c r="F62" s="3">
-        <v>668000</v>
+        <v>641800</v>
       </c>
       <c r="G62" s="3">
-        <v>390900</v>
+        <v>375600</v>
       </c>
       <c r="H62" s="3">
-        <v>316200</v>
+        <v>303800</v>
       </c>
       <c r="I62" s="3">
-        <v>314400</v>
+        <v>302000</v>
       </c>
       <c r="J62" s="3">
-        <v>359000</v>
+        <v>344900</v>
       </c>
       <c r="K62" s="3">
         <v>348000</v>
@@ -3497,25 +3497,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1089800</v>
+        <v>1047000</v>
       </c>
       <c r="E66" s="3">
-        <v>1095800</v>
+        <v>1052800</v>
       </c>
       <c r="F66" s="3">
-        <v>1293300</v>
+        <v>1242500</v>
       </c>
       <c r="G66" s="3">
-        <v>1324200</v>
+        <v>1272200</v>
       </c>
       <c r="H66" s="3">
-        <v>885500</v>
+        <v>850700</v>
       </c>
       <c r="I66" s="3">
-        <v>877100</v>
+        <v>842700</v>
       </c>
       <c r="J66" s="3">
-        <v>931200</v>
+        <v>894600</v>
       </c>
       <c r="K66" s="3">
         <v>876000</v>
@@ -3783,25 +3783,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27600</v>
+        <v>-26600</v>
       </c>
       <c r="E72" s="3">
-        <v>-110200</v>
+        <v>-105900</v>
       </c>
       <c r="F72" s="3">
-        <v>-197600</v>
+        <v>-189900</v>
       </c>
       <c r="G72" s="3">
-        <v>-594100</v>
+        <v>-570800</v>
       </c>
       <c r="H72" s="3">
-        <v>-357400</v>
+        <v>-343300</v>
       </c>
       <c r="I72" s="3">
-        <v>-430900</v>
+        <v>-413900</v>
       </c>
       <c r="J72" s="3">
-        <v>-245900</v>
+        <v>-236200</v>
       </c>
       <c r="K72" s="3">
         <v>-245200</v>
@@ -3995,25 +3995,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2017900</v>
+        <v>1938600</v>
       </c>
       <c r="E76" s="3">
-        <v>1935300</v>
+        <v>1859300</v>
       </c>
       <c r="F76" s="3">
-        <v>1848000</v>
+        <v>1775400</v>
       </c>
       <c r="G76" s="3">
-        <v>1451600</v>
+        <v>1394500</v>
       </c>
       <c r="H76" s="3">
-        <v>1478000</v>
+        <v>1420000</v>
       </c>
       <c r="I76" s="3">
-        <v>1404600</v>
+        <v>1349400</v>
       </c>
       <c r="J76" s="3">
-        <v>1589500</v>
+        <v>1527100</v>
       </c>
       <c r="K76" s="3">
         <v>1572400</v>
@@ -4159,25 +4159,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>86100</v>
+        <v>82800</v>
       </c>
       <c r="E81" s="3">
-        <v>-43400</v>
+        <v>-41600</v>
       </c>
       <c r="F81" s="3">
-        <v>284000</v>
+        <v>272900</v>
       </c>
       <c r="G81" s="3">
-        <v>-137300</v>
+        <v>-131900</v>
       </c>
       <c r="H81" s="3">
-        <v>82700</v>
+        <v>79500</v>
       </c>
       <c r="I81" s="3">
-        <v>-166600</v>
+        <v>-160000</v>
       </c>
       <c r="J81" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K81" s="3">
         <v>-332700</v>
@@ -4551,25 +4551,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2091900</v>
+        <v>2009700</v>
       </c>
       <c r="E89" s="3">
-        <v>211200</v>
+        <v>202900</v>
       </c>
       <c r="F89" s="3">
-        <v>358900</v>
+        <v>344800</v>
       </c>
       <c r="G89" s="3">
-        <v>123600</v>
+        <v>118700</v>
       </c>
       <c r="H89" s="3">
-        <v>169700</v>
+        <v>163100</v>
       </c>
       <c r="I89" s="3">
-        <v>126000</v>
+        <v>121100</v>
       </c>
       <c r="J89" s="3">
-        <v>164600</v>
+        <v>158100</v>
       </c>
       <c r="K89" s="3">
         <v>127100</v>
@@ -4625,25 +4625,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-196900</v>
+        <v>-189200</v>
       </c>
       <c r="E91" s="3">
-        <v>-172400</v>
+        <v>-165600</v>
       </c>
       <c r="F91" s="3">
-        <v>-147000</v>
+        <v>-141200</v>
       </c>
       <c r="G91" s="3">
-        <v>-82700</v>
+        <v>-79500</v>
       </c>
       <c r="H91" s="3">
-        <v>-141000</v>
+        <v>-135500</v>
       </c>
       <c r="I91" s="3">
-        <v>-163700</v>
+        <v>-157200</v>
       </c>
       <c r="J91" s="3">
-        <v>-149100</v>
+        <v>-143200</v>
       </c>
       <c r="K91" s="3">
         <v>-123700</v>
@@ -4784,25 +4784,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2057100</v>
+        <v>-1976300</v>
       </c>
       <c r="E94" s="3">
-        <v>-173500</v>
+        <v>-166700</v>
       </c>
       <c r="F94" s="3">
-        <v>-352200</v>
+        <v>-338300</v>
       </c>
       <c r="G94" s="3">
-        <v>-82900</v>
+        <v>-79700</v>
       </c>
       <c r="H94" s="3">
-        <v>-138100</v>
+        <v>-132600</v>
       </c>
       <c r="I94" s="3">
-        <v>-152500</v>
+        <v>-146500</v>
       </c>
       <c r="J94" s="3">
-        <v>-145400</v>
+        <v>-139700</v>
       </c>
       <c r="K94" s="3">
         <v>-340200</v>
@@ -4858,7 +4858,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10700</v>
+        <v>-10300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5070,25 +5070,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-27500</v>
+        <v>-26400</v>
       </c>
       <c r="E100" s="3">
-        <v>-132600</v>
+        <v>-127400</v>
       </c>
       <c r="F100" s="3">
-        <v>-134400</v>
+        <v>-129100</v>
       </c>
       <c r="G100" s="3">
-        <v>285100</v>
+        <v>273900</v>
       </c>
       <c r="H100" s="3">
-        <v>-17700</v>
+        <v>-17000</v>
       </c>
       <c r="I100" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J100" s="3">
-        <v>21800</v>
+        <v>20900</v>
       </c>
       <c r="K100" s="3">
         <v>196300</v>
@@ -5126,22 +5126,22 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="F101" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="G101" s="3">
-        <v>-8600</v>
+        <v>-8200</v>
       </c>
       <c r="H101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
       </c>
       <c r="J101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K101" s="3">
         <v>-4800</v>
@@ -5176,25 +5176,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E102" s="3">
-        <v>-86800</v>
+        <v>-83400</v>
       </c>
       <c r="F102" s="3">
-        <v>-132900</v>
+        <v>-127700</v>
       </c>
       <c r="G102" s="3">
-        <v>317200</v>
+        <v>304700</v>
       </c>
       <c r="H102" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="I102" s="3">
-        <v>-24500</v>
+        <v>-23600</v>
       </c>
       <c r="J102" s="3">
-        <v>42400</v>
+        <v>40700</v>
       </c>
       <c r="K102" s="3">
         <v>-21600</v>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,247 +665,260 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1309800</v>
+        <v>1191400</v>
       </c>
       <c r="E8" s="3">
-        <v>1202100</v>
+        <v>1263700</v>
       </c>
       <c r="F8" s="3">
-        <v>1288200</v>
+        <v>1159700</v>
       </c>
       <c r="G8" s="3">
-        <v>821500</v>
+        <v>1242800</v>
       </c>
       <c r="H8" s="3">
-        <v>923500</v>
+        <v>792600</v>
       </c>
       <c r="I8" s="3">
-        <v>783000</v>
+        <v>891000</v>
       </c>
       <c r="J8" s="3">
+        <v>755500</v>
+      </c>
+      <c r="K8" s="3">
         <v>822800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>655200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>649600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>616000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>585000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>646000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>596800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>293200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>273400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1132400</v>
+        <v>1064200</v>
       </c>
       <c r="E9" s="3">
-        <v>1030000</v>
+        <v>1092600</v>
       </c>
       <c r="F9" s="3">
-        <v>1004300</v>
+        <v>993800</v>
       </c>
       <c r="G9" s="3">
-        <v>739700</v>
+        <v>969000</v>
       </c>
       <c r="H9" s="3">
-        <v>803900</v>
+        <v>713600</v>
       </c>
       <c r="I9" s="3">
-        <v>714400</v>
+        <v>775600</v>
       </c>
       <c r="J9" s="3">
+        <v>689200</v>
+      </c>
+      <c r="K9" s="3">
         <v>761800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>583700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>567700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>579700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>533800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>524900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>547700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>289500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>270700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>177400</v>
+        <v>127200</v>
       </c>
       <c r="E10" s="3">
-        <v>172000</v>
+        <v>171200</v>
       </c>
       <c r="F10" s="3">
-        <v>283900</v>
+        <v>166000</v>
       </c>
       <c r="G10" s="3">
+        <v>273900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>79000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>115400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K10" s="3">
+        <v>61000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>71600</v>
+      </c>
+      <c r="M10" s="3">
         <v>81900</v>
       </c>
-      <c r="H10" s="3">
-        <v>119600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>68700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>61000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>71600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>81900</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>121100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>49100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,61 +938,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="E12" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="F12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7600</v>
-      </c>
       <c r="I12" s="3">
-        <v>4500</v>
+        <v>7300</v>
       </c>
       <c r="J12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1031,61 +1048,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>16300</v>
+        <v>242500</v>
       </c>
       <c r="E14" s="3">
-        <v>134100</v>
+        <v>15800</v>
       </c>
       <c r="F14" s="3">
+        <v>129400</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2400</v>
       </c>
-      <c r="G14" s="3">
-        <v>5700</v>
-      </c>
       <c r="H14" s="3">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="I14" s="3">
-        <v>233700</v>
+        <v>1500</v>
       </c>
       <c r="J14" s="3">
+        <v>225400</v>
+      </c>
+      <c r="K14" s="3">
         <v>9700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>329500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>114400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-45900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>249300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1137,8 +1160,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1155,114 +1181,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1210200</v>
+        <v>1331000</v>
       </c>
       <c r="E17" s="3">
-        <v>1200700</v>
+        <v>1167600</v>
       </c>
       <c r="F17" s="3">
-        <v>948800</v>
+        <v>1158400</v>
       </c>
       <c r="G17" s="3">
-        <v>943100</v>
+        <v>915400</v>
       </c>
       <c r="H17" s="3">
-        <v>826000</v>
+        <v>909900</v>
       </c>
       <c r="I17" s="3">
-        <v>944400</v>
+        <v>796900</v>
       </c>
       <c r="J17" s="3">
+        <v>911200</v>
+      </c>
+      <c r="K17" s="3">
         <v>813500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1021500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>573700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>758500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>466400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>513000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>623000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>330900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>535400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>99600</v>
+        <v>-139600</v>
       </c>
       <c r="E18" s="3">
-        <v>1400</v>
+        <v>96100</v>
       </c>
       <c r="F18" s="3">
-        <v>339300</v>
+        <v>1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-121500</v>
+        <v>327400</v>
       </c>
       <c r="H18" s="3">
-        <v>97500</v>
+        <v>-117300</v>
       </c>
       <c r="I18" s="3">
-        <v>-161300</v>
+        <v>94100</v>
       </c>
       <c r="J18" s="3">
+        <v>-155700</v>
+      </c>
+      <c r="K18" s="3">
         <v>9300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-366200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-142500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>118600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>133000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-37700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-262000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1282,93 +1315,97 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2100</v>
+        <v>-9500</v>
       </c>
       <c r="E20" s="3">
-        <v>-13400</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="3">
-        <v>5500</v>
+        <v>-13000</v>
       </c>
       <c r="G20" s="3">
-        <v>-2800</v>
+        <v>5300</v>
       </c>
       <c r="H20" s="3">
-        <v>-8700</v>
+        <v>-2700</v>
       </c>
       <c r="I20" s="3">
-        <v>-9800</v>
+        <v>-8300</v>
       </c>
       <c r="J20" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>209700</v>
+        <v>-145500</v>
       </c>
       <c r="E21" s="3">
+        <v>202400</v>
+      </c>
+      <c r="F21" s="3">
         <v>2400</v>
       </c>
-      <c r="F21" s="3">
-        <v>453200</v>
-      </c>
       <c r="G21" s="3">
-        <v>-138900</v>
+        <v>437200</v>
       </c>
       <c r="H21" s="3">
-        <v>203800</v>
+        <v>-134000</v>
       </c>
       <c r="I21" s="3">
-        <v>-171700</v>
+        <v>196600</v>
       </c>
       <c r="J21" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="K21" s="3">
         <v>128200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-365400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>165000</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
@@ -1376,34 +1413,37 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>45400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-222400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
+      <c r="G22" s="3">
+        <v>7200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
@@ -1414,8 +1454,8 @@
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1441,114 +1481,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97700</v>
+        <v>-155200</v>
       </c>
       <c r="E23" s="3">
-        <v>-12100</v>
+        <v>94300</v>
       </c>
       <c r="F23" s="3">
-        <v>337400</v>
+        <v>-11600</v>
       </c>
       <c r="G23" s="3">
-        <v>-124400</v>
+        <v>325500</v>
       </c>
       <c r="H23" s="3">
-        <v>88800</v>
+        <v>-120000</v>
       </c>
       <c r="I23" s="3">
-        <v>-171200</v>
+        <v>85700</v>
       </c>
       <c r="J23" s="3">
+        <v>-165200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-369400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>82600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-141700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>119300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>134500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-39200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-263000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14000</v>
+        <v>-16100</v>
       </c>
       <c r="E24" s="3">
-        <v>29000</v>
+        <v>13500</v>
       </c>
       <c r="F24" s="3">
-        <v>62900</v>
+        <v>28000</v>
       </c>
       <c r="G24" s="3">
-        <v>5800</v>
+        <v>60700</v>
       </c>
       <c r="H24" s="3">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="I24" s="3">
-        <v>-11200</v>
+        <v>9000</v>
       </c>
       <c r="J24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-36700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-64500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-39800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1600,114 +1649,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83800</v>
+        <v>-139100</v>
       </c>
       <c r="E26" s="3">
-        <v>-41100</v>
+        <v>80800</v>
       </c>
       <c r="F26" s="3">
-        <v>274500</v>
+        <v>-39600</v>
       </c>
       <c r="G26" s="3">
-        <v>-130200</v>
+        <v>264800</v>
       </c>
       <c r="H26" s="3">
-        <v>79500</v>
+        <v>-125600</v>
       </c>
       <c r="I26" s="3">
-        <v>-160000</v>
+        <v>76700</v>
       </c>
       <c r="J26" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-332700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-77200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>91200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-36900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-223200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>82800</v>
+        <v>-140400</v>
       </c>
       <c r="E27" s="3">
-        <v>-41600</v>
+        <v>79800</v>
       </c>
       <c r="F27" s="3">
-        <v>272900</v>
+        <v>-40200</v>
       </c>
       <c r="G27" s="3">
-        <v>-131900</v>
+        <v>263300</v>
       </c>
       <c r="H27" s="3">
-        <v>79500</v>
+        <v>-127200</v>
       </c>
       <c r="I27" s="3">
-        <v>-160000</v>
+        <v>76700</v>
       </c>
       <c r="J27" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-332700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-77200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>91200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>93500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-36900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-223200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1759,8 +1817,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1812,8 +1873,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1865,8 +1929,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1918,114 +1985,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2100</v>
+        <v>9500</v>
       </c>
       <c r="E32" s="3">
-        <v>13400</v>
+        <v>-2000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5500</v>
+        <v>13000</v>
       </c>
       <c r="G32" s="3">
-        <v>2800</v>
+        <v>-5300</v>
       </c>
       <c r="H32" s="3">
-        <v>8700</v>
+        <v>2700</v>
       </c>
       <c r="I32" s="3">
-        <v>9800</v>
+        <v>8300</v>
       </c>
       <c r="J32" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K32" s="3">
         <v>7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>82800</v>
+        <v>-140400</v>
       </c>
       <c r="E33" s="3">
-        <v>-41600</v>
+        <v>79800</v>
       </c>
       <c r="F33" s="3">
-        <v>272900</v>
+        <v>-40200</v>
       </c>
       <c r="G33" s="3">
-        <v>-131900</v>
+        <v>263300</v>
       </c>
       <c r="H33" s="3">
-        <v>79500</v>
+        <v>-127200</v>
       </c>
       <c r="I33" s="3">
-        <v>-160000</v>
+        <v>76700</v>
       </c>
       <c r="J33" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-332700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-77200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>91200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>93500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-36900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-223200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2077,119 +2153,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>82800</v>
+        <v>-140400</v>
       </c>
       <c r="E35" s="3">
-        <v>-41600</v>
+        <v>79800</v>
       </c>
       <c r="F35" s="3">
-        <v>272900</v>
+        <v>-40200</v>
       </c>
       <c r="G35" s="3">
-        <v>-131900</v>
+        <v>263300</v>
       </c>
       <c r="H35" s="3">
-        <v>79500</v>
+        <v>-127200</v>
       </c>
       <c r="I35" s="3">
-        <v>-160000</v>
+        <v>76700</v>
       </c>
       <c r="J35" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-332700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-77200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>91200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>93500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-36900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-223200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2209,8 +2294,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2230,61 +2316,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175400</v>
+        <v>140900</v>
       </c>
       <c r="E41" s="3">
-        <v>168200</v>
+        <v>169300</v>
       </c>
       <c r="F41" s="3">
-        <v>251600</v>
+        <v>162300</v>
       </c>
       <c r="G41" s="3">
-        <v>379300</v>
+        <v>242800</v>
       </c>
       <c r="H41" s="3">
-        <v>74600</v>
+        <v>366000</v>
       </c>
       <c r="I41" s="3">
-        <v>59300</v>
+        <v>72000</v>
       </c>
       <c r="J41" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K41" s="3">
         <v>82800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>81700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>60000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>105300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>75600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2336,155 +2426,164 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112400</v>
+        <v>96800</v>
       </c>
       <c r="E43" s="3">
-        <v>98600</v>
+        <v>108500</v>
       </c>
       <c r="F43" s="3">
-        <v>88600</v>
+        <v>95100</v>
       </c>
       <c r="G43" s="3">
-        <v>78000</v>
+        <v>85500</v>
       </c>
       <c r="H43" s="3">
-        <v>78200</v>
+        <v>75300</v>
       </c>
       <c r="I43" s="3">
-        <v>63500</v>
+        <v>75500</v>
       </c>
       <c r="J43" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K43" s="3">
         <v>70900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>70600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>48600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>45900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>133100</v>
+        <v>162200</v>
       </c>
       <c r="E44" s="3">
-        <v>151700</v>
+        <v>128400</v>
       </c>
       <c r="F44" s="3">
-        <v>131200</v>
+        <v>146300</v>
       </c>
       <c r="G44" s="3">
-        <v>144500</v>
+        <v>126600</v>
       </c>
       <c r="H44" s="3">
-        <v>116500</v>
+        <v>139400</v>
       </c>
       <c r="I44" s="3">
-        <v>117400</v>
+        <v>112400</v>
       </c>
       <c r="J44" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K44" s="3">
         <v>107100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>109000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>90100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>73900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>95800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>78300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>86400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>89400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>91500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39700</v>
+        <v>31400</v>
       </c>
       <c r="E45" s="3">
-        <v>91800</v>
+        <v>38300</v>
       </c>
       <c r="F45" s="3">
-        <v>47100</v>
+        <v>88500</v>
       </c>
       <c r="G45" s="3">
-        <v>4800</v>
+        <v>45500</v>
       </c>
       <c r="H45" s="3">
-        <v>35300</v>
+        <v>4600</v>
       </c>
       <c r="I45" s="3">
-        <v>21100</v>
+        <v>34000</v>
       </c>
       <c r="J45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K45" s="3">
         <v>14700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>102200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1100</v>
       </c>
       <c r="Q45" s="3">
         <v>1100</v>
@@ -2493,222 +2592,237 @@
         <v>1100</v>
       </c>
       <c r="S45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>460700</v>
+        <v>431400</v>
       </c>
       <c r="E46" s="3">
-        <v>510200</v>
+        <v>444400</v>
       </c>
       <c r="F46" s="3">
-        <v>518600</v>
+        <v>492300</v>
       </c>
       <c r="G46" s="3">
-        <v>606600</v>
+        <v>500300</v>
       </c>
       <c r="H46" s="3">
-        <v>304600</v>
+        <v>585300</v>
       </c>
       <c r="I46" s="3">
-        <v>261200</v>
+        <v>293900</v>
       </c>
       <c r="J46" s="3">
+        <v>252000</v>
+      </c>
+      <c r="K46" s="3">
         <v>275600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>259000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>332100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>323500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>307200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>232800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>193400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>251300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>223200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26600</v>
+        <v>28700</v>
       </c>
       <c r="E47" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>33300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>30700</v>
+      </c>
+      <c r="I47" s="3">
         <v>27300</v>
       </c>
-      <c r="F47" s="3">
-        <v>34500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>31900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>28300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>26500</v>
-      </c>
       <c r="J47" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K47" s="3">
         <v>39000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6100</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>6000</v>
       </c>
       <c r="R47" s="3">
         <v>6000</v>
       </c>
       <c r="S47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2133800</v>
+        <v>1892400</v>
       </c>
       <c r="E48" s="3">
-        <v>2004700</v>
+        <v>2058700</v>
       </c>
       <c r="F48" s="3">
-        <v>2064500</v>
+        <v>1934200</v>
       </c>
       <c r="G48" s="3">
-        <v>1741500</v>
+        <v>1991800</v>
       </c>
       <c r="H48" s="3">
-        <v>1683200</v>
+        <v>1680200</v>
       </c>
       <c r="I48" s="3">
-        <v>1655800</v>
+        <v>1624000</v>
       </c>
       <c r="J48" s="3">
+        <v>1597500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1876300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1920500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2036200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1969700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1816300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2007600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2063100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2111000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2092600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20800</v>
+        <v>2800</v>
       </c>
       <c r="E49" s="3">
-        <v>21800</v>
+        <v>20100</v>
       </c>
       <c r="F49" s="3">
-        <v>32300</v>
+        <v>21000</v>
       </c>
       <c r="G49" s="3">
-        <v>32000</v>
+        <v>31200</v>
       </c>
       <c r="H49" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="I49" s="3">
-        <v>31800</v>
+        <v>30700</v>
       </c>
       <c r="J49" s="3">
         <v>30700</v>
       </c>
       <c r="K49" s="3">
+        <v>30700</v>
+      </c>
+      <c r="L49" s="3">
         <v>31900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>39500</v>
       </c>
       <c r="M49" s="3">
         <v>39500</v>
       </c>
       <c r="N49" s="3">
+        <v>39500</v>
+      </c>
+      <c r="O49" s="3">
         <v>51200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>58400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>62500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>62700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2760,8 +2874,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2813,61 +2930,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>343800</v>
+        <v>339400</v>
       </c>
       <c r="E52" s="3">
-        <v>348000</v>
+        <v>331700</v>
       </c>
       <c r="F52" s="3">
-        <v>379000</v>
+        <v>335700</v>
       </c>
       <c r="G52" s="3">
-        <v>254800</v>
+        <v>365600</v>
       </c>
       <c r="H52" s="3">
-        <v>222700</v>
+        <v>245800</v>
       </c>
       <c r="I52" s="3">
-        <v>216800</v>
+        <v>214900</v>
       </c>
       <c r="J52" s="3">
+        <v>209200</v>
+      </c>
+      <c r="K52" s="3">
         <v>215600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>215500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>209700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>201000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>197000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>174100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>173100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>176800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>174800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2919,61 +3042,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2985600</v>
+        <v>2694700</v>
       </c>
       <c r="E54" s="3">
-        <v>2912100</v>
+        <v>2880500</v>
       </c>
       <c r="F54" s="3">
-        <v>3017900</v>
+        <v>2809600</v>
       </c>
       <c r="G54" s="3">
-        <v>2666800</v>
+        <v>2911700</v>
       </c>
       <c r="H54" s="3">
-        <v>2270700</v>
+        <v>2572900</v>
       </c>
       <c r="I54" s="3">
-        <v>2192000</v>
+        <v>2190800</v>
       </c>
       <c r="J54" s="3">
+        <v>2114900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2421700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2448400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2638800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2549200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2382900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2484700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2495800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2607500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2559200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>230400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2993,8 +3122,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3014,155 +3144,162 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>250400</v>
+        <v>258700</v>
       </c>
       <c r="E57" s="3">
-        <v>261900</v>
+        <v>241600</v>
       </c>
       <c r="F57" s="3">
-        <v>234100</v>
+        <v>252700</v>
       </c>
       <c r="G57" s="3">
-        <v>179400</v>
+        <v>225900</v>
       </c>
       <c r="H57" s="3">
-        <v>174500</v>
+        <v>173100</v>
       </c>
       <c r="I57" s="3">
-        <v>171600</v>
+        <v>168400</v>
       </c>
       <c r="J57" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K57" s="3">
         <v>175800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>167500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>148500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>131800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>125100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>113500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>112500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>129600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>117600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F58" s="3">
         <v>22300</v>
       </c>
-      <c r="E58" s="3">
-        <v>23100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>23300</v>
-      </c>
       <c r="G58" s="3">
-        <v>15200</v>
+        <v>22500</v>
       </c>
       <c r="H58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42700</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>120200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>20100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20500</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35400</v>
+        <v>26300</v>
       </c>
       <c r="E59" s="3">
-        <v>46400</v>
+        <v>34100</v>
       </c>
       <c r="F59" s="3">
-        <v>130800</v>
+        <v>44700</v>
       </c>
       <c r="G59" s="3">
-        <v>256500</v>
+        <v>126200</v>
       </c>
       <c r="H59" s="3">
-        <v>42100</v>
+        <v>247500</v>
       </c>
       <c r="I59" s="3">
-        <v>16100</v>
+        <v>40600</v>
       </c>
       <c r="J59" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K59" s="3">
         <v>18100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3173,167 +3310,179 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>308100</v>
+        <v>286400</v>
       </c>
       <c r="E60" s="3">
-        <v>331300</v>
+        <v>297300</v>
       </c>
       <c r="F60" s="3">
-        <v>388200</v>
+        <v>319700</v>
       </c>
       <c r="G60" s="3">
-        <v>451100</v>
+        <v>374600</v>
       </c>
       <c r="H60" s="3">
-        <v>221800</v>
+        <v>435200</v>
       </c>
       <c r="I60" s="3">
-        <v>193000</v>
+        <v>214000</v>
       </c>
       <c r="J60" s="3">
+        <v>186200</v>
+      </c>
+      <c r="K60" s="3">
         <v>199400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>223000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>150200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>252000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>129000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>136300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>133100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>129700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>117600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>189600</v>
+        <v>183100</v>
       </c>
       <c r="E61" s="3">
-        <v>177500</v>
+        <v>183000</v>
       </c>
       <c r="F61" s="3">
-        <v>263000</v>
+        <v>171200</v>
       </c>
       <c r="G61" s="3">
-        <v>445300</v>
+        <v>253700</v>
       </c>
       <c r="H61" s="3">
-        <v>325400</v>
+        <v>429600</v>
       </c>
       <c r="I61" s="3">
-        <v>347600</v>
+        <v>314000</v>
       </c>
       <c r="J61" s="3">
+        <v>335400</v>
+      </c>
+      <c r="K61" s="3">
         <v>350300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>305000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>168800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>89200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>136800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>211900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>292400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>240700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>545400</v>
+        <v>491400</v>
       </c>
       <c r="E62" s="3">
-        <v>540700</v>
+        <v>526200</v>
       </c>
       <c r="F62" s="3">
-        <v>641800</v>
+        <v>521700</v>
       </c>
       <c r="G62" s="3">
-        <v>375600</v>
+        <v>619200</v>
       </c>
       <c r="H62" s="3">
-        <v>303800</v>
+        <v>362300</v>
       </c>
       <c r="I62" s="3">
-        <v>302000</v>
+        <v>293100</v>
       </c>
       <c r="J62" s="3">
+        <v>291400</v>
+      </c>
+      <c r="K62" s="3">
         <v>344900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>348000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>362800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>357200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>341500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>320800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>308500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>309400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>306200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3385,8 +3534,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3438,8 +3590,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3491,61 +3646,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1047000</v>
+        <v>965400</v>
       </c>
       <c r="E66" s="3">
-        <v>1052800</v>
+        <v>1010100</v>
       </c>
       <c r="F66" s="3">
-        <v>1242500</v>
+        <v>1015700</v>
       </c>
       <c r="G66" s="3">
-        <v>1272200</v>
+        <v>1198800</v>
       </c>
       <c r="H66" s="3">
-        <v>850700</v>
+        <v>1227400</v>
       </c>
       <c r="I66" s="3">
-        <v>842700</v>
+        <v>820800</v>
       </c>
       <c r="J66" s="3">
+        <v>813000</v>
+      </c>
+      <c r="K66" s="3">
         <v>894600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>876000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>681800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>628900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>559600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>593900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>653500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>731500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>664600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3565,8 +3726,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3618,8 +3780,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3671,8 +3836,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3724,8 +3892,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3777,61 +3948,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-26600</v>
+        <v>-166700</v>
       </c>
       <c r="E72" s="3">
-        <v>-105900</v>
+        <v>-25600</v>
       </c>
       <c r="F72" s="3">
-        <v>-189900</v>
+        <v>-102100</v>
       </c>
       <c r="G72" s="3">
-        <v>-570800</v>
+        <v>-183200</v>
       </c>
       <c r="H72" s="3">
-        <v>-343300</v>
+        <v>-550700</v>
       </c>
       <c r="I72" s="3">
-        <v>-413900</v>
+        <v>-331300</v>
       </c>
       <c r="J72" s="3">
+        <v>-399400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-236200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-245200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>92900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>62600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>143600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-129900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-111300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3883,8 +4060,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3936,8 +4116,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3989,61 +4172,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1938600</v>
+        <v>1729300</v>
       </c>
       <c r="E76" s="3">
-        <v>1859300</v>
+        <v>1870400</v>
       </c>
       <c r="F76" s="3">
-        <v>1775400</v>
+        <v>1793900</v>
       </c>
       <c r="G76" s="3">
-        <v>1394500</v>
+        <v>1712900</v>
       </c>
       <c r="H76" s="3">
-        <v>1420000</v>
+        <v>1345500</v>
       </c>
       <c r="I76" s="3">
-        <v>1349400</v>
+        <v>1370000</v>
       </c>
       <c r="J76" s="3">
+        <v>1301900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1527100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1572400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1957000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1920300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1823300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1890800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1842300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1876000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1894600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4095,119 +4284,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>82800</v>
+        <v>-140400</v>
       </c>
       <c r="E81" s="3">
-        <v>-41600</v>
+        <v>79800</v>
       </c>
       <c r="F81" s="3">
-        <v>272900</v>
+        <v>-40200</v>
       </c>
       <c r="G81" s="3">
-        <v>-131900</v>
+        <v>263300</v>
       </c>
       <c r="H81" s="3">
-        <v>79500</v>
+        <v>-127200</v>
       </c>
       <c r="I81" s="3">
-        <v>-160000</v>
+        <v>76700</v>
       </c>
       <c r="J81" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-332700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-77200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>91200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>93500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-36900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-223200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4227,8 +4425,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4280,8 +4479,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4333,8 +4535,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4386,8 +4591,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4439,8 +4647,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4492,8 +4703,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4545,61 +4759,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2009700</v>
+        <v>-1540400</v>
       </c>
       <c r="E89" s="3">
-        <v>202900</v>
+        <v>1939000</v>
       </c>
       <c r="F89" s="3">
-        <v>344800</v>
+        <v>195700</v>
       </c>
       <c r="G89" s="3">
-        <v>118700</v>
+        <v>332700</v>
       </c>
       <c r="H89" s="3">
-        <v>163100</v>
+        <v>114600</v>
       </c>
       <c r="I89" s="3">
-        <v>121100</v>
+        <v>157300</v>
       </c>
       <c r="J89" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K89" s="3">
         <v>158100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>127100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>120500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>123900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>113500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>184600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>120800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>132800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4619,61 +4839,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-189200</v>
+        <v>-175200</v>
       </c>
       <c r="E91" s="3">
-        <v>-165600</v>
+        <v>-182500</v>
       </c>
       <c r="F91" s="3">
-        <v>-141200</v>
+        <v>-159800</v>
       </c>
       <c r="G91" s="3">
-        <v>-79500</v>
+        <v>-136200</v>
       </c>
       <c r="H91" s="3">
-        <v>-135500</v>
+        <v>-76700</v>
       </c>
       <c r="I91" s="3">
-        <v>-157200</v>
+        <v>-130700</v>
       </c>
       <c r="J91" s="3">
+        <v>-151700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-143200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-123700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-168700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-161000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-85000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-84900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-80100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-187500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4725,8 +4949,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4778,61 +5005,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1976300</v>
+        <v>1549800</v>
       </c>
       <c r="E94" s="3">
-        <v>-166700</v>
+        <v>-1906700</v>
       </c>
       <c r="F94" s="3">
-        <v>-338300</v>
+        <v>-160900</v>
       </c>
       <c r="G94" s="3">
-        <v>-79700</v>
+        <v>-326400</v>
       </c>
       <c r="H94" s="3">
-        <v>-132600</v>
+        <v>-76900</v>
       </c>
       <c r="I94" s="3">
-        <v>-146500</v>
+        <v>-128000</v>
       </c>
       <c r="J94" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-139700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-340200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-170000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-158300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-96200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-79800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-42300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-192100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4852,16 +5085,17 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10300</v>
+        <v>-14800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4882,17 +5116,17 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-10100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-12900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4905,8 +5139,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4958,8 +5195,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5011,8 +5251,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5064,163 +5307,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-26400</v>
+        <v>-40800</v>
       </c>
       <c r="E100" s="3">
-        <v>-127400</v>
+        <v>-25400</v>
       </c>
       <c r="F100" s="3">
-        <v>-129100</v>
+        <v>-122900</v>
       </c>
       <c r="G100" s="3">
-        <v>273900</v>
+        <v>-124600</v>
       </c>
       <c r="H100" s="3">
-        <v>-17000</v>
+        <v>264200</v>
       </c>
       <c r="I100" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>196300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>31300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-55000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-62300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>7800</v>
-      </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>7500</v>
       </c>
       <c r="G101" s="3">
-        <v>-8200</v>
+        <v>-4900</v>
       </c>
       <c r="H101" s="3">
-        <v>1900</v>
+        <v>-7900</v>
       </c>
       <c r="I101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7200</v>
+        <v>-28300</v>
       </c>
       <c r="E102" s="3">
-        <v>-83400</v>
+        <v>7000</v>
       </c>
       <c r="F102" s="3">
-        <v>-127700</v>
+        <v>-80500</v>
       </c>
       <c r="G102" s="3">
-        <v>304700</v>
+        <v>-123200</v>
       </c>
       <c r="H102" s="3">
-        <v>15300</v>
+        <v>294000</v>
       </c>
       <c r="I102" s="3">
-        <v>-23600</v>
+        <v>14800</v>
       </c>
       <c r="J102" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K102" s="3">
         <v>40700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>29700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-45900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>HMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,260 +665,273 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42277</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1191400</v>
+        <v>72300</v>
       </c>
       <c r="E8" s="3">
-        <v>1263700</v>
+        <v>1114800</v>
       </c>
       <c r="F8" s="3">
-        <v>1159700</v>
+        <v>1182500</v>
       </c>
       <c r="G8" s="3">
-        <v>1242800</v>
+        <v>1085200</v>
       </c>
       <c r="H8" s="3">
-        <v>792600</v>
+        <v>1162900</v>
       </c>
       <c r="I8" s="3">
-        <v>891000</v>
+        <v>741700</v>
       </c>
       <c r="J8" s="3">
+        <v>833700</v>
+      </c>
+      <c r="K8" s="3">
         <v>755500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>822800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>655200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>649600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>616000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>585000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>646000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>596800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>293200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>273400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1064200</v>
+        <v>63000</v>
       </c>
       <c r="E9" s="3">
-        <v>1092600</v>
+        <v>995800</v>
       </c>
       <c r="F9" s="3">
-        <v>993800</v>
+        <v>1022300</v>
       </c>
       <c r="G9" s="3">
-        <v>969000</v>
+        <v>929900</v>
       </c>
       <c r="H9" s="3">
-        <v>713600</v>
+        <v>906700</v>
       </c>
       <c r="I9" s="3">
-        <v>775600</v>
+        <v>667800</v>
       </c>
       <c r="J9" s="3">
+        <v>725700</v>
+      </c>
+      <c r="K9" s="3">
         <v>689200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>761800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>583700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>567700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>579700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>533800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>524900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>547700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>289500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>270700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>127200</v>
+        <v>9400</v>
       </c>
       <c r="E10" s="3">
-        <v>171200</v>
+        <v>119000</v>
       </c>
       <c r="F10" s="3">
-        <v>166000</v>
+        <v>160200</v>
       </c>
       <c r="G10" s="3">
-        <v>273900</v>
+        <v>155300</v>
       </c>
       <c r="H10" s="3">
-        <v>79000</v>
+        <v>256300</v>
       </c>
       <c r="I10" s="3">
-        <v>115400</v>
+        <v>73900</v>
       </c>
       <c r="J10" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K10" s="3">
         <v>66300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>81900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>121100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>49100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,64 +952,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6500</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="F12" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="G12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="H12" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1051,64 +1068,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>242500</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>15800</v>
+        <v>227000</v>
       </c>
       <c r="F14" s="3">
-        <v>129400</v>
+        <v>14800</v>
       </c>
       <c r="G14" s="3">
-        <v>-2400</v>
+        <v>121100</v>
       </c>
       <c r="H14" s="3">
-        <v>5500</v>
+        <v>-2200</v>
       </c>
       <c r="I14" s="3">
-        <v>1500</v>
+        <v>5100</v>
       </c>
       <c r="J14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K14" s="3">
         <v>225400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>329500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>114400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-45900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>249300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,8 +1186,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1182,120 +1208,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>1331000</v>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="3">
-        <v>1167600</v>
+        <v>1245400</v>
       </c>
       <c r="F17" s="3">
-        <v>1158400</v>
+        <v>1092500</v>
       </c>
       <c r="G17" s="3">
-        <v>915400</v>
+        <v>1084000</v>
       </c>
       <c r="H17" s="3">
-        <v>909900</v>
+        <v>856600</v>
       </c>
       <c r="I17" s="3">
-        <v>796900</v>
+        <v>851400</v>
       </c>
       <c r="J17" s="3">
+        <v>745700</v>
+      </c>
+      <c r="K17" s="3">
         <v>911200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>813500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1021500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>573700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>758500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>466400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>513000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>623000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>330900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>535400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>-139600</v>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E18" s="3">
-        <v>96100</v>
+        <v>-130600</v>
       </c>
       <c r="F18" s="3">
-        <v>1300</v>
+        <v>90000</v>
       </c>
       <c r="G18" s="3">
-        <v>327400</v>
+        <v>1200</v>
       </c>
       <c r="H18" s="3">
-        <v>-117300</v>
+        <v>306400</v>
       </c>
       <c r="I18" s="3">
-        <v>94100</v>
+        <v>-109700</v>
       </c>
       <c r="J18" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-155700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-366200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-142500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>118600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>133000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-37700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-262000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1316,99 +1349,103 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9500</v>
       </c>
-      <c r="E20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>900</v>
+      </c>
+      <c r="P20" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>6700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>-145500</v>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E21" s="3">
-        <v>202400</v>
+        <v>-136100</v>
       </c>
       <c r="F21" s="3">
-        <v>2400</v>
+        <v>189400</v>
       </c>
       <c r="G21" s="3">
-        <v>437200</v>
+        <v>2200</v>
       </c>
       <c r="H21" s="3">
-        <v>-134000</v>
+        <v>409100</v>
       </c>
       <c r="I21" s="3">
-        <v>196600</v>
+        <v>-125400</v>
       </c>
       <c r="J21" s="3">
+        <v>184000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-165600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-365400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>165000</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
@@ -1416,37 +1453,40 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>45400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-222400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6100</v>
+        <v>1800</v>
       </c>
       <c r="E22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>5700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
+      <c r="H22" s="3">
+        <v>6700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
@@ -1457,8 +1497,8 @@
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1484,120 +1524,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-155200</v>
+        <v>7400</v>
       </c>
       <c r="E23" s="3">
-        <v>94300</v>
+        <v>-145200</v>
       </c>
       <c r="F23" s="3">
-        <v>-11600</v>
+        <v>88200</v>
       </c>
       <c r="G23" s="3">
-        <v>325500</v>
+        <v>-10900</v>
       </c>
       <c r="H23" s="3">
-        <v>-120000</v>
+        <v>304600</v>
       </c>
       <c r="I23" s="3">
-        <v>85700</v>
+        <v>-112300</v>
       </c>
       <c r="J23" s="3">
+        <v>80200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-165200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-369400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>82600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-141700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>119300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>134500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-39200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-263000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-16100</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="3">
-        <v>13500</v>
+        <v>-15100</v>
       </c>
       <c r="F24" s="3">
-        <v>28000</v>
+        <v>12600</v>
       </c>
       <c r="G24" s="3">
-        <v>60700</v>
+        <v>26200</v>
       </c>
       <c r="H24" s="3">
-        <v>5600</v>
+        <v>56800</v>
       </c>
       <c r="I24" s="3">
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="J24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-10800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-36700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-64500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-39800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1652,120 +1701,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-139100</v>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E26" s="3">
-        <v>80800</v>
+        <v>-130100</v>
       </c>
       <c r="F26" s="3">
-        <v>-39600</v>
+        <v>75600</v>
       </c>
       <c r="G26" s="3">
-        <v>264800</v>
+        <v>-37100</v>
       </c>
       <c r="H26" s="3">
-        <v>-125600</v>
+        <v>247800</v>
       </c>
       <c r="I26" s="3">
-        <v>76700</v>
+        <v>-117500</v>
       </c>
       <c r="J26" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-154400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-332700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>59000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-77200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>91200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-36900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-223200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-140400</v>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E27" s="3">
-        <v>79800</v>
+        <v>-131400</v>
       </c>
       <c r="F27" s="3">
-        <v>-40200</v>
+        <v>74700</v>
       </c>
       <c r="G27" s="3">
-        <v>263300</v>
+        <v>-37600</v>
       </c>
       <c r="H27" s="3">
-        <v>-127200</v>
+        <v>246300</v>
       </c>
       <c r="I27" s="3">
-        <v>76700</v>
+        <v>-119100</v>
       </c>
       <c r="J27" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-154400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-332700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>59000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-77200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>91200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>93500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-30500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-36900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-223200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,8 +1878,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1876,8 +1937,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1932,8 +1996,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1988,120 +2055,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K32" s="3">
         <v>9500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>7600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>3200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-140400</v>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E33" s="3">
-        <v>79800</v>
+        <v>-131400</v>
       </c>
       <c r="F33" s="3">
-        <v>-40200</v>
+        <v>74700</v>
       </c>
       <c r="G33" s="3">
-        <v>263300</v>
+        <v>-37600</v>
       </c>
       <c r="H33" s="3">
-        <v>-127200</v>
+        <v>246300</v>
       </c>
       <c r="I33" s="3">
-        <v>76700</v>
+        <v>-119100</v>
       </c>
       <c r="J33" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-154400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-332700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-77200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>91200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>93500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-30500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-36900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-223200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2156,125 +2232,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-140400</v>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E35" s="3">
-        <v>79800</v>
+        <v>-131400</v>
       </c>
       <c r="F35" s="3">
-        <v>-40200</v>
+        <v>74700</v>
       </c>
       <c r="G35" s="3">
-        <v>263300</v>
+        <v>-37600</v>
       </c>
       <c r="H35" s="3">
-        <v>-127200</v>
+        <v>246300</v>
       </c>
       <c r="I35" s="3">
-        <v>76700</v>
+        <v>-119100</v>
       </c>
       <c r="J35" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-154400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-332700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-77200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>91200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>93500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-30500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-36900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-223200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42277</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2295,8 +2380,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2317,64 +2403,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>140900</v>
+        <v>6900</v>
       </c>
       <c r="E41" s="3">
-        <v>169300</v>
+        <v>131900</v>
       </c>
       <c r="F41" s="3">
-        <v>162300</v>
+        <v>158400</v>
       </c>
       <c r="G41" s="3">
-        <v>242800</v>
+        <v>151900</v>
       </c>
       <c r="H41" s="3">
-        <v>366000</v>
+        <v>227200</v>
       </c>
       <c r="I41" s="3">
+        <v>342500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K41" s="3">
+        <v>57200</v>
+      </c>
+      <c r="L41" s="3">
+        <v>82800</v>
+      </c>
+      <c r="M41" s="3">
+        <v>43700</v>
+      </c>
+      <c r="N41" s="3">
+        <v>69400</v>
+      </c>
+      <c r="O41" s="3">
+        <v>81700</v>
+      </c>
+      <c r="P41" s="3">
         <v>72000</v>
       </c>
-      <c r="J41" s="3">
-        <v>57200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>82800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>43700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>69400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>81700</v>
-      </c>
-      <c r="O41" s="3">
-        <v>72000</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>84300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>60000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>105300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>75600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2429,164 +2519,173 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>96800</v>
+        <v>7400</v>
       </c>
       <c r="E43" s="3">
-        <v>108500</v>
+        <v>90600</v>
       </c>
       <c r="F43" s="3">
-        <v>95100</v>
+        <v>101500</v>
       </c>
       <c r="G43" s="3">
-        <v>85500</v>
+        <v>89000</v>
       </c>
       <c r="H43" s="3">
-        <v>75300</v>
+        <v>80000</v>
       </c>
       <c r="I43" s="3">
-        <v>75500</v>
+        <v>70500</v>
       </c>
       <c r="J43" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K43" s="3">
         <v>61300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>70900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>70600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>48600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>45900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>55000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>162200</v>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E44" s="3">
-        <v>128400</v>
+        <v>151800</v>
       </c>
       <c r="F44" s="3">
-        <v>146300</v>
+        <v>120100</v>
       </c>
       <c r="G44" s="3">
-        <v>126600</v>
+        <v>136900</v>
       </c>
       <c r="H44" s="3">
-        <v>139400</v>
+        <v>118500</v>
       </c>
       <c r="I44" s="3">
-        <v>112400</v>
+        <v>130400</v>
       </c>
       <c r="J44" s="3">
+        <v>105200</v>
+      </c>
+      <c r="K44" s="3">
         <v>113200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>107100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>109000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>90100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>73900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>95800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>78300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>86400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>89400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>91500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31400</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
-        <v>38300</v>
+        <v>29400</v>
       </c>
       <c r="F45" s="3">
-        <v>88500</v>
+        <v>35900</v>
       </c>
       <c r="G45" s="3">
-        <v>45500</v>
+        <v>82900</v>
       </c>
       <c r="H45" s="3">
-        <v>4600</v>
+        <v>42600</v>
       </c>
       <c r="I45" s="3">
-        <v>34000</v>
+        <v>4300</v>
       </c>
       <c r="J45" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K45" s="3">
         <v>20300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>107300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>102200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25900</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1100</v>
       </c>
       <c r="R45" s="3">
         <v>1100</v>
@@ -2595,234 +2694,249 @@
         <v>1100</v>
       </c>
       <c r="T45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>431400</v>
+        <v>24200</v>
       </c>
       <c r="E46" s="3">
-        <v>444400</v>
+        <v>403700</v>
       </c>
       <c r="F46" s="3">
-        <v>492300</v>
+        <v>415900</v>
       </c>
       <c r="G46" s="3">
-        <v>500300</v>
+        <v>460600</v>
       </c>
       <c r="H46" s="3">
-        <v>585300</v>
+        <v>468200</v>
       </c>
       <c r="I46" s="3">
-        <v>293900</v>
+        <v>547600</v>
       </c>
       <c r="J46" s="3">
+        <v>275000</v>
+      </c>
+      <c r="K46" s="3">
         <v>252000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>275600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>259000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>332100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>323500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>307200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>232800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>193400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>251300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>223200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28700</v>
+        <v>1400</v>
       </c>
       <c r="E47" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>24700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>31100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K47" s="3">
         <v>25600</v>
       </c>
-      <c r="F47" s="3">
-        <v>26400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>33300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>30700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>27300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>25600</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6100</v>
-      </c>
-      <c r="R47" s="3">
-        <v>6000</v>
       </c>
       <c r="S47" s="3">
         <v>6000</v>
       </c>
       <c r="T47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U47" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>1892400</v>
+      <c r="D48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E48" s="3">
-        <v>2058700</v>
+        <v>1770800</v>
       </c>
       <c r="F48" s="3">
-        <v>1934200</v>
+        <v>1926400</v>
       </c>
       <c r="G48" s="3">
-        <v>1991800</v>
+        <v>1809900</v>
       </c>
       <c r="H48" s="3">
-        <v>1680200</v>
+        <v>1863800</v>
       </c>
       <c r="I48" s="3">
-        <v>1624000</v>
+        <v>1572200</v>
       </c>
       <c r="J48" s="3">
+        <v>1519600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1597500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1876300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1920500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2036200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1969700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1816300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2007600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2063100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2111000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2092600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>192100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>20100</v>
+        <v>2600</v>
       </c>
       <c r="F49" s="3">
-        <v>21000</v>
+        <v>18800</v>
       </c>
       <c r="G49" s="3">
-        <v>31200</v>
+        <v>19700</v>
       </c>
       <c r="H49" s="3">
-        <v>30900</v>
+        <v>29200</v>
       </c>
       <c r="I49" s="3">
-        <v>30700</v>
+        <v>28900</v>
       </c>
       <c r="J49" s="3">
-        <v>30700</v>
+        <v>28800</v>
       </c>
       <c r="K49" s="3">
         <v>30700</v>
       </c>
       <c r="L49" s="3">
+        <v>30700</v>
+      </c>
+      <c r="M49" s="3">
         <v>31900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>39500</v>
       </c>
       <c r="N49" s="3">
         <v>39500</v>
       </c>
       <c r="O49" s="3">
+        <v>39500</v>
+      </c>
+      <c r="P49" s="3">
         <v>51200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>58400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>60200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>62500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>62700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2877,8 +2991,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2933,64 +3050,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>339400</v>
+        <v>9800</v>
       </c>
       <c r="E52" s="3">
-        <v>331700</v>
+        <v>317600</v>
       </c>
       <c r="F52" s="3">
-        <v>335700</v>
+        <v>310300</v>
       </c>
       <c r="G52" s="3">
-        <v>365600</v>
+        <v>314200</v>
       </c>
       <c r="H52" s="3">
-        <v>245800</v>
+        <v>342100</v>
       </c>
       <c r="I52" s="3">
-        <v>214900</v>
+        <v>230000</v>
       </c>
       <c r="J52" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K52" s="3">
         <v>209200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>215600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>215500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>209700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>201000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>197000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>174100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>173100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>176800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>174800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3045,64 +3168,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2694700</v>
+        <v>168900</v>
       </c>
       <c r="E54" s="3">
-        <v>2880500</v>
+        <v>2521500</v>
       </c>
       <c r="F54" s="3">
-        <v>2809600</v>
+        <v>2695400</v>
       </c>
       <c r="G54" s="3">
-        <v>2911700</v>
+        <v>2629000</v>
       </c>
       <c r="H54" s="3">
-        <v>2572900</v>
+        <v>2724500</v>
       </c>
       <c r="I54" s="3">
-        <v>2190800</v>
+        <v>2407600</v>
       </c>
       <c r="J54" s="3">
+        <v>2050000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2114900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2421700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2448400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2638800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2549200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2382900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2484700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2495800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2607500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2559200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>230400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3123,8 +3252,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3145,164 +3275,171 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>258700</v>
+        <v>14500</v>
       </c>
       <c r="E57" s="3">
-        <v>241600</v>
+        <v>242100</v>
       </c>
       <c r="F57" s="3">
-        <v>252700</v>
+        <v>226100</v>
       </c>
       <c r="G57" s="3">
-        <v>225900</v>
+        <v>236400</v>
       </c>
       <c r="H57" s="3">
-        <v>173100</v>
+        <v>211400</v>
       </c>
       <c r="I57" s="3">
-        <v>168400</v>
+        <v>161900</v>
       </c>
       <c r="J57" s="3">
+        <v>157600</v>
+      </c>
+      <c r="K57" s="3">
         <v>165500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>175800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>167500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>148500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>131800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>125100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>113500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>112500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>129600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>117600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>1400</v>
+      <c r="D58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E58" s="3">
-        <v>21500</v>
+        <v>1300</v>
       </c>
       <c r="F58" s="3">
-        <v>22300</v>
+        <v>20100</v>
       </c>
       <c r="G58" s="3">
-        <v>22500</v>
+        <v>20800</v>
       </c>
       <c r="H58" s="3">
-        <v>14700</v>
+        <v>21000</v>
       </c>
       <c r="I58" s="3">
-        <v>5000</v>
+        <v>13700</v>
       </c>
       <c r="J58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42700</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>120200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>20100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20500</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26300</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>34100</v>
+        <v>24600</v>
       </c>
       <c r="F59" s="3">
-        <v>44700</v>
+        <v>31900</v>
       </c>
       <c r="G59" s="3">
-        <v>126200</v>
+        <v>41900</v>
       </c>
       <c r="H59" s="3">
-        <v>247500</v>
+        <v>118100</v>
       </c>
       <c r="I59" s="3">
-        <v>40600</v>
+        <v>231600</v>
       </c>
       <c r="J59" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K59" s="3">
         <v>15500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3313,176 +3450,188 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>286400</v>
+        <v>15900</v>
       </c>
       <c r="E60" s="3">
-        <v>297300</v>
+        <v>268000</v>
       </c>
       <c r="F60" s="3">
-        <v>319700</v>
+        <v>278200</v>
       </c>
       <c r="G60" s="3">
-        <v>374600</v>
+        <v>299100</v>
       </c>
       <c r="H60" s="3">
-        <v>435200</v>
+        <v>350500</v>
       </c>
       <c r="I60" s="3">
-        <v>214000</v>
+        <v>407300</v>
       </c>
       <c r="J60" s="3">
+        <v>200200</v>
+      </c>
+      <c r="K60" s="3">
         <v>186200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>199400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>223000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>150200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>252000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>129000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>136300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>133100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>129700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>117600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>183100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>183000</v>
+        <v>171300</v>
       </c>
       <c r="F61" s="3">
         <v>171200</v>
       </c>
       <c r="G61" s="3">
-        <v>253700</v>
+        <v>160200</v>
       </c>
       <c r="H61" s="3">
-        <v>429600</v>
+        <v>237400</v>
       </c>
       <c r="I61" s="3">
-        <v>314000</v>
+        <v>402000</v>
       </c>
       <c r="J61" s="3">
+        <v>293800</v>
+      </c>
+      <c r="K61" s="3">
         <v>335400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>350300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>305000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>168800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>89200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>136800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>211900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>292400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>240700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>491400</v>
+        <v>27300</v>
       </c>
       <c r="E62" s="3">
-        <v>526200</v>
+        <v>459800</v>
       </c>
       <c r="F62" s="3">
-        <v>521700</v>
+        <v>492400</v>
       </c>
       <c r="G62" s="3">
-        <v>619200</v>
+        <v>488200</v>
       </c>
       <c r="H62" s="3">
-        <v>362300</v>
+        <v>579400</v>
       </c>
       <c r="I62" s="3">
-        <v>293100</v>
+        <v>339100</v>
       </c>
       <c r="J62" s="3">
+        <v>274300</v>
+      </c>
+      <c r="K62" s="3">
         <v>291400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>344900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>348000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>362800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>357200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>341500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>320800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>308500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>309400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>306200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3537,8 +3686,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3593,8 +3745,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3649,64 +3804,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>965400</v>
+        <v>68300</v>
       </c>
       <c r="E66" s="3">
-        <v>1010100</v>
+        <v>903300</v>
       </c>
       <c r="F66" s="3">
-        <v>1015700</v>
+        <v>945200</v>
       </c>
       <c r="G66" s="3">
-        <v>1198800</v>
+        <v>950400</v>
       </c>
       <c r="H66" s="3">
-        <v>1227400</v>
+        <v>1121700</v>
       </c>
       <c r="I66" s="3">
-        <v>820800</v>
+        <v>1148600</v>
       </c>
       <c r="J66" s="3">
+        <v>768000</v>
+      </c>
+      <c r="K66" s="3">
         <v>813000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>894600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>876000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>681800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>628900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>559600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>593900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>653500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>731500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>664600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3727,8 +3888,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3783,8 +3945,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3839,8 +4004,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3895,8 +4063,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3951,64 +4122,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-166700</v>
+        <v>-3900</v>
       </c>
       <c r="E72" s="3">
-        <v>-25600</v>
+        <v>-156000</v>
       </c>
       <c r="F72" s="3">
-        <v>-102100</v>
+        <v>-24000</v>
       </c>
       <c r="G72" s="3">
-        <v>-183200</v>
+        <v>-95600</v>
       </c>
       <c r="H72" s="3">
-        <v>-550700</v>
+        <v>-171400</v>
       </c>
       <c r="I72" s="3">
-        <v>-331300</v>
+        <v>-515300</v>
       </c>
       <c r="J72" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-399400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-236200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-245200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>92900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>62600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>143600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-99000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-129900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-111300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4063,8 +4240,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4119,8 +4299,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4175,64 +4358,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1729300</v>
+        <v>100700</v>
       </c>
       <c r="E76" s="3">
-        <v>1870400</v>
+        <v>1618200</v>
       </c>
       <c r="F76" s="3">
-        <v>1793900</v>
+        <v>1750200</v>
       </c>
       <c r="G76" s="3">
-        <v>1712900</v>
+        <v>1678600</v>
       </c>
       <c r="H76" s="3">
-        <v>1345500</v>
+        <v>1602800</v>
       </c>
       <c r="I76" s="3">
-        <v>1370000</v>
+        <v>1259000</v>
       </c>
       <c r="J76" s="3">
+        <v>1281900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1301900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1527100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1572400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1957000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1920300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1823300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1890800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1842300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1876000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1894600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>174200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4287,125 +4476,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42277</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-140400</v>
+      <c r="D81" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E81" s="3">
-        <v>79800</v>
+        <v>-131400</v>
       </c>
       <c r="F81" s="3">
-        <v>-40200</v>
+        <v>74700</v>
       </c>
       <c r="G81" s="3">
-        <v>263300</v>
+        <v>-37600</v>
       </c>
       <c r="H81" s="3">
-        <v>-127200</v>
+        <v>246300</v>
       </c>
       <c r="I81" s="3">
-        <v>76700</v>
+        <v>-119100</v>
       </c>
       <c r="J81" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-154400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-332700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-77200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>91200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>93500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-30500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-36900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-223200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4426,8 +4624,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4482,8 +4681,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4538,8 +4740,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4594,8 +4799,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4650,8 +4858,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4706,8 +4917,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4762,64 +4976,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1540400</v>
+        <v>9500</v>
       </c>
       <c r="E89" s="3">
-        <v>1939000</v>
+        <v>-1441400</v>
       </c>
       <c r="F89" s="3">
-        <v>195700</v>
+        <v>1814400</v>
       </c>
       <c r="G89" s="3">
-        <v>332700</v>
+        <v>183200</v>
       </c>
       <c r="H89" s="3">
-        <v>114600</v>
+        <v>311300</v>
       </c>
       <c r="I89" s="3">
-        <v>157300</v>
+        <v>107200</v>
       </c>
       <c r="J89" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K89" s="3">
         <v>116800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>158100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>127100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>120500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>123900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>113500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>184600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>120800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>132800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4840,64 +5060,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-175200</v>
+        <v>-11400</v>
       </c>
       <c r="E91" s="3">
-        <v>-182500</v>
+        <v>-164000</v>
       </c>
       <c r="F91" s="3">
-        <v>-159800</v>
+        <v>-170800</v>
       </c>
       <c r="G91" s="3">
-        <v>-136200</v>
+        <v>-149500</v>
       </c>
       <c r="H91" s="3">
-        <v>-76700</v>
+        <v>-127500</v>
       </c>
       <c r="I91" s="3">
-        <v>-130700</v>
+        <v>-71800</v>
       </c>
       <c r="J91" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-151700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-143200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-123700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-168700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-161000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-85000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-84900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-80100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-187500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4952,8 +5176,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5008,64 +5235,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1549800</v>
+        <v>-20600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1906700</v>
+        <v>1450200</v>
       </c>
       <c r="F94" s="3">
-        <v>-160900</v>
+        <v>-1784200</v>
       </c>
       <c r="G94" s="3">
-        <v>-326400</v>
+        <v>-150500</v>
       </c>
       <c r="H94" s="3">
-        <v>-76900</v>
+        <v>-305400</v>
       </c>
       <c r="I94" s="3">
-        <v>-128000</v>
+        <v>-71900</v>
       </c>
       <c r="J94" s="3">
+        <v>-119800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-141400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-139700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-340200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-170000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-158300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-57400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-96200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-79800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-42300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-192100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5086,19 +5319,20 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-14800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-10000</v>
+        <v>-13800</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-9300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5119,17 +5353,17 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-10100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-12900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5142,8 +5376,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5198,8 +5435,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5254,8 +5494,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5310,172 +5553,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-40800</v>
+        <v>10300</v>
       </c>
       <c r="E100" s="3">
-        <v>-25400</v>
+        <v>-38200</v>
       </c>
       <c r="F100" s="3">
-        <v>-122900</v>
+        <v>-23800</v>
       </c>
       <c r="G100" s="3">
-        <v>-124600</v>
+        <v>-115000</v>
       </c>
       <c r="H100" s="3">
-        <v>264200</v>
+        <v>-116600</v>
       </c>
       <c r="I100" s="3">
-        <v>-16400</v>
+        <v>247300</v>
       </c>
       <c r="J100" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>20900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>196300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>36500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>31300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-55000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>12900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>7500</v>
-      </c>
       <c r="G101" s="3">
-        <v>-4900</v>
+        <v>7100</v>
       </c>
       <c r="H101" s="3">
-        <v>-7900</v>
+        <v>-4600</v>
       </c>
       <c r="I101" s="3">
-        <v>1800</v>
+        <v>-7400</v>
       </c>
       <c r="J101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28300</v>
+        <v>1100</v>
       </c>
       <c r="E102" s="3">
-        <v>7000</v>
+        <v>-26500</v>
       </c>
       <c r="F102" s="3">
-        <v>-80500</v>
+        <v>6500</v>
       </c>
       <c r="G102" s="3">
-        <v>-123200</v>
+        <v>-75300</v>
       </c>
       <c r="H102" s="3">
-        <v>294000</v>
+        <v>-115300</v>
       </c>
       <c r="I102" s="3">
-        <v>14800</v>
+        <v>275100</v>
       </c>
       <c r="J102" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-22700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>40700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>29700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-45900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>HMY</t>
   </si>
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>72300</v>
+        <v>1203000</v>
       </c>
       <c r="E8" s="3">
-        <v>1114800</v>
+        <v>1070300</v>
       </c>
       <c r="F8" s="3">
-        <v>1182500</v>
+        <v>1135300</v>
       </c>
       <c r="G8" s="3">
-        <v>1085200</v>
+        <v>1041900</v>
       </c>
       <c r="H8" s="3">
-        <v>1162900</v>
+        <v>1116500</v>
       </c>
       <c r="I8" s="3">
-        <v>741700</v>
+        <v>712100</v>
       </c>
       <c r="J8" s="3">
-        <v>833700</v>
+        <v>800500</v>
       </c>
       <c r="K8" s="3">
         <v>755500</v>
@@ -818,25 +818,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>63000</v>
+        <v>1022400</v>
       </c>
       <c r="E9" s="3">
-        <v>995800</v>
+        <v>956000</v>
       </c>
       <c r="F9" s="3">
-        <v>1022300</v>
+        <v>981500</v>
       </c>
       <c r="G9" s="3">
-        <v>929900</v>
+        <v>892800</v>
       </c>
       <c r="H9" s="3">
-        <v>906700</v>
+        <v>870500</v>
       </c>
       <c r="I9" s="3">
-        <v>667800</v>
+        <v>641100</v>
       </c>
       <c r="J9" s="3">
-        <v>725700</v>
+        <v>696800</v>
       </c>
       <c r="K9" s="3">
         <v>689200</v>
@@ -877,25 +877,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9400</v>
+        <v>180600</v>
       </c>
       <c r="E10" s="3">
-        <v>119000</v>
+        <v>114200</v>
       </c>
       <c r="F10" s="3">
-        <v>160200</v>
+        <v>153800</v>
       </c>
       <c r="G10" s="3">
-        <v>155300</v>
+        <v>149100</v>
       </c>
       <c r="H10" s="3">
-        <v>256300</v>
+        <v>246000</v>
       </c>
       <c r="I10" s="3">
-        <v>73900</v>
+        <v>71000</v>
       </c>
       <c r="J10" s="3">
-        <v>108000</v>
+        <v>103700</v>
       </c>
       <c r="K10" s="3">
         <v>66300</v>
@@ -959,25 +959,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>8200</v>
       </c>
       <c r="E12" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="F12" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="G12" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="H12" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="I12" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="J12" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="K12" s="3">
         <v>4400</v>
@@ -1077,25 +1077,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>600</v>
+        <v>35800</v>
       </c>
       <c r="E14" s="3">
-        <v>227000</v>
+        <v>217900</v>
       </c>
       <c r="F14" s="3">
-        <v>14800</v>
+        <v>14200</v>
       </c>
       <c r="G14" s="3">
-        <v>121100</v>
+        <v>116300</v>
       </c>
       <c r="H14" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="I14" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="J14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K14" s="3">
         <v>225400</v>
@@ -1214,26 +1214,26 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
+      <c r="D17" s="3">
+        <v>1076400</v>
       </c>
       <c r="E17" s="3">
-        <v>1245400</v>
+        <v>1195700</v>
       </c>
       <c r="F17" s="3">
-        <v>1092500</v>
+        <v>1048900</v>
       </c>
       <c r="G17" s="3">
-        <v>1084000</v>
+        <v>1040700</v>
       </c>
       <c r="H17" s="3">
-        <v>856600</v>
+        <v>822400</v>
       </c>
       <c r="I17" s="3">
-        <v>851400</v>
+        <v>817400</v>
       </c>
       <c r="J17" s="3">
-        <v>745700</v>
+        <v>716000</v>
       </c>
       <c r="K17" s="3">
         <v>911200</v>
@@ -1273,26 +1273,26 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
+      <c r="D18" s="3">
+        <v>126600</v>
       </c>
       <c r="E18" s="3">
-        <v>-130600</v>
+        <v>-125400</v>
       </c>
       <c r="F18" s="3">
-        <v>90000</v>
+        <v>86400</v>
       </c>
       <c r="G18" s="3">
         <v>1200</v>
       </c>
       <c r="H18" s="3">
-        <v>306400</v>
+        <v>294100</v>
       </c>
       <c r="I18" s="3">
-        <v>-109700</v>
+        <v>-105400</v>
       </c>
       <c r="J18" s="3">
-        <v>88000</v>
+        <v>84500</v>
       </c>
       <c r="K18" s="3">
         <v>-155700</v>
@@ -1355,26 +1355,26 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
+      <c r="D20" s="3">
+        <v>-4400</v>
       </c>
       <c r="E20" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="F20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3">
-        <v>-12100</v>
+        <v>-11600</v>
       </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="J20" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="K20" s="3">
         <v>-9500</v>
@@ -1414,26 +1414,26 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>212600</v>
       </c>
       <c r="E21" s="3">
-        <v>-136100</v>
+        <v>-130700</v>
       </c>
       <c r="F21" s="3">
-        <v>189400</v>
+        <v>181800</v>
       </c>
       <c r="G21" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H21" s="3">
-        <v>409100</v>
+        <v>392800</v>
       </c>
       <c r="I21" s="3">
-        <v>-125400</v>
+        <v>-120400</v>
       </c>
       <c r="J21" s="3">
-        <v>184000</v>
+        <v>176600</v>
       </c>
       <c r="K21" s="3">
         <v>-165600</v>
@@ -1473,20 +1473,20 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>1800</v>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F22" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
@@ -1533,25 +1533,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7400</v>
+        <v>122100</v>
       </c>
       <c r="E23" s="3">
-        <v>-145200</v>
+        <v>-139400</v>
       </c>
       <c r="F23" s="3">
-        <v>88200</v>
+        <v>84700</v>
       </c>
       <c r="G23" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="H23" s="3">
-        <v>304600</v>
+        <v>292400</v>
       </c>
       <c r="I23" s="3">
-        <v>-112300</v>
+        <v>-107800</v>
       </c>
       <c r="J23" s="3">
-        <v>80200</v>
+        <v>77000</v>
       </c>
       <c r="K23" s="3">
         <v>-165200</v>
@@ -1592,25 +1592,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1600</v>
+        <v>25900</v>
       </c>
       <c r="E24" s="3">
-        <v>-15100</v>
+        <v>-14500</v>
       </c>
       <c r="F24" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="G24" s="3">
-        <v>26200</v>
+        <v>25100</v>
       </c>
       <c r="H24" s="3">
-        <v>56800</v>
+        <v>54500</v>
       </c>
       <c r="I24" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="J24" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="K24" s="3">
         <v>-10800</v>
@@ -1709,26 +1709,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
+      <c r="D26" s="3">
+        <v>96300</v>
       </c>
       <c r="E26" s="3">
-        <v>-130100</v>
+        <v>-125000</v>
       </c>
       <c r="F26" s="3">
-        <v>75600</v>
+        <v>72600</v>
       </c>
       <c r="G26" s="3">
-        <v>-37100</v>
+        <v>-35600</v>
       </c>
       <c r="H26" s="3">
-        <v>247800</v>
+        <v>237900</v>
       </c>
       <c r="I26" s="3">
-        <v>-117500</v>
+        <v>-112900</v>
       </c>
       <c r="J26" s="3">
-        <v>71800</v>
+        <v>68900</v>
       </c>
       <c r="K26" s="3">
         <v>-154400</v>
@@ -1768,26 +1768,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
+      <c r="D27" s="3">
+        <v>95100</v>
       </c>
       <c r="E27" s="3">
-        <v>-131400</v>
+        <v>-126100</v>
       </c>
       <c r="F27" s="3">
-        <v>74700</v>
+        <v>71700</v>
       </c>
       <c r="G27" s="3">
-        <v>-37600</v>
+        <v>-36100</v>
       </c>
       <c r="H27" s="3">
-        <v>246300</v>
+        <v>236500</v>
       </c>
       <c r="I27" s="3">
-        <v>-119100</v>
+        <v>-114300</v>
       </c>
       <c r="J27" s="3">
-        <v>71800</v>
+        <v>68900</v>
       </c>
       <c r="K27" s="3">
         <v>-154400</v>
@@ -2063,26 +2063,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
+      <c r="D32" s="3">
+        <v>4400</v>
       </c>
       <c r="E32" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="I32" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J32" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="K32" s="3">
         <v>9500</v>
@@ -2122,26 +2122,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
+      <c r="D33" s="3">
+        <v>95100</v>
       </c>
       <c r="E33" s="3">
-        <v>-131400</v>
+        <v>-126100</v>
       </c>
       <c r="F33" s="3">
-        <v>74700</v>
+        <v>71700</v>
       </c>
       <c r="G33" s="3">
-        <v>-37600</v>
+        <v>-36100</v>
       </c>
       <c r="H33" s="3">
-        <v>246300</v>
+        <v>236500</v>
       </c>
       <c r="I33" s="3">
-        <v>-119100</v>
+        <v>-114300</v>
       </c>
       <c r="J33" s="3">
-        <v>71800</v>
+        <v>68900</v>
       </c>
       <c r="K33" s="3">
         <v>-154400</v>
@@ -2240,26 +2240,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
+      <c r="D35" s="3">
+        <v>95100</v>
       </c>
       <c r="E35" s="3">
-        <v>-131400</v>
+        <v>-126100</v>
       </c>
       <c r="F35" s="3">
-        <v>74700</v>
+        <v>71700</v>
       </c>
       <c r="G35" s="3">
-        <v>-37600</v>
+        <v>-36100</v>
       </c>
       <c r="H35" s="3">
-        <v>246300</v>
+        <v>236500</v>
       </c>
       <c r="I35" s="3">
-        <v>-119100</v>
+        <v>-114300</v>
       </c>
       <c r="J35" s="3">
-        <v>71800</v>
+        <v>68900</v>
       </c>
       <c r="K35" s="3">
         <v>-154400</v>
@@ -2410,25 +2410,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6900</v>
+        <v>113500</v>
       </c>
       <c r="E41" s="3">
-        <v>131900</v>
+        <v>126600</v>
       </c>
       <c r="F41" s="3">
-        <v>158400</v>
+        <v>152100</v>
       </c>
       <c r="G41" s="3">
-        <v>151900</v>
+        <v>145800</v>
       </c>
       <c r="H41" s="3">
-        <v>227200</v>
+        <v>218100</v>
       </c>
       <c r="I41" s="3">
-        <v>342500</v>
+        <v>328800</v>
       </c>
       <c r="J41" s="3">
-        <v>67300</v>
+        <v>64700</v>
       </c>
       <c r="K41" s="3">
         <v>57200</v>
@@ -2528,25 +2528,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7400</v>
+        <v>120600</v>
       </c>
       <c r="E43" s="3">
-        <v>90600</v>
+        <v>87000</v>
       </c>
       <c r="F43" s="3">
-        <v>101500</v>
+        <v>97400</v>
       </c>
       <c r="G43" s="3">
-        <v>89000</v>
+        <v>85400</v>
       </c>
       <c r="H43" s="3">
-        <v>80000</v>
+        <v>76800</v>
       </c>
       <c r="I43" s="3">
-        <v>70500</v>
+        <v>67600</v>
       </c>
       <c r="J43" s="3">
-        <v>70600</v>
+        <v>67800</v>
       </c>
       <c r="K43" s="3">
         <v>61300</v>
@@ -2586,26 +2586,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>16</v>
+      <c r="D44" s="3">
+        <v>141900</v>
       </c>
       <c r="E44" s="3">
-        <v>151800</v>
+        <v>145700</v>
       </c>
       <c r="F44" s="3">
-        <v>120100</v>
+        <v>115300</v>
       </c>
       <c r="G44" s="3">
-        <v>136900</v>
+        <v>131500</v>
       </c>
       <c r="H44" s="3">
-        <v>118500</v>
+        <v>113700</v>
       </c>
       <c r="I44" s="3">
-        <v>130400</v>
+        <v>125200</v>
       </c>
       <c r="J44" s="3">
-        <v>105200</v>
+        <v>101000</v>
       </c>
       <c r="K44" s="3">
         <v>113200</v>
@@ -2646,25 +2646,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100</v>
+        <v>18900</v>
       </c>
       <c r="E45" s="3">
-        <v>29400</v>
+        <v>28200</v>
       </c>
       <c r="F45" s="3">
-        <v>35900</v>
+        <v>34400</v>
       </c>
       <c r="G45" s="3">
-        <v>82900</v>
+        <v>79500</v>
       </c>
       <c r="H45" s="3">
-        <v>42600</v>
+        <v>40900</v>
       </c>
       <c r="I45" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J45" s="3">
-        <v>31800</v>
+        <v>30600</v>
       </c>
       <c r="K45" s="3">
         <v>20300</v>
@@ -2705,25 +2705,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24200</v>
+        <v>395000</v>
       </c>
       <c r="E46" s="3">
-        <v>403700</v>
+        <v>387600</v>
       </c>
       <c r="F46" s="3">
-        <v>415900</v>
+        <v>399300</v>
       </c>
       <c r="G46" s="3">
-        <v>460600</v>
+        <v>442300</v>
       </c>
       <c r="H46" s="3">
-        <v>468200</v>
+        <v>449500</v>
       </c>
       <c r="I46" s="3">
-        <v>547600</v>
+        <v>525800</v>
       </c>
       <c r="J46" s="3">
-        <v>275000</v>
+        <v>264000</v>
       </c>
       <c r="K46" s="3">
         <v>252000</v>
@@ -2764,25 +2764,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1400</v>
+        <v>22900</v>
       </c>
       <c r="E47" s="3">
-        <v>26900</v>
+        <v>25800</v>
       </c>
       <c r="F47" s="3">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="G47" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="H47" s="3">
-        <v>31100</v>
+        <v>29900</v>
       </c>
       <c r="I47" s="3">
-        <v>28800</v>
+        <v>27600</v>
       </c>
       <c r="J47" s="3">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="K47" s="3">
         <v>25600</v>
@@ -2822,26 +2822,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>16</v>
+      <c r="D48" s="3">
+        <v>2013400</v>
       </c>
       <c r="E48" s="3">
-        <v>1770800</v>
+        <v>1700100</v>
       </c>
       <c r="F48" s="3">
-        <v>1926400</v>
+        <v>1849500</v>
       </c>
       <c r="G48" s="3">
-        <v>1809900</v>
+        <v>1737600</v>
       </c>
       <c r="H48" s="3">
-        <v>1863800</v>
+        <v>1789400</v>
       </c>
       <c r="I48" s="3">
-        <v>1572200</v>
+        <v>1509500</v>
       </c>
       <c r="J48" s="3">
-        <v>1519600</v>
+        <v>1459000</v>
       </c>
       <c r="K48" s="3">
         <v>1597500</v>
@@ -2882,25 +2882,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="E49" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F49" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="G49" s="3">
-        <v>19700</v>
+        <v>18900</v>
       </c>
       <c r="H49" s="3">
-        <v>29200</v>
+        <v>28000</v>
       </c>
       <c r="I49" s="3">
-        <v>28900</v>
+        <v>27700</v>
       </c>
       <c r="J49" s="3">
-        <v>28800</v>
+        <v>27600</v>
       </c>
       <c r="K49" s="3">
         <v>30700</v>
@@ -3059,25 +3059,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9800</v>
+        <v>325700</v>
       </c>
       <c r="E52" s="3">
-        <v>317600</v>
+        <v>304900</v>
       </c>
       <c r="F52" s="3">
-        <v>310300</v>
+        <v>298000</v>
       </c>
       <c r="G52" s="3">
-        <v>314200</v>
+        <v>301600</v>
       </c>
       <c r="H52" s="3">
-        <v>342100</v>
+        <v>328500</v>
       </c>
       <c r="I52" s="3">
-        <v>230000</v>
+        <v>220800</v>
       </c>
       <c r="J52" s="3">
-        <v>201000</v>
+        <v>193000</v>
       </c>
       <c r="K52" s="3">
         <v>209200</v>
@@ -3177,25 +3177,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>168900</v>
+        <v>2759000</v>
       </c>
       <c r="E54" s="3">
-        <v>2521500</v>
+        <v>2420900</v>
       </c>
       <c r="F54" s="3">
-        <v>2695400</v>
+        <v>2587800</v>
       </c>
       <c r="G54" s="3">
-        <v>2629000</v>
+        <v>2524100</v>
       </c>
       <c r="H54" s="3">
-        <v>2724500</v>
+        <v>2615800</v>
       </c>
       <c r="I54" s="3">
-        <v>2407600</v>
+        <v>2311500</v>
       </c>
       <c r="J54" s="3">
-        <v>2050000</v>
+        <v>1968200</v>
       </c>
       <c r="K54" s="3">
         <v>2114900</v>
@@ -3282,25 +3282,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14500</v>
+        <v>237200</v>
       </c>
       <c r="E57" s="3">
-        <v>242100</v>
+        <v>232400</v>
       </c>
       <c r="F57" s="3">
-        <v>226100</v>
+        <v>217100</v>
       </c>
       <c r="G57" s="3">
-        <v>236400</v>
+        <v>227000</v>
       </c>
       <c r="H57" s="3">
-        <v>211400</v>
+        <v>202900</v>
       </c>
       <c r="I57" s="3">
-        <v>161900</v>
+        <v>155500</v>
       </c>
       <c r="J57" s="3">
-        <v>157600</v>
+        <v>151300</v>
       </c>
       <c r="K57" s="3">
         <v>165500</v>
@@ -3340,26 +3340,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>16</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>1300</v>
       </c>
       <c r="F58" s="3">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="G58" s="3">
-        <v>20800</v>
+        <v>20000</v>
       </c>
       <c r="H58" s="3">
-        <v>21000</v>
+        <v>20200</v>
       </c>
       <c r="I58" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="J58" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K58" s="3">
         <v>5100</v>
@@ -3400,25 +3400,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>23200</v>
       </c>
       <c r="E59" s="3">
-        <v>24600</v>
+        <v>23600</v>
       </c>
       <c r="F59" s="3">
-        <v>31900</v>
+        <v>30700</v>
       </c>
       <c r="G59" s="3">
-        <v>41900</v>
+        <v>40200</v>
       </c>
       <c r="H59" s="3">
-        <v>118100</v>
+        <v>113400</v>
       </c>
       <c r="I59" s="3">
-        <v>231600</v>
+        <v>222300</v>
       </c>
       <c r="J59" s="3">
-        <v>38000</v>
+        <v>36500</v>
       </c>
       <c r="K59" s="3">
         <v>15500</v>
@@ -3459,25 +3459,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15900</v>
+        <v>260500</v>
       </c>
       <c r="E60" s="3">
-        <v>268000</v>
+        <v>257300</v>
       </c>
       <c r="F60" s="3">
-        <v>278200</v>
+        <v>267100</v>
       </c>
       <c r="G60" s="3">
-        <v>299100</v>
+        <v>287200</v>
       </c>
       <c r="H60" s="3">
-        <v>350500</v>
+        <v>336500</v>
       </c>
       <c r="I60" s="3">
-        <v>407300</v>
+        <v>391000</v>
       </c>
       <c r="J60" s="3">
-        <v>200200</v>
+        <v>192200</v>
       </c>
       <c r="K60" s="3">
         <v>186200</v>
@@ -3518,25 +3518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>357100</v>
       </c>
       <c r="E61" s="3">
-        <v>171300</v>
+        <v>164500</v>
       </c>
       <c r="F61" s="3">
-        <v>171200</v>
+        <v>164400</v>
       </c>
       <c r="G61" s="3">
-        <v>160200</v>
+        <v>153800</v>
       </c>
       <c r="H61" s="3">
-        <v>237400</v>
+        <v>227900</v>
       </c>
       <c r="I61" s="3">
-        <v>402000</v>
+        <v>386000</v>
       </c>
       <c r="J61" s="3">
-        <v>293800</v>
+        <v>282100</v>
       </c>
       <c r="K61" s="3">
         <v>335400</v>
@@ -3577,25 +3577,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27300</v>
+        <v>497200</v>
       </c>
       <c r="E62" s="3">
-        <v>459800</v>
+        <v>441500</v>
       </c>
       <c r="F62" s="3">
-        <v>492400</v>
+        <v>472700</v>
       </c>
       <c r="G62" s="3">
-        <v>488200</v>
+        <v>468700</v>
       </c>
       <c r="H62" s="3">
-        <v>579400</v>
+        <v>556200</v>
       </c>
       <c r="I62" s="3">
-        <v>339100</v>
+        <v>325500</v>
       </c>
       <c r="J62" s="3">
-        <v>274300</v>
+        <v>263300</v>
       </c>
       <c r="K62" s="3">
         <v>291400</v>
@@ -3813,25 +3813,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>68300</v>
+        <v>1119400</v>
       </c>
       <c r="E66" s="3">
-        <v>903300</v>
+        <v>867300</v>
       </c>
       <c r="F66" s="3">
-        <v>945200</v>
+        <v>907500</v>
       </c>
       <c r="G66" s="3">
-        <v>950400</v>
+        <v>912500</v>
       </c>
       <c r="H66" s="3">
-        <v>1121700</v>
+        <v>1077000</v>
       </c>
       <c r="I66" s="3">
-        <v>1148600</v>
+        <v>1102700</v>
       </c>
       <c r="J66" s="3">
-        <v>768000</v>
+        <v>737400</v>
       </c>
       <c r="K66" s="3">
         <v>813000</v>
@@ -4131,25 +4131,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3900</v>
+        <v>-63800</v>
       </c>
       <c r="E72" s="3">
-        <v>-156000</v>
+        <v>-149700</v>
       </c>
       <c r="F72" s="3">
-        <v>-24000</v>
+        <v>-23000</v>
       </c>
       <c r="G72" s="3">
-        <v>-95600</v>
+        <v>-91800</v>
       </c>
       <c r="H72" s="3">
-        <v>-171400</v>
+        <v>-164600</v>
       </c>
       <c r="I72" s="3">
-        <v>-515300</v>
+        <v>-494800</v>
       </c>
       <c r="J72" s="3">
-        <v>-310000</v>
+        <v>-297600</v>
       </c>
       <c r="K72" s="3">
         <v>-399400</v>
@@ -4367,25 +4367,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100700</v>
+        <v>1639600</v>
       </c>
       <c r="E76" s="3">
-        <v>1618200</v>
+        <v>1553600</v>
       </c>
       <c r="F76" s="3">
-        <v>1750200</v>
+        <v>1680300</v>
       </c>
       <c r="G76" s="3">
-        <v>1678600</v>
+        <v>1611600</v>
       </c>
       <c r="H76" s="3">
-        <v>1602800</v>
+        <v>1538800</v>
       </c>
       <c r="I76" s="3">
-        <v>1259000</v>
+        <v>1208700</v>
       </c>
       <c r="J76" s="3">
-        <v>1281900</v>
+        <v>1230800</v>
       </c>
       <c r="K76" s="3">
         <v>1301900</v>
@@ -4548,26 +4548,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>16</v>
+      <c r="D81" s="3">
+        <v>95100</v>
       </c>
       <c r="E81" s="3">
-        <v>-131400</v>
+        <v>-126100</v>
       </c>
       <c r="F81" s="3">
-        <v>74700</v>
+        <v>71700</v>
       </c>
       <c r="G81" s="3">
-        <v>-37600</v>
+        <v>-36100</v>
       </c>
       <c r="H81" s="3">
-        <v>246300</v>
+        <v>236500</v>
       </c>
       <c r="I81" s="3">
-        <v>-119100</v>
+        <v>-114300</v>
       </c>
       <c r="J81" s="3">
-        <v>71800</v>
+        <v>68900</v>
       </c>
       <c r="K81" s="3">
         <v>-154400</v>
@@ -4985,25 +4985,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9500</v>
+        <v>158500</v>
       </c>
       <c r="E89" s="3">
-        <v>-1441400</v>
+        <v>-1383900</v>
       </c>
       <c r="F89" s="3">
-        <v>1814400</v>
+        <v>1742000</v>
       </c>
       <c r="G89" s="3">
-        <v>183200</v>
+        <v>175800</v>
       </c>
       <c r="H89" s="3">
-        <v>311300</v>
+        <v>298900</v>
       </c>
       <c r="I89" s="3">
-        <v>107200</v>
+        <v>102900</v>
       </c>
       <c r="J89" s="3">
-        <v>147200</v>
+        <v>141400</v>
       </c>
       <c r="K89" s="3">
         <v>116800</v>
@@ -5067,25 +5067,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11400</v>
+        <v>-3646000</v>
       </c>
       <c r="E91" s="3">
-        <v>-164000</v>
+        <v>-3044000</v>
       </c>
       <c r="F91" s="3">
-        <v>-170800</v>
+        <v>-3170000</v>
       </c>
       <c r="G91" s="3">
-        <v>-149500</v>
+        <v>-2776000</v>
       </c>
       <c r="H91" s="3">
-        <v>-127500</v>
+        <v>-2366000</v>
       </c>
       <c r="I91" s="3">
-        <v>-71800</v>
+        <v>-1340000</v>
       </c>
       <c r="J91" s="3">
-        <v>-122300</v>
+        <v>-2270000</v>
       </c>
       <c r="K91" s="3">
         <v>-151700</v>
@@ -5244,25 +5244,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20600</v>
+        <v>-345400</v>
       </c>
       <c r="E94" s="3">
-        <v>1450200</v>
+        <v>1392300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1784200</v>
+        <v>-1713000</v>
       </c>
       <c r="G94" s="3">
-        <v>-150500</v>
+        <v>-144500</v>
       </c>
       <c r="H94" s="3">
-        <v>-305400</v>
+        <v>-293300</v>
       </c>
       <c r="I94" s="3">
-        <v>-71900</v>
+        <v>-69000</v>
       </c>
       <c r="J94" s="3">
-        <v>-119800</v>
+        <v>-115000</v>
       </c>
       <c r="K94" s="3">
         <v>-141400</v>
@@ -5326,13 +5326,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7500</v>
       </c>
       <c r="E96" s="3">
-        <v>-13800</v>
+        <v>-13300</v>
       </c>
       <c r="F96" s="3">
-        <v>-9300</v>
+        <v>-8900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5562,25 +5562,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10300</v>
+        <v>172000</v>
       </c>
       <c r="E100" s="3">
-        <v>-38200</v>
+        <v>-36700</v>
       </c>
       <c r="F100" s="3">
-        <v>-23800</v>
+        <v>-22900</v>
       </c>
       <c r="G100" s="3">
-        <v>-115000</v>
+        <v>-110400</v>
       </c>
       <c r="H100" s="3">
-        <v>-116600</v>
+        <v>-111900</v>
       </c>
       <c r="I100" s="3">
-        <v>247300</v>
+        <v>237400</v>
       </c>
       <c r="J100" s="3">
-        <v>-15400</v>
+        <v>-14700</v>
       </c>
       <c r="K100" s="3">
         <v>1700</v>
@@ -5621,22 +5621,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="H101" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="I101" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="J101" s="3">
         <v>1700</v>
@@ -5680,25 +5680,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1100</v>
+        <v>-13100</v>
       </c>
       <c r="E102" s="3">
-        <v>-26500</v>
+        <v>-25400</v>
       </c>
       <c r="F102" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G102" s="3">
-        <v>-75300</v>
+        <v>-72300</v>
       </c>
       <c r="H102" s="3">
-        <v>-115300</v>
+        <v>-110700</v>
       </c>
       <c r="I102" s="3">
-        <v>275100</v>
+        <v>264100</v>
       </c>
       <c r="J102" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="K102" s="3">
         <v>-22700</v>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1203000</v>
+        <v>1232500</v>
       </c>
       <c r="E8" s="3">
-        <v>1070300</v>
+        <v>1096600</v>
       </c>
       <c r="F8" s="3">
-        <v>1135300</v>
+        <v>1163200</v>
       </c>
       <c r="G8" s="3">
-        <v>1041900</v>
+        <v>1067500</v>
       </c>
       <c r="H8" s="3">
-        <v>1116500</v>
+        <v>1143900</v>
       </c>
       <c r="I8" s="3">
-        <v>712100</v>
+        <v>729600</v>
       </c>
       <c r="J8" s="3">
-        <v>800500</v>
+        <v>820100</v>
       </c>
       <c r="K8" s="3">
         <v>755500</v>
@@ -818,25 +818,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1022400</v>
+        <v>1047500</v>
       </c>
       <c r="E9" s="3">
-        <v>956000</v>
+        <v>979500</v>
       </c>
       <c r="F9" s="3">
-        <v>981500</v>
+        <v>1005600</v>
       </c>
       <c r="G9" s="3">
-        <v>892800</v>
+        <v>914700</v>
       </c>
       <c r="H9" s="3">
-        <v>870500</v>
+        <v>891900</v>
       </c>
       <c r="I9" s="3">
-        <v>641100</v>
+        <v>656900</v>
       </c>
       <c r="J9" s="3">
-        <v>696800</v>
+        <v>713900</v>
       </c>
       <c r="K9" s="3">
         <v>689200</v>
@@ -877,25 +877,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>180600</v>
+        <v>185000</v>
       </c>
       <c r="E10" s="3">
-        <v>114200</v>
+        <v>117100</v>
       </c>
       <c r="F10" s="3">
-        <v>153800</v>
+        <v>157500</v>
       </c>
       <c r="G10" s="3">
-        <v>149100</v>
+        <v>152800</v>
       </c>
       <c r="H10" s="3">
-        <v>246000</v>
+        <v>252100</v>
       </c>
       <c r="I10" s="3">
-        <v>71000</v>
+        <v>72700</v>
       </c>
       <c r="J10" s="3">
-        <v>103700</v>
+        <v>106200</v>
       </c>
       <c r="K10" s="3">
         <v>66300</v>
@@ -959,25 +959,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="E12" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G12" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="H12" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I12" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J12" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="K12" s="3">
         <v>4400</v>
@@ -1077,25 +1077,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>35800</v>
+        <v>36700</v>
       </c>
       <c r="E14" s="3">
-        <v>217900</v>
+        <v>223200</v>
       </c>
       <c r="F14" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="G14" s="3">
-        <v>116300</v>
+        <v>119100</v>
       </c>
       <c r="H14" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I14" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K14" s="3">
         <v>225400</v>
@@ -1215,25 +1215,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1076400</v>
+        <v>1102800</v>
       </c>
       <c r="E17" s="3">
-        <v>1195700</v>
+        <v>1225100</v>
       </c>
       <c r="F17" s="3">
-        <v>1048900</v>
+        <v>1074700</v>
       </c>
       <c r="G17" s="3">
-        <v>1040700</v>
+        <v>1066300</v>
       </c>
       <c r="H17" s="3">
-        <v>822400</v>
+        <v>842600</v>
       </c>
       <c r="I17" s="3">
-        <v>817400</v>
+        <v>837500</v>
       </c>
       <c r="J17" s="3">
-        <v>716000</v>
+        <v>733500</v>
       </c>
       <c r="K17" s="3">
         <v>911200</v>
@@ -1274,25 +1274,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>126600</v>
+        <v>129700</v>
       </c>
       <c r="E18" s="3">
-        <v>-125400</v>
+        <v>-128500</v>
       </c>
       <c r="F18" s="3">
-        <v>86400</v>
+        <v>88500</v>
       </c>
       <c r="G18" s="3">
         <v>1200</v>
       </c>
       <c r="H18" s="3">
-        <v>294100</v>
+        <v>301400</v>
       </c>
       <c r="I18" s="3">
-        <v>-105400</v>
+        <v>-107900</v>
       </c>
       <c r="J18" s="3">
-        <v>84500</v>
+        <v>86600</v>
       </c>
       <c r="K18" s="3">
         <v>-155700</v>
@@ -1356,25 +1356,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="E20" s="3">
-        <v>-8500</v>
+        <v>-8100</v>
       </c>
       <c r="F20" s="3">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="G20" s="3">
-        <v>-11600</v>
+        <v>-11900</v>
       </c>
       <c r="H20" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J20" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="K20" s="3">
         <v>-9500</v>
@@ -1415,25 +1415,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>212600</v>
+        <v>217800</v>
       </c>
       <c r="E21" s="3">
-        <v>-130700</v>
+        <v>-133300</v>
       </c>
       <c r="F21" s="3">
-        <v>181800</v>
+        <v>186800</v>
       </c>
       <c r="G21" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H21" s="3">
-        <v>392800</v>
+        <v>402500</v>
       </c>
       <c r="I21" s="3">
-        <v>-120400</v>
+        <v>-123400</v>
       </c>
       <c r="J21" s="3">
-        <v>176600</v>
+        <v>181000</v>
       </c>
       <c r="K21" s="3">
         <v>-165600</v>
@@ -1477,16 +1477,16 @@
         <v>16</v>
       </c>
       <c r="E22" s="3">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="F22" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
@@ -1533,25 +1533,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>122100</v>
+        <v>125100</v>
       </c>
       <c r="E23" s="3">
-        <v>-139400</v>
+        <v>-142900</v>
       </c>
       <c r="F23" s="3">
-        <v>84700</v>
+        <v>86800</v>
       </c>
       <c r="G23" s="3">
-        <v>-10400</v>
+        <v>-10700</v>
       </c>
       <c r="H23" s="3">
-        <v>292400</v>
+        <v>299600</v>
       </c>
       <c r="I23" s="3">
-        <v>-107800</v>
+        <v>-110400</v>
       </c>
       <c r="J23" s="3">
-        <v>77000</v>
+        <v>78900</v>
       </c>
       <c r="K23" s="3">
         <v>-165200</v>
@@ -1592,25 +1592,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="E24" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="F24" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="G24" s="3">
-        <v>25100</v>
+        <v>25800</v>
       </c>
       <c r="H24" s="3">
-        <v>54500</v>
+        <v>55900</v>
       </c>
       <c r="I24" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J24" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="K24" s="3">
         <v>-10800</v>
@@ -1710,25 +1710,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>96300</v>
+        <v>98600</v>
       </c>
       <c r="E26" s="3">
-        <v>-125000</v>
+        <v>-128000</v>
       </c>
       <c r="F26" s="3">
-        <v>72600</v>
+        <v>74400</v>
       </c>
       <c r="G26" s="3">
-        <v>-35600</v>
+        <v>-36500</v>
       </c>
       <c r="H26" s="3">
-        <v>237900</v>
+        <v>243800</v>
       </c>
       <c r="I26" s="3">
-        <v>-112900</v>
+        <v>-115600</v>
       </c>
       <c r="J26" s="3">
-        <v>68900</v>
+        <v>70600</v>
       </c>
       <c r="K26" s="3">
         <v>-154400</v>
@@ -1769,25 +1769,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>95100</v>
+        <v>97400</v>
       </c>
       <c r="E27" s="3">
-        <v>-126100</v>
+        <v>-129200</v>
       </c>
       <c r="F27" s="3">
-        <v>71700</v>
+        <v>73500</v>
       </c>
       <c r="G27" s="3">
-        <v>-36100</v>
+        <v>-37000</v>
       </c>
       <c r="H27" s="3">
-        <v>236500</v>
+        <v>242300</v>
       </c>
       <c r="I27" s="3">
-        <v>-114300</v>
+        <v>-117100</v>
       </c>
       <c r="J27" s="3">
-        <v>68900</v>
+        <v>70600</v>
       </c>
       <c r="K27" s="3">
         <v>-154400</v>
@@ -2064,25 +2064,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="E32" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1800</v>
+        <v>-2400</v>
       </c>
       <c r="G32" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="H32" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J32" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="K32" s="3">
         <v>9500</v>
@@ -2123,25 +2123,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>95100</v>
+        <v>97400</v>
       </c>
       <c r="E33" s="3">
-        <v>-126100</v>
+        <v>-129200</v>
       </c>
       <c r="F33" s="3">
-        <v>71700</v>
+        <v>73500</v>
       </c>
       <c r="G33" s="3">
-        <v>-36100</v>
+        <v>-37000</v>
       </c>
       <c r="H33" s="3">
-        <v>236500</v>
+        <v>242300</v>
       </c>
       <c r="I33" s="3">
-        <v>-114300</v>
+        <v>-117100</v>
       </c>
       <c r="J33" s="3">
-        <v>68900</v>
+        <v>70600</v>
       </c>
       <c r="K33" s="3">
         <v>-154400</v>
@@ -2241,25 +2241,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>95100</v>
+        <v>97400</v>
       </c>
       <c r="E35" s="3">
-        <v>-126100</v>
+        <v>-129200</v>
       </c>
       <c r="F35" s="3">
-        <v>71700</v>
+        <v>73500</v>
       </c>
       <c r="G35" s="3">
-        <v>-36100</v>
+        <v>-37000</v>
       </c>
       <c r="H35" s="3">
-        <v>236500</v>
+        <v>242300</v>
       </c>
       <c r="I35" s="3">
-        <v>-114300</v>
+        <v>-117100</v>
       </c>
       <c r="J35" s="3">
-        <v>68900</v>
+        <v>70600</v>
       </c>
       <c r="K35" s="3">
         <v>-154400</v>
@@ -2410,25 +2410,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>113500</v>
+        <v>116300</v>
       </c>
       <c r="E41" s="3">
-        <v>126600</v>
+        <v>129700</v>
       </c>
       <c r="F41" s="3">
-        <v>152100</v>
+        <v>155800</v>
       </c>
       <c r="G41" s="3">
-        <v>145800</v>
+        <v>149400</v>
       </c>
       <c r="H41" s="3">
-        <v>218100</v>
+        <v>223500</v>
       </c>
       <c r="I41" s="3">
-        <v>328800</v>
+        <v>336900</v>
       </c>
       <c r="J41" s="3">
-        <v>64700</v>
+        <v>66200</v>
       </c>
       <c r="K41" s="3">
         <v>57200</v>
@@ -2528,25 +2528,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>120600</v>
+        <v>123600</v>
       </c>
       <c r="E43" s="3">
-        <v>87000</v>
+        <v>89100</v>
       </c>
       <c r="F43" s="3">
-        <v>97400</v>
+        <v>99800</v>
       </c>
       <c r="G43" s="3">
-        <v>85400</v>
+        <v>87500</v>
       </c>
       <c r="H43" s="3">
-        <v>76800</v>
+        <v>78700</v>
       </c>
       <c r="I43" s="3">
-        <v>67600</v>
+        <v>69300</v>
       </c>
       <c r="J43" s="3">
-        <v>67800</v>
+        <v>69500</v>
       </c>
       <c r="K43" s="3">
         <v>61300</v>
@@ -2587,25 +2587,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>141900</v>
+        <v>145400</v>
       </c>
       <c r="E44" s="3">
-        <v>145700</v>
+        <v>149300</v>
       </c>
       <c r="F44" s="3">
-        <v>115300</v>
+        <v>118200</v>
       </c>
       <c r="G44" s="3">
-        <v>131500</v>
+        <v>134700</v>
       </c>
       <c r="H44" s="3">
-        <v>113700</v>
+        <v>116500</v>
       </c>
       <c r="I44" s="3">
-        <v>125200</v>
+        <v>128300</v>
       </c>
       <c r="J44" s="3">
-        <v>101000</v>
+        <v>103500</v>
       </c>
       <c r="K44" s="3">
         <v>113200</v>
@@ -2646,25 +2646,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="E45" s="3">
-        <v>28200</v>
+        <v>28900</v>
       </c>
       <c r="F45" s="3">
-        <v>34400</v>
+        <v>35300</v>
       </c>
       <c r="G45" s="3">
-        <v>79500</v>
+        <v>81500</v>
       </c>
       <c r="H45" s="3">
-        <v>40900</v>
+        <v>41900</v>
       </c>
       <c r="I45" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J45" s="3">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="K45" s="3">
         <v>20300</v>
@@ -2705,25 +2705,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>395000</v>
+        <v>404700</v>
       </c>
       <c r="E46" s="3">
-        <v>387600</v>
+        <v>397100</v>
       </c>
       <c r="F46" s="3">
-        <v>399300</v>
+        <v>409100</v>
       </c>
       <c r="G46" s="3">
-        <v>442300</v>
+        <v>453100</v>
       </c>
       <c r="H46" s="3">
-        <v>449500</v>
+        <v>460500</v>
       </c>
       <c r="I46" s="3">
-        <v>525800</v>
+        <v>538700</v>
       </c>
       <c r="J46" s="3">
-        <v>264000</v>
+        <v>270500</v>
       </c>
       <c r="K46" s="3">
         <v>252000</v>
@@ -2764,25 +2764,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="E47" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="F47" s="3">
-        <v>23000</v>
+        <v>23600</v>
       </c>
       <c r="G47" s="3">
-        <v>23700</v>
+        <v>24300</v>
       </c>
       <c r="H47" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="I47" s="3">
-        <v>27600</v>
+        <v>28300</v>
       </c>
       <c r="J47" s="3">
-        <v>24500</v>
+        <v>25100</v>
       </c>
       <c r="K47" s="3">
         <v>25600</v>
@@ -2823,25 +2823,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2013400</v>
+        <v>2062800</v>
       </c>
       <c r="E48" s="3">
-        <v>1700100</v>
+        <v>1741900</v>
       </c>
       <c r="F48" s="3">
-        <v>1849500</v>
+        <v>1894900</v>
       </c>
       <c r="G48" s="3">
-        <v>1737600</v>
+        <v>1780300</v>
       </c>
       <c r="H48" s="3">
-        <v>1789400</v>
+        <v>1833300</v>
       </c>
       <c r="I48" s="3">
-        <v>1509500</v>
+        <v>1546600</v>
       </c>
       <c r="J48" s="3">
-        <v>1459000</v>
+        <v>1494800</v>
       </c>
       <c r="K48" s="3">
         <v>1597500</v>
@@ -2888,19 +2888,19 @@
         <v>2500</v>
       </c>
       <c r="F49" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="G49" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="H49" s="3">
-        <v>28000</v>
+        <v>28700</v>
       </c>
       <c r="I49" s="3">
-        <v>27700</v>
+        <v>28400</v>
       </c>
       <c r="J49" s="3">
-        <v>27600</v>
+        <v>28300</v>
       </c>
       <c r="K49" s="3">
         <v>30700</v>
@@ -3059,25 +3059,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>325700</v>
+        <v>333700</v>
       </c>
       <c r="E52" s="3">
-        <v>304900</v>
+        <v>312400</v>
       </c>
       <c r="F52" s="3">
-        <v>298000</v>
+        <v>305300</v>
       </c>
       <c r="G52" s="3">
-        <v>301600</v>
+        <v>309000</v>
       </c>
       <c r="H52" s="3">
-        <v>328500</v>
+        <v>336500</v>
       </c>
       <c r="I52" s="3">
-        <v>220800</v>
+        <v>226300</v>
       </c>
       <c r="J52" s="3">
-        <v>193000</v>
+        <v>197800</v>
       </c>
       <c r="K52" s="3">
         <v>209200</v>
@@ -3177,25 +3177,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2759000</v>
+        <v>2826800</v>
       </c>
       <c r="E54" s="3">
-        <v>2420900</v>
+        <v>2480400</v>
       </c>
       <c r="F54" s="3">
-        <v>2587800</v>
+        <v>2651400</v>
       </c>
       <c r="G54" s="3">
-        <v>2524100</v>
+        <v>2586100</v>
       </c>
       <c r="H54" s="3">
-        <v>2615800</v>
+        <v>2680000</v>
       </c>
       <c r="I54" s="3">
-        <v>2311500</v>
+        <v>2368200</v>
       </c>
       <c r="J54" s="3">
-        <v>1968200</v>
+        <v>2016500</v>
       </c>
       <c r="K54" s="3">
         <v>2114900</v>
@@ -3282,25 +3282,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>237200</v>
+        <v>243100</v>
       </c>
       <c r="E57" s="3">
-        <v>232400</v>
+        <v>238100</v>
       </c>
       <c r="F57" s="3">
-        <v>217100</v>
+        <v>222400</v>
       </c>
       <c r="G57" s="3">
-        <v>227000</v>
+        <v>232600</v>
       </c>
       <c r="H57" s="3">
-        <v>202900</v>
+        <v>207900</v>
       </c>
       <c r="I57" s="3">
-        <v>155500</v>
+        <v>159300</v>
       </c>
       <c r="J57" s="3">
-        <v>151300</v>
+        <v>155000</v>
       </c>
       <c r="K57" s="3">
         <v>165500</v>
@@ -3347,19 +3347,19 @@
         <v>1300</v>
       </c>
       <c r="F58" s="3">
-        <v>19300</v>
+        <v>19800</v>
       </c>
       <c r="G58" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="H58" s="3">
-        <v>20200</v>
+        <v>20700</v>
       </c>
       <c r="I58" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="J58" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="K58" s="3">
         <v>5100</v>
@@ -3400,25 +3400,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23200</v>
+        <v>23800</v>
       </c>
       <c r="E59" s="3">
-        <v>23600</v>
+        <v>24200</v>
       </c>
       <c r="F59" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="G59" s="3">
-        <v>40200</v>
+        <v>41200</v>
       </c>
       <c r="H59" s="3">
-        <v>113400</v>
+        <v>116200</v>
       </c>
       <c r="I59" s="3">
-        <v>222300</v>
+        <v>227800</v>
       </c>
       <c r="J59" s="3">
-        <v>36500</v>
+        <v>37400</v>
       </c>
       <c r="K59" s="3">
         <v>15500</v>
@@ -3459,25 +3459,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>260500</v>
+        <v>266900</v>
       </c>
       <c r="E60" s="3">
-        <v>257300</v>
+        <v>263600</v>
       </c>
       <c r="F60" s="3">
-        <v>267100</v>
+        <v>273600</v>
       </c>
       <c r="G60" s="3">
-        <v>287200</v>
+        <v>294300</v>
       </c>
       <c r="H60" s="3">
-        <v>336500</v>
+        <v>344800</v>
       </c>
       <c r="I60" s="3">
-        <v>391000</v>
+        <v>400600</v>
       </c>
       <c r="J60" s="3">
-        <v>192200</v>
+        <v>197000</v>
       </c>
       <c r="K60" s="3">
         <v>186200</v>
@@ -3518,25 +3518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>357100</v>
+        <v>365900</v>
       </c>
       <c r="E61" s="3">
-        <v>164500</v>
+        <v>168500</v>
       </c>
       <c r="F61" s="3">
-        <v>164400</v>
+        <v>168400</v>
       </c>
       <c r="G61" s="3">
-        <v>153800</v>
+        <v>157600</v>
       </c>
       <c r="H61" s="3">
-        <v>227900</v>
+        <v>233500</v>
       </c>
       <c r="I61" s="3">
-        <v>386000</v>
+        <v>395500</v>
       </c>
       <c r="J61" s="3">
-        <v>282100</v>
+        <v>289000</v>
       </c>
       <c r="K61" s="3">
         <v>335400</v>
@@ -3577,25 +3577,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>497200</v>
+        <v>509400</v>
       </c>
       <c r="E62" s="3">
-        <v>441500</v>
+        <v>452300</v>
       </c>
       <c r="F62" s="3">
-        <v>472700</v>
+        <v>484300</v>
       </c>
       <c r="G62" s="3">
-        <v>468700</v>
+        <v>480200</v>
       </c>
       <c r="H62" s="3">
-        <v>556200</v>
+        <v>569900</v>
       </c>
       <c r="I62" s="3">
-        <v>325500</v>
+        <v>333500</v>
       </c>
       <c r="J62" s="3">
-        <v>263300</v>
+        <v>269800</v>
       </c>
       <c r="K62" s="3">
         <v>291400</v>
@@ -3813,25 +3813,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1119400</v>
+        <v>1146900</v>
       </c>
       <c r="E66" s="3">
-        <v>867300</v>
+        <v>888600</v>
       </c>
       <c r="F66" s="3">
-        <v>907500</v>
+        <v>929800</v>
       </c>
       <c r="G66" s="3">
-        <v>912500</v>
+        <v>934900</v>
       </c>
       <c r="H66" s="3">
-        <v>1077000</v>
+        <v>1103400</v>
       </c>
       <c r="I66" s="3">
-        <v>1102700</v>
+        <v>1129800</v>
       </c>
       <c r="J66" s="3">
-        <v>737400</v>
+        <v>755500</v>
       </c>
       <c r="K66" s="3">
         <v>813000</v>
@@ -4131,25 +4131,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-63800</v>
+        <v>-65300</v>
       </c>
       <c r="E72" s="3">
-        <v>-149700</v>
+        <v>-153400</v>
       </c>
       <c r="F72" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="G72" s="3">
-        <v>-91800</v>
+        <v>-94000</v>
       </c>
       <c r="H72" s="3">
-        <v>-164600</v>
+        <v>-168600</v>
       </c>
       <c r="I72" s="3">
-        <v>-494800</v>
+        <v>-506900</v>
       </c>
       <c r="J72" s="3">
-        <v>-297600</v>
+        <v>-304900</v>
       </c>
       <c r="K72" s="3">
         <v>-399400</v>
@@ -4367,25 +4367,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1639600</v>
+        <v>1679800</v>
       </c>
       <c r="E76" s="3">
-        <v>1553600</v>
+        <v>1591800</v>
       </c>
       <c r="F76" s="3">
-        <v>1680300</v>
+        <v>1721600</v>
       </c>
       <c r="G76" s="3">
-        <v>1611600</v>
+        <v>1651200</v>
       </c>
       <c r="H76" s="3">
-        <v>1538800</v>
+        <v>1576600</v>
       </c>
       <c r="I76" s="3">
-        <v>1208700</v>
+        <v>1238400</v>
       </c>
       <c r="J76" s="3">
-        <v>1230800</v>
+        <v>1261000</v>
       </c>
       <c r="K76" s="3">
         <v>1301900</v>
@@ -4549,25 +4549,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>95100</v>
+        <v>97400</v>
       </c>
       <c r="E81" s="3">
-        <v>-126100</v>
+        <v>-129200</v>
       </c>
       <c r="F81" s="3">
-        <v>71700</v>
+        <v>73500</v>
       </c>
       <c r="G81" s="3">
-        <v>-36100</v>
+        <v>-37000</v>
       </c>
       <c r="H81" s="3">
-        <v>236500</v>
+        <v>242300</v>
       </c>
       <c r="I81" s="3">
-        <v>-114300</v>
+        <v>-117100</v>
       </c>
       <c r="J81" s="3">
-        <v>68900</v>
+        <v>70600</v>
       </c>
       <c r="K81" s="3">
         <v>-154400</v>
@@ -4985,25 +4985,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>158500</v>
+        <v>162400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1383900</v>
+        <v>-1417900</v>
       </c>
       <c r="F89" s="3">
-        <v>1742000</v>
+        <v>1784800</v>
       </c>
       <c r="G89" s="3">
-        <v>175800</v>
+        <v>180200</v>
       </c>
       <c r="H89" s="3">
-        <v>298900</v>
+        <v>306200</v>
       </c>
       <c r="I89" s="3">
-        <v>102900</v>
+        <v>105500</v>
       </c>
       <c r="J89" s="3">
-        <v>141400</v>
+        <v>144800</v>
       </c>
       <c r="K89" s="3">
         <v>116800</v>
@@ -5244,25 +5244,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-345400</v>
+        <v>-353900</v>
       </c>
       <c r="E94" s="3">
-        <v>1392300</v>
+        <v>1426500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1713000</v>
+        <v>-1755000</v>
       </c>
       <c r="G94" s="3">
-        <v>-144500</v>
+        <v>-148100</v>
       </c>
       <c r="H94" s="3">
-        <v>-293300</v>
+        <v>-300500</v>
       </c>
       <c r="I94" s="3">
-        <v>-69000</v>
+        <v>-70700</v>
       </c>
       <c r="J94" s="3">
-        <v>-115000</v>
+        <v>-117800</v>
       </c>
       <c r="K94" s="3">
         <v>-141400</v>
@@ -5326,13 +5326,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="E96" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="F96" s="3">
-        <v>-8900</v>
+        <v>-9200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5562,25 +5562,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>172000</v>
+        <v>176200</v>
       </c>
       <c r="E100" s="3">
-        <v>-36700</v>
+        <v>-37600</v>
       </c>
       <c r="F100" s="3">
-        <v>-22900</v>
+        <v>-23400</v>
       </c>
       <c r="G100" s="3">
-        <v>-110400</v>
+        <v>-113100</v>
       </c>
       <c r="H100" s="3">
-        <v>-111900</v>
+        <v>-114700</v>
       </c>
       <c r="I100" s="3">
-        <v>237400</v>
+        <v>243200</v>
       </c>
       <c r="J100" s="3">
-        <v>-14700</v>
+        <v>-15100</v>
       </c>
       <c r="K100" s="3">
         <v>1700</v>
@@ -5624,19 +5624,19 @@
         <v>1900</v>
       </c>
       <c r="E101" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="H101" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I101" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="J101" s="3">
         <v>1700</v>
@@ -5680,25 +5680,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E102" s="3">
-        <v>-25400</v>
+        <v>-26100</v>
       </c>
       <c r="F102" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G102" s="3">
-        <v>-72300</v>
+        <v>-74100</v>
       </c>
       <c r="H102" s="3">
-        <v>-110700</v>
+        <v>-113400</v>
       </c>
       <c r="I102" s="3">
-        <v>264100</v>
+        <v>270600</v>
       </c>
       <c r="J102" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="K102" s="3">
         <v>-22700</v>

--- a/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HMY_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1232500</v>
+        <v>1267200</v>
       </c>
       <c r="E8" s="3">
-        <v>1096600</v>
+        <v>1127400</v>
       </c>
       <c r="F8" s="3">
-        <v>1163200</v>
+        <v>1195900</v>
       </c>
       <c r="G8" s="3">
-        <v>1067500</v>
+        <v>1097500</v>
       </c>
       <c r="H8" s="3">
-        <v>1143900</v>
+        <v>1176100</v>
       </c>
       <c r="I8" s="3">
-        <v>729600</v>
+        <v>750100</v>
       </c>
       <c r="J8" s="3">
-        <v>820100</v>
+        <v>843200</v>
       </c>
       <c r="K8" s="3">
         <v>755500</v>
@@ -818,25 +818,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1047500</v>
+        <v>1077000</v>
       </c>
       <c r="E9" s="3">
-        <v>979500</v>
+        <v>1007100</v>
       </c>
       <c r="F9" s="3">
-        <v>1005600</v>
+        <v>1033900</v>
       </c>
       <c r="G9" s="3">
-        <v>914700</v>
+        <v>940400</v>
       </c>
       <c r="H9" s="3">
-        <v>891900</v>
+        <v>917000</v>
       </c>
       <c r="I9" s="3">
-        <v>656900</v>
+        <v>675300</v>
       </c>
       <c r="J9" s="3">
-        <v>713900</v>
+        <v>734000</v>
       </c>
       <c r="K9" s="3">
         <v>689200</v>
@@ -877,25 +877,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>185000</v>
+        <v>190200</v>
       </c>
       <c r="E10" s="3">
-        <v>117100</v>
+        <v>120300</v>
       </c>
       <c r="F10" s="3">
-        <v>157500</v>
+        <v>162000</v>
       </c>
       <c r="G10" s="3">
-        <v>152800</v>
+        <v>157100</v>
       </c>
       <c r="H10" s="3">
-        <v>252100</v>
+        <v>259200</v>
       </c>
       <c r="I10" s="3">
-        <v>72700</v>
+        <v>74700</v>
       </c>
       <c r="J10" s="3">
-        <v>106200</v>
+        <v>109200</v>
       </c>
       <c r="K10" s="3">
         <v>66300</v>
@@ -959,25 +959,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="E12" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F12" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G12" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H12" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I12" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J12" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="K12" s="3">
         <v>4400</v>
@@ -1077,22 +1077,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>36700</v>
+        <v>37700</v>
       </c>
       <c r="E14" s="3">
-        <v>223200</v>
+        <v>229500</v>
       </c>
       <c r="F14" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="G14" s="3">
-        <v>119100</v>
+        <v>122500</v>
       </c>
       <c r="H14" s="3">
         <v>-2200</v>
       </c>
       <c r="I14" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J14" s="3">
         <v>1400</v>
@@ -1215,25 +1215,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1102800</v>
+        <v>1133800</v>
       </c>
       <c r="E17" s="3">
-        <v>1225100</v>
+        <v>1259500</v>
       </c>
       <c r="F17" s="3">
-        <v>1074700</v>
+        <v>1104900</v>
       </c>
       <c r="G17" s="3">
-        <v>1066300</v>
+        <v>1096200</v>
       </c>
       <c r="H17" s="3">
-        <v>842600</v>
+        <v>866300</v>
       </c>
       <c r="I17" s="3">
-        <v>837500</v>
+        <v>861100</v>
       </c>
       <c r="J17" s="3">
-        <v>733500</v>
+        <v>754200</v>
       </c>
       <c r="K17" s="3">
         <v>911200</v>
@@ -1274,25 +1274,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>129700</v>
+        <v>133300</v>
       </c>
       <c r="E18" s="3">
-        <v>-128500</v>
+        <v>-132100</v>
       </c>
       <c r="F18" s="3">
-        <v>88500</v>
+        <v>91000</v>
       </c>
       <c r="G18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H18" s="3">
-        <v>301400</v>
+        <v>309800</v>
       </c>
       <c r="I18" s="3">
-        <v>-107900</v>
+        <v>-111000</v>
       </c>
       <c r="J18" s="3">
-        <v>86600</v>
+        <v>89000</v>
       </c>
       <c r="K18" s="3">
         <v>-155700</v>
@@ -1356,25 +1356,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="E20" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="F20" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G20" s="3">
-        <v>-11900</v>
+        <v>-12300</v>
       </c>
       <c r="H20" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="J20" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="K20" s="3">
         <v>-9500</v>
@@ -1415,25 +1415,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>217800</v>
+        <v>223900</v>
       </c>
       <c r="E21" s="3">
-        <v>-133300</v>
+        <v>-137000</v>
       </c>
       <c r="F21" s="3">
-        <v>186800</v>
+        <v>192000</v>
       </c>
       <c r="G21" s="3">
         <v>2200</v>
       </c>
       <c r="H21" s="3">
-        <v>402500</v>
+        <v>413800</v>
       </c>
       <c r="I21" s="3">
-        <v>-123400</v>
+        <v>-126800</v>
       </c>
       <c r="J21" s="3">
-        <v>181000</v>
+        <v>186000</v>
       </c>
       <c r="K21" s="3">
         <v>-165600</v>
@@ -1477,16 +1477,16 @@
         <v>16</v>
       </c>
       <c r="E22" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F22" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
@@ -1533,25 +1533,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>125100</v>
+        <v>128600</v>
       </c>
       <c r="E23" s="3">
-        <v>-142900</v>
+        <v>-146900</v>
       </c>
       <c r="F23" s="3">
-        <v>86800</v>
+        <v>89200</v>
       </c>
       <c r="G23" s="3">
-        <v>-10700</v>
+        <v>-11000</v>
       </c>
       <c r="H23" s="3">
-        <v>299600</v>
+        <v>308000</v>
       </c>
       <c r="I23" s="3">
-        <v>-110400</v>
+        <v>-113500</v>
       </c>
       <c r="J23" s="3">
-        <v>78900</v>
+        <v>81100</v>
       </c>
       <c r="K23" s="3">
         <v>-165200</v>
@@ -1592,25 +1592,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G24" s="3">
         <v>26500</v>
       </c>
-      <c r="E24" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>25800</v>
-      </c>
       <c r="H24" s="3">
-        <v>55900</v>
+        <v>57400</v>
       </c>
       <c r="I24" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J24" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="K24" s="3">
         <v>-10800</v>
@@ -1710,25 +1710,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>98600</v>
+        <v>101400</v>
       </c>
       <c r="E26" s="3">
-        <v>-128000</v>
+        <v>-131600</v>
       </c>
       <c r="F26" s="3">
-        <v>74400</v>
+        <v>76500</v>
       </c>
       <c r="G26" s="3">
-        <v>-36500</v>
+        <v>-37500</v>
       </c>
       <c r="H26" s="3">
-        <v>243800</v>
+        <v>250600</v>
       </c>
       <c r="I26" s="3">
-        <v>-115600</v>
+        <v>-118900</v>
       </c>
       <c r="J26" s="3">
-        <v>70600</v>
+        <v>72600</v>
       </c>
       <c r="K26" s="3">
         <v>-154400</v>
@@ -1769,25 +1769,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>97400</v>
+        <v>100200</v>
       </c>
       <c r="E27" s="3">
-        <v>-129200</v>
+        <v>-132900</v>
       </c>
       <c r="F27" s="3">
-        <v>73500</v>
+        <v>75600</v>
       </c>
       <c r="G27" s="3">
-        <v>-37000</v>
+        <v>-38000</v>
       </c>
       <c r="H27" s="3">
-        <v>242300</v>
+        <v>249100</v>
       </c>
       <c r="I27" s="3">
-        <v>-117100</v>
+        <v>-120400</v>
       </c>
       <c r="J27" s="3">
-        <v>70600</v>
+        <v>72600</v>
       </c>
       <c r="K27" s="3">
         <v>-154400</v>
@@ -2064,25 +2064,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E32" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="F32" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="G32" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="H32" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I32" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J32" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="K32" s="3">
         <v>9500</v>
@@ -2123,25 +2123,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>97400</v>
+        <v>100200</v>
       </c>
       <c r="E33" s="3">
-        <v>-129200</v>
+        <v>-132900</v>
       </c>
       <c r="F33" s="3">
-        <v>73500</v>
+        <v>75600</v>
       </c>
       <c r="G33" s="3">
-        <v>-37000</v>
+        <v>-38000</v>
       </c>
       <c r="H33" s="3">
-        <v>242300</v>
+        <v>249100</v>
       </c>
       <c r="I33" s="3">
-        <v>-117100</v>
+        <v>-120400</v>
       </c>
       <c r="J33" s="3">
-        <v>70600</v>
+        <v>72600</v>
       </c>
       <c r="K33" s="3">
         <v>-154400</v>
@@ -2241,25 +2241,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>97400</v>
+        <v>100200</v>
       </c>
       <c r="E35" s="3">
-        <v>-129200</v>
+        <v>-132900</v>
       </c>
       <c r="F35" s="3">
-        <v>73500</v>
+        <v>75600</v>
       </c>
       <c r="G35" s="3">
-        <v>-37000</v>
+        <v>-38000</v>
       </c>
       <c r="H35" s="3">
-        <v>242300</v>
+        <v>249100</v>
       </c>
       <c r="I35" s="3">
-        <v>-117100</v>
+        <v>-120400</v>
       </c>
       <c r="J35" s="3">
-        <v>70600</v>
+        <v>72600</v>
       </c>
       <c r="K35" s="3">
         <v>-154400</v>
@@ -2410,25 +2410,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116300</v>
+        <v>119600</v>
       </c>
       <c r="E41" s="3">
-        <v>129700</v>
+        <v>133400</v>
       </c>
       <c r="F41" s="3">
-        <v>155800</v>
+        <v>160200</v>
       </c>
       <c r="G41" s="3">
-        <v>149400</v>
+        <v>153600</v>
       </c>
       <c r="H41" s="3">
-        <v>223500</v>
+        <v>229700</v>
       </c>
       <c r="I41" s="3">
-        <v>336900</v>
+        <v>346300</v>
       </c>
       <c r="J41" s="3">
-        <v>66200</v>
+        <v>68100</v>
       </c>
       <c r="K41" s="3">
         <v>57200</v>
@@ -2528,25 +2528,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>123600</v>
+        <v>127000</v>
       </c>
       <c r="E43" s="3">
-        <v>89100</v>
+        <v>91600</v>
       </c>
       <c r="F43" s="3">
-        <v>99800</v>
+        <v>102600</v>
       </c>
       <c r="G43" s="3">
-        <v>87500</v>
+        <v>90000</v>
       </c>
       <c r="H43" s="3">
-        <v>78700</v>
+        <v>80900</v>
       </c>
       <c r="I43" s="3">
-        <v>69300</v>
+        <v>71300</v>
       </c>
       <c r="J43" s="3">
-        <v>69500</v>
+        <v>71400</v>
       </c>
       <c r="K43" s="3">
         <v>61300</v>
@@ -2587,25 +2587,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>145400</v>
+        <v>149500</v>
       </c>
       <c r="E44" s="3">
-        <v>149300</v>
+        <v>153500</v>
       </c>
       <c r="F44" s="3">
-        <v>118200</v>
+        <v>121500</v>
       </c>
       <c r="G44" s="3">
-        <v>134700</v>
+        <v>138500</v>
       </c>
       <c r="H44" s="3">
-        <v>116500</v>
+        <v>119800</v>
       </c>
       <c r="I44" s="3">
-        <v>128300</v>
+        <v>131900</v>
       </c>
       <c r="J44" s="3">
-        <v>103500</v>
+        <v>106400</v>
       </c>
       <c r="K44" s="3">
         <v>113200</v>
@@ -2646,25 +2646,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19400</v>
+        <v>19900</v>
       </c>
       <c r="E45" s="3">
-        <v>28900</v>
+        <v>29700</v>
       </c>
       <c r="F45" s="3">
-        <v>35300</v>
+        <v>36300</v>
       </c>
       <c r="G45" s="3">
-        <v>81500</v>
+        <v>83800</v>
       </c>
       <c r="H45" s="3">
-        <v>41900</v>
+        <v>43000</v>
       </c>
       <c r="I45" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J45" s="3">
-        <v>31300</v>
+        <v>32200</v>
       </c>
       <c r="K45" s="3">
         <v>20300</v>
@@ -2705,25 +2705,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>404700</v>
+        <v>416100</v>
       </c>
       <c r="E46" s="3">
-        <v>397100</v>
+        <v>408300</v>
       </c>
       <c r="F46" s="3">
-        <v>409100</v>
+        <v>420600</v>
       </c>
       <c r="G46" s="3">
-        <v>453100</v>
+        <v>465900</v>
       </c>
       <c r="H46" s="3">
-        <v>460500</v>
+        <v>473500</v>
       </c>
       <c r="I46" s="3">
-        <v>538700</v>
+        <v>553800</v>
       </c>
       <c r="J46" s="3">
-        <v>270500</v>
+        <v>278100</v>
       </c>
       <c r="K46" s="3">
         <v>252000</v>
@@ -2764,25 +2764,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="E47" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="F47" s="3">
-        <v>23600</v>
+        <v>24200</v>
       </c>
       <c r="G47" s="3">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="H47" s="3">
-        <v>30600</v>
+        <v>31500</v>
       </c>
       <c r="I47" s="3">
-        <v>28300</v>
+        <v>29100</v>
       </c>
       <c r="J47" s="3">
-        <v>25100</v>
+        <v>25800</v>
       </c>
       <c r="K47" s="3">
         <v>25600</v>
@@ -2823,25 +2823,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2062800</v>
+        <v>2120800</v>
       </c>
       <c r="E48" s="3">
-        <v>1741900</v>
+        <v>1790900</v>
       </c>
       <c r="F48" s="3">
-        <v>1894900</v>
+        <v>1948200</v>
       </c>
       <c r="G48" s="3">
-        <v>1780300</v>
+        <v>1830400</v>
       </c>
       <c r="H48" s="3">
-        <v>1833300</v>
+        <v>1884900</v>
       </c>
       <c r="I48" s="3">
-        <v>1546600</v>
+        <v>1590100</v>
       </c>
       <c r="J48" s="3">
-        <v>1494800</v>
+        <v>1536800</v>
       </c>
       <c r="K48" s="3">
         <v>1597500</v>
@@ -2882,25 +2882,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F49" s="3">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="G49" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="H49" s="3">
-        <v>28700</v>
+        <v>29500</v>
       </c>
       <c r="I49" s="3">
-        <v>28400</v>
+        <v>29200</v>
       </c>
       <c r="J49" s="3">
-        <v>28300</v>
+        <v>29100</v>
       </c>
       <c r="K49" s="3">
         <v>30700</v>
@@ -3059,25 +3059,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>333700</v>
+        <v>343100</v>
       </c>
       <c r="E52" s="3">
-        <v>312400</v>
+        <v>321200</v>
       </c>
       <c r="F52" s="3">
-        <v>305300</v>
+        <v>313900</v>
       </c>
       <c r="G52" s="3">
-        <v>309000</v>
+        <v>317700</v>
       </c>
       <c r="H52" s="3">
-        <v>336500</v>
+        <v>346000</v>
       </c>
       <c r="I52" s="3">
-        <v>226300</v>
+        <v>232600</v>
       </c>
       <c r="J52" s="3">
-        <v>197800</v>
+        <v>203300</v>
       </c>
       <c r="K52" s="3">
         <v>209200</v>
@@ -3177,25 +3177,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2826800</v>
+        <v>2906200</v>
       </c>
       <c r="E54" s="3">
-        <v>2480400</v>
+        <v>2550100</v>
       </c>
       <c r="F54" s="3">
-        <v>2651400</v>
+        <v>2725900</v>
       </c>
       <c r="G54" s="3">
-        <v>2586100</v>
+        <v>2658800</v>
       </c>
       <c r="H54" s="3">
-        <v>2680000</v>
+        <v>2755400</v>
       </c>
       <c r="I54" s="3">
-        <v>2368200</v>
+        <v>2434800</v>
       </c>
       <c r="J54" s="3">
-        <v>2016500</v>
+        <v>2073200</v>
       </c>
       <c r="K54" s="3">
         <v>2114900</v>
@@ -3282,25 +3282,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>243100</v>
+        <v>249900</v>
       </c>
       <c r="E57" s="3">
-        <v>238100</v>
+        <v>244800</v>
       </c>
       <c r="F57" s="3">
-        <v>222400</v>
+        <v>228700</v>
       </c>
       <c r="G57" s="3">
-        <v>232600</v>
+        <v>239100</v>
       </c>
       <c r="H57" s="3">
-        <v>207900</v>
+        <v>213800</v>
       </c>
       <c r="I57" s="3">
-        <v>159300</v>
+        <v>163800</v>
       </c>
       <c r="J57" s="3">
-        <v>155000</v>
+        <v>159400</v>
       </c>
       <c r="K57" s="3">
         <v>165500</v>
@@ -3344,22 +3344,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F58" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="G58" s="3">
-        <v>20500</v>
+        <v>21100</v>
       </c>
       <c r="H58" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="I58" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="J58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K58" s="3">
         <v>5100</v>
@@ -3400,25 +3400,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23800</v>
+        <v>24500</v>
       </c>
       <c r="E59" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="F59" s="3">
-        <v>31400</v>
+        <v>32300</v>
       </c>
       <c r="G59" s="3">
-        <v>41200</v>
+        <v>42300</v>
       </c>
       <c r="H59" s="3">
-        <v>116200</v>
+        <v>119400</v>
       </c>
       <c r="I59" s="3">
-        <v>227800</v>
+        <v>234200</v>
       </c>
       <c r="J59" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="K59" s="3">
         <v>15500</v>
@@ -3459,25 +3459,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>266900</v>
+        <v>274400</v>
       </c>
       <c r="E60" s="3">
-        <v>263600</v>
+        <v>271000</v>
       </c>
       <c r="F60" s="3">
-        <v>273600</v>
+        <v>281300</v>
       </c>
       <c r="G60" s="3">
-        <v>294300</v>
+        <v>302500</v>
       </c>
       <c r="H60" s="3">
-        <v>344800</v>
+        <v>354400</v>
       </c>
       <c r="I60" s="3">
-        <v>400600</v>
+        <v>411900</v>
       </c>
       <c r="J60" s="3">
-        <v>197000</v>
+        <v>202500</v>
       </c>
       <c r="K60" s="3">
         <v>186200</v>
@@ -3518,25 +3518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>365900</v>
+        <v>376200</v>
       </c>
       <c r="E61" s="3">
-        <v>168500</v>
+        <v>173200</v>
       </c>
       <c r="F61" s="3">
-        <v>168400</v>
+        <v>173100</v>
       </c>
       <c r="G61" s="3">
-        <v>157600</v>
+        <v>162000</v>
       </c>
       <c r="H61" s="3">
-        <v>233500</v>
+        <v>240100</v>
       </c>
       <c r="I61" s="3">
-        <v>395500</v>
+        <v>406600</v>
       </c>
       <c r="J61" s="3">
-        <v>289000</v>
+        <v>297100</v>
       </c>
       <c r="K61" s="3">
         <v>335400</v>
@@ -3577,25 +3577,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>509400</v>
+        <v>523700</v>
       </c>
       <c r="E62" s="3">
-        <v>452300</v>
+        <v>465000</v>
       </c>
       <c r="F62" s="3">
-        <v>484300</v>
+        <v>497900</v>
       </c>
       <c r="G62" s="3">
-        <v>480200</v>
+        <v>493700</v>
       </c>
       <c r="H62" s="3">
-        <v>569900</v>
+        <v>585900</v>
       </c>
       <c r="I62" s="3">
-        <v>333500</v>
+        <v>342900</v>
       </c>
       <c r="J62" s="3">
-        <v>269800</v>
+        <v>277400</v>
       </c>
       <c r="K62" s="3">
         <v>291400</v>
@@ -3813,25 +3813,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1146900</v>
+        <v>1179200</v>
       </c>
       <c r="E66" s="3">
-        <v>888600</v>
+        <v>913600</v>
       </c>
       <c r="F66" s="3">
-        <v>929800</v>
+        <v>955900</v>
       </c>
       <c r="G66" s="3">
-        <v>934900</v>
+        <v>961200</v>
       </c>
       <c r="H66" s="3">
-        <v>1103400</v>
+        <v>1134400</v>
       </c>
       <c r="I66" s="3">
-        <v>1129800</v>
+        <v>1161600</v>
       </c>
       <c r="J66" s="3">
-        <v>755500</v>
+        <v>776700</v>
       </c>
       <c r="K66" s="3">
         <v>813000</v>
@@ -4131,25 +4131,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-65300</v>
+        <v>-67200</v>
       </c>
       <c r="E72" s="3">
-        <v>-153400</v>
+        <v>-157700</v>
       </c>
       <c r="F72" s="3">
-        <v>-23600</v>
+        <v>-24200</v>
       </c>
       <c r="G72" s="3">
-        <v>-94000</v>
+        <v>-96600</v>
       </c>
       <c r="H72" s="3">
-        <v>-168600</v>
+        <v>-173400</v>
       </c>
       <c r="I72" s="3">
-        <v>-506900</v>
+        <v>-521200</v>
       </c>
       <c r="J72" s="3">
-        <v>-304900</v>
+        <v>-313500</v>
       </c>
       <c r="K72" s="3">
         <v>-399400</v>
@@ -4367,25 +4367,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1679800</v>
+        <v>1727100</v>
       </c>
       <c r="E76" s="3">
-        <v>1591800</v>
+        <v>1636500</v>
       </c>
       <c r="F76" s="3">
-        <v>1721600</v>
+        <v>1770000</v>
       </c>
       <c r="G76" s="3">
-        <v>1651200</v>
+        <v>1697600</v>
       </c>
       <c r="H76" s="3">
-        <v>1576600</v>
+        <v>1620900</v>
       </c>
       <c r="I76" s="3">
-        <v>1238400</v>
+        <v>1273300</v>
       </c>
       <c r="J76" s="3">
-        <v>1261000</v>
+        <v>1296500</v>
       </c>
       <c r="K76" s="3">
         <v>1301900</v>
@@ -4549,25 +4549,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>97400</v>
+        <v>100200</v>
       </c>
       <c r="E81" s="3">
-        <v>-129200</v>
+        <v>-132900</v>
       </c>
       <c r="F81" s="3">
-        <v>73500</v>
+        <v>75600</v>
       </c>
       <c r="G81" s="3">
-        <v>-37000</v>
+        <v>-38000</v>
       </c>
       <c r="H81" s="3">
-        <v>242300</v>
+        <v>249100</v>
       </c>
       <c r="I81" s="3">
-        <v>-117100</v>
+        <v>-120400</v>
       </c>
       <c r="J81" s="3">
-        <v>70600</v>
+        <v>72600</v>
       </c>
       <c r="K81" s="3">
         <v>-154400</v>
@@ -4985,25 +4985,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>162400</v>
+        <v>167000</v>
       </c>
       <c r="E89" s="3">
-        <v>-1417900</v>
+        <v>-1457700</v>
       </c>
       <c r="F89" s="3">
-        <v>1784800</v>
+        <v>1834900</v>
       </c>
       <c r="G89" s="3">
-        <v>180200</v>
+        <v>185200</v>
       </c>
       <c r="H89" s="3">
-        <v>306200</v>
+        <v>314800</v>
       </c>
       <c r="I89" s="3">
-        <v>105500</v>
+        <v>108400</v>
       </c>
       <c r="J89" s="3">
-        <v>144800</v>
+        <v>148900</v>
       </c>
       <c r="K89" s="3">
         <v>116800</v>
@@ -5244,25 +5244,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-353900</v>
+        <v>-363900</v>
       </c>
       <c r="E94" s="3">
-        <v>1426500</v>
+        <v>1466600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1755000</v>
+        <v>-1804400</v>
       </c>
       <c r="G94" s="3">
-        <v>-148100</v>
+        <v>-152200</v>
       </c>
       <c r="H94" s="3">
-        <v>-300500</v>
+        <v>-308900</v>
       </c>
       <c r="I94" s="3">
-        <v>-70700</v>
+        <v>-72700</v>
       </c>
       <c r="J94" s="3">
-        <v>-117800</v>
+        <v>-121100</v>
       </c>
       <c r="K94" s="3">
         <v>-141400</v>
@@ -5326,13 +5326,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="E96" s="3">
-        <v>-13600</v>
+        <v>-14000</v>
       </c>
       <c r="F96" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5562,25 +5562,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>176200</v>
+        <v>181100</v>
       </c>
       <c r="E100" s="3">
-        <v>-37600</v>
+        <v>-38600</v>
       </c>
       <c r="F100" s="3">
-        <v>-23400</v>
+        <v>-24100</v>
       </c>
       <c r="G100" s="3">
-        <v>-113100</v>
+        <v>-116300</v>
       </c>
       <c r="H100" s="3">
-        <v>-114700</v>
+        <v>-117900</v>
       </c>
       <c r="I100" s="3">
-        <v>243200</v>
+        <v>250100</v>
       </c>
       <c r="J100" s="3">
-        <v>-15100</v>
+        <v>-15500</v>
       </c>
       <c r="K100" s="3">
         <v>1700</v>
@@ -5621,7 +5621,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
         <v>2900</v>
@@ -5630,13 +5630,13 @@
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H101" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="I101" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="J101" s="3">
         <v>1700</v>
@@ -5680,25 +5680,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13400</v>
+        <v>-13800</v>
       </c>
       <c r="E102" s="3">
-        <v>-26100</v>
+        <v>-26800</v>
       </c>
       <c r="F102" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="G102" s="3">
-        <v>-74100</v>
+        <v>-76200</v>
       </c>
       <c r="H102" s="3">
-        <v>-113400</v>
+        <v>-116600</v>
       </c>
       <c r="I102" s="3">
-        <v>270600</v>
+        <v>278200</v>
       </c>
       <c r="J102" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="K102" s="3">
         <v>-22700</v>
